--- a/Projeto/Grid independency.xlsx
+++ b/Projeto/Grid independency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Farinha\Documents\GitHub\TCal\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6330273A-0C3B-4ED3-8D2B-CDDA11EDA165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFF8EC9-CFA6-426A-BE3E-D380CCE9B28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9830628-72A4-43C7-B2B0-C1E936715225}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="B1:Y606"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +499,7 @@
         <v>20</v>
       </c>
       <c r="M3">
-        <f>(G3+J3)/2</f>
+        <f t="shared" ref="M3:M66" si="0">(G3+J3)/2</f>
         <v>1052.114298245835</v>
       </c>
       <c r="N3">
@@ -547,11 +547,11 @@
         <v>40</v>
       </c>
       <c r="M4">
-        <f>(G4+J4)/2</f>
+        <f t="shared" si="0"/>
         <v>997.53320118639454</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N67" si="0">C4-M4</f>
+        <f t="shared" ref="N4:N67" si="1">C4-M4</f>
         <v>0.35869970329952139</v>
       </c>
       <c r="R4">
@@ -567,11 +567,11 @@
         <v>40</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4:X17" si="1">(U4+R4)/2</f>
+        <f t="shared" ref="X4:X17" si="2">(U4+R4)/2</f>
         <v>997.72506438536493</v>
       </c>
       <c r="Y4">
-        <f t="shared" ref="Y4:Y17" si="2">X4-M4</f>
+        <f t="shared" ref="Y4:Y17" si="3">X4-M4</f>
         <v>0.19186319897039539</v>
       </c>
     </row>
@@ -595,11 +595,11 @@
         <v>60</v>
       </c>
       <c r="M5">
-        <f>(G5+J5)/2</f>
+        <f t="shared" si="0"/>
         <v>958.16677244145501</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27295179106101841</v>
       </c>
       <c r="R5">
@@ -615,11 +615,11 @@
         <v>60</v>
       </c>
       <c r="X5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>958.29187245103458</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1251000095795689</v>
       </c>
     </row>
@@ -643,11 +643,11 @@
         <v>80</v>
       </c>
       <c r="M6">
-        <f>(G6+J6)/2</f>
+        <f t="shared" si="0"/>
         <v>926.48089025979652</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22082793453648719</v>
       </c>
       <c r="R6">
@@ -663,11 +663,11 @@
         <v>80</v>
       </c>
       <c r="X6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>926.57490612945946</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.4015869662939622E-2</v>
       </c>
     </row>
@@ -691,11 +691,11 @@
         <v>100</v>
       </c>
       <c r="M7">
-        <f>(G7+J7)/2</f>
+        <f t="shared" si="0"/>
         <v>899.44557141732753</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18502103470052589</v>
       </c>
       <c r="R7">
@@ -711,11 +711,11 @@
         <v>100</v>
       </c>
       <c r="X7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>899.52223274656603</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.666132923850455E-2</v>
       </c>
     </row>
@@ -739,11 +739,11 @@
         <v>120</v>
       </c>
       <c r="M8">
-        <f>(G8+J8)/2</f>
+        <f t="shared" si="0"/>
         <v>875.52340306146948</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15837920300350561</v>
       </c>
       <c r="R8">
@@ -759,11 +759,11 @@
         <v>120</v>
       </c>
       <c r="X8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>875.58894225099095</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.5539189521473418E-2</v>
       </c>
     </row>
@@ -787,11 +787,11 @@
         <v>140</v>
       </c>
       <c r="M9">
-        <f>(G9+J9)/2</f>
+        <f t="shared" si="0"/>
         <v>853.82566013875908</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13824280720893967</v>
       </c>
       <c r="R9">
@@ -807,11 +807,11 @@
         <v>140</v>
       </c>
       <c r="X9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>853.8837856482869</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.812550952782658E-2</v>
       </c>
     </row>
@@ -835,11 +835,11 @@
         <v>160</v>
       </c>
       <c r="M10">
-        <f>(G10+J10)/2</f>
+        <f t="shared" si="0"/>
         <v>833.79763506399058</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12285819184137381</v>
       </c>
       <c r="R10">
@@ -855,11 +855,11 @@
         <v>160</v>
       </c>
       <c r="X10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>833.85045885541547</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.2823791424884803E-2</v>
       </c>
     </row>
@@ -883,11 +883,11 @@
         <v>180</v>
       </c>
       <c r="M11">
-        <f>(G11+J11)/2</f>
+        <f t="shared" si="0"/>
         <v>815.07456371388298</v>
       </c>
       <c r="N11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11067035400901659</v>
       </c>
       <c r="R11">
@@ -903,11 +903,11 @@
         <v>180</v>
       </c>
       <c r="X11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>815.12312124187451</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.8557527991533789E-2</v>
       </c>
     </row>
@@ -931,11 +931,11 @@
         <v>200</v>
       </c>
       <c r="M12">
-        <f>(G12+J12)/2</f>
+        <f t="shared" si="0"/>
         <v>797.40578557844242</v>
       </c>
       <c r="N12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10257869520160057</v>
       </c>
       <c r="R12">
@@ -951,11 +951,11 @@
         <v>200</v>
       </c>
       <c r="X12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>797.45104213135551</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5256552913087944E-2</v>
       </c>
     </row>
@@ -979,11 +979,11 @@
         <v>220</v>
       </c>
       <c r="M13">
-        <f>(G13+J13)/2</f>
+        <f t="shared" si="0"/>
         <v>780.61368369828097</v>
       </c>
       <c r="N13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.6368651730017518E-2</v>
       </c>
       <c r="R13">
@@ -999,11 +999,11 @@
         <v>220</v>
       </c>
       <c r="X13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>780.65625634829848</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.2572650017518754E-2</v>
       </c>
     </row>
@@ -1027,11 +1027,11 @@
         <v>240</v>
       </c>
       <c r="M14">
-        <f>(G14+J14)/2</f>
+        <f t="shared" si="0"/>
         <v>764.56849859915951</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.120008744343977E-2</v>
       </c>
       <c r="R14">
@@ -1047,11 +1047,11 @@
         <v>240</v>
       </c>
       <c r="X14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>764.60858945224948</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0090853089964185E-2</v>
       </c>
     </row>
@@ -1075,11 +1075,11 @@
         <v>260</v>
       </c>
       <c r="M15">
-        <f>(G15+J15)/2</f>
+        <f t="shared" si="0"/>
         <v>749.17172863000246</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.7070881586555515E-2</v>
       </c>
       <c r="R15">
@@ -1095,11 +1095,11 @@
         <v>260</v>
       </c>
       <c r="X15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>749.20972260153144</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7993971528976545E-2</v>
       </c>
     </row>
@@ -1123,11 +1123,11 @@
         <v>280</v>
       </c>
       <c r="M16">
-        <f>(G16+J16)/2</f>
+        <f t="shared" si="0"/>
         <v>734.34767109609652</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3369943244520073E-2</v>
       </c>
       <c r="R16">
@@ -1143,11 +1143,11 @@
         <v>280</v>
       </c>
       <c r="X16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>734.3836266623855</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5955566288976115E-2</v>
       </c>
     </row>
@@ -1171,11 +1171,11 @@
         <v>300</v>
       </c>
       <c r="M17">
-        <f>(G17+J17)/2</f>
+        <f t="shared" si="0"/>
         <v>720.03559019324052</v>
       </c>
       <c r="N17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.0266712120533157E-2</v>
       </c>
       <c r="R17">
@@ -1191,11 +1191,11 @@
         <v>300</v>
       </c>
       <c r="X17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>720.06979585755744</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4205664316914408E-2</v>
       </c>
     </row>
@@ -1219,11 +1219,11 @@
         <v>320</v>
       </c>
       <c r="M18">
-        <f>(G18+J18)/2</f>
+        <f t="shared" si="0"/>
         <v>706.18652764231456</v>
       </c>
       <c r="N18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.7622292979413032E-2</v>
       </c>
       <c r="R18">
@@ -1253,11 +1253,11 @@
         <v>340</v>
       </c>
       <c r="M19">
-        <f>(G19+J19)/2</f>
+        <f t="shared" si="0"/>
         <v>692.76038486605546</v>
       </c>
       <c r="N19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.50063858795329E-2</v>
       </c>
       <c r="R19">
@@ -1287,11 +1287,11 @@
         <v>360</v>
       </c>
       <c r="M20">
-        <f>(G20+J20)/2</f>
+        <f t="shared" si="0"/>
         <v>679.72290826872154</v>
       </c>
       <c r="N20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.2701639454407996E-2</v>
       </c>
       <c r="R20">
@@ -1321,11 +1321,11 @@
         <v>380</v>
       </c>
       <c r="M21">
-        <f>(G21+J21)/2</f>
+        <f t="shared" si="0"/>
         <v>667.04564279175747</v>
       </c>
       <c r="N21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.1660056655559856E-2</v>
       </c>
       <c r="R21">
@@ -1355,11 +1355,11 @@
         <v>400</v>
       </c>
       <c r="M22">
-        <f>(G22+J22)/2</f>
+        <f t="shared" si="0"/>
         <v>654.70353256261149</v>
       </c>
       <c r="N22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.0759164317564682E-2</v>
       </c>
       <c r="R22">
@@ -1389,11 +1389,11 @@
         <v>420</v>
       </c>
       <c r="M23">
-        <f>(G23+J23)/2</f>
+        <f t="shared" si="0"/>
         <v>642.67519206220447</v>
       </c>
       <c r="N23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.9979832756530413E-2</v>
       </c>
       <c r="R23">
@@ -1423,11 +1423,11 @@
         <v>440</v>
       </c>
       <c r="M24">
-        <f>(G24+J24)/2</f>
+        <f t="shared" si="0"/>
         <v>630.94229569213246</v>
       </c>
       <c r="N24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.8980967873585541E-2</v>
       </c>
       <c r="R24">
@@ -1457,11 +1457,11 @@
         <v>460</v>
       </c>
       <c r="M25">
-        <f>(G25+J25)/2</f>
+        <f t="shared" si="0"/>
         <v>619.48812613134248</v>
       </c>
       <c r="N25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.8095287133473903E-2</v>
       </c>
       <c r="R25">
@@ -1491,11 +1491,11 @@
         <v>480</v>
       </c>
       <c r="M26">
-        <f>(G26+J26)/2</f>
+        <f t="shared" si="0"/>
         <v>608.29855717090595</v>
       </c>
       <c r="N26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6984172092020344E-2</v>
       </c>
       <c r="R26">
@@ -1525,11 +1525,11 @@
         <v>500</v>
       </c>
       <c r="M27">
-        <f>(G27+J27)/2</f>
+        <f t="shared" si="0"/>
         <v>597.360414974832</v>
       </c>
       <c r="N27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.5983741381046457E-2</v>
       </c>
       <c r="R27">
@@ -1559,11 +1559,11 @@
         <v>520</v>
       </c>
       <c r="M28">
-        <f>(G28+J28)/2</f>
+        <f t="shared" si="0"/>
         <v>586.66225882983849</v>
       </c>
       <c r="N28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.5084352297503756E-2</v>
       </c>
       <c r="R28">
@@ -1593,11 +1593,11 @@
         <v>540</v>
       </c>
       <c r="M29">
-        <f>(G29+J29)/2</f>
+        <f t="shared" si="0"/>
         <v>576.19415922870849</v>
       </c>
       <c r="N29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.3953831083495061E-2</v>
       </c>
       <c r="R29">
@@ -1627,11 +1627,11 @@
         <v>560</v>
       </c>
       <c r="M30">
-        <f>(G30+J30)/2</f>
+        <f t="shared" si="0"/>
         <v>565.94654525900842</v>
       </c>
       <c r="N30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.2923886828571085E-2</v>
       </c>
       <c r="R30">
@@ -1661,11 +1661,11 @@
         <v>580</v>
       </c>
       <c r="M31">
-        <f>(G31+J31)/2</f>
+        <f t="shared" si="0"/>
         <v>555.91139455444704</v>
       </c>
       <c r="N31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.2954006141922036E-2</v>
       </c>
       <c r="R31">
@@ -1695,11 +1695,11 @@
         <v>600</v>
       </c>
       <c r="M32">
-        <f>(G32+J32)/2</f>
+        <f t="shared" si="0"/>
         <v>546.08078041729948</v>
       </c>
       <c r="N32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.2994505072538232E-2</v>
       </c>
       <c r="R32">
@@ -1729,11 +1729,11 @@
         <v>620</v>
       </c>
       <c r="M33">
-        <f>(G33+J33)/2</f>
+        <f t="shared" si="0"/>
         <v>536.44778156650295</v>
       </c>
       <c r="N33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.3044120705058049E-2</v>
       </c>
       <c r="R33">
@@ -1763,11 +1763,11 @@
         <v>640</v>
       </c>
       <c r="M34">
-        <f>(G34+J34)/2</f>
+        <f t="shared" si="0"/>
         <v>527.00637406452893</v>
       </c>
       <c r="N34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.2779453972098054E-2</v>
       </c>
       <c r="R34">
@@ -1797,11 +1797,11 @@
         <v>660</v>
       </c>
       <c r="M35">
-        <f>(G35+J35)/2</f>
+        <f t="shared" si="0"/>
         <v>517.75037647251497</v>
       </c>
       <c r="N35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.253649095901892E-2</v>
       </c>
       <c r="R35">
@@ -1831,11 +1831,11 @@
         <v>680</v>
       </c>
       <c r="M36">
-        <f>(G36+J36)/2</f>
+        <f t="shared" si="0"/>
         <v>508.67470859019704</v>
       </c>
       <c r="N36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.1988522441936311E-2</v>
       </c>
       <c r="R36">
@@ -1865,11 +1865,11 @@
         <v>700</v>
       </c>
       <c r="M37">
-        <f>(G37+J37)/2</f>
+        <f t="shared" si="0"/>
         <v>499.77400963841751</v>
       </c>
       <c r="N37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.1473411247504828E-2</v>
       </c>
       <c r="R37">
@@ -1899,11 +1899,11 @@
         <v>720</v>
       </c>
       <c r="M38">
-        <f>(G38+J38)/2</f>
+        <f t="shared" si="0"/>
         <v>491.04359699028998</v>
       </c>
       <c r="N38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.098788304802838E-2</v>
       </c>
       <c r="R38">
@@ -1933,11 +1933,11 @@
         <v>740</v>
       </c>
       <c r="M39">
-        <f>(G39+J39)/2</f>
+        <f t="shared" si="0"/>
         <v>482.47940494271052</v>
       </c>
       <c r="N39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0208273914497568E-2</v>
       </c>
       <c r="R39">
@@ -1967,11 +1967,11 @@
         <v>760</v>
       </c>
       <c r="M40">
-        <f>(G40+J40)/2</f>
+        <f t="shared" si="0"/>
         <v>474.07697209592197</v>
       </c>
       <c r="N40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.946824156603725E-2</v>
       </c>
       <c r="R40">
@@ -2001,11 +2001,11 @@
         <v>780</v>
       </c>
       <c r="M41">
-        <f>(G41+J41)/2</f>
+        <f t="shared" si="0"/>
         <v>465.83272904766852</v>
       </c>
       <c r="N41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.9714405186468866E-2</v>
       </c>
       <c r="R41">
@@ -2035,11 +2035,11 @@
         <v>800</v>
       </c>
       <c r="M42">
-        <f>(G42+J42)/2</f>
+        <f t="shared" si="0"/>
         <v>457.74264908007399</v>
       </c>
       <c r="N42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.9924695297013386E-2</v>
       </c>
       <c r="R42">
@@ -2069,11 +2069,11 @@
         <v>820</v>
       </c>
       <c r="M43">
-        <f>(G43+J43)/2</f>
+        <f t="shared" si="0"/>
         <v>449.80322839031049</v>
       </c>
       <c r="N43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0101682220533803E-2</v>
       </c>
       <c r="R43">
@@ -2103,11 +2103,11 @@
         <v>840</v>
       </c>
       <c r="M44">
-        <f>(G44+J44)/2</f>
+        <f t="shared" si="0"/>
         <v>442.01144642314898</v>
       </c>
       <c r="N44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.992736794104303E-2</v>
       </c>
       <c r="R44">
@@ -2137,11 +2137,11 @@
         <v>860</v>
       </c>
       <c r="M45">
-        <f>(G45+J45)/2</f>
+        <f t="shared" si="0"/>
         <v>434.3637731785895</v>
       </c>
       <c r="N45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.9739488844513744E-2</v>
       </c>
       <c r="R45">
@@ -2171,11 +2171,11 @@
         <v>880</v>
       </c>
       <c r="M46">
-        <f>(G46+J46)/2</f>
+        <f t="shared" si="0"/>
         <v>426.85714703997246</v>
       </c>
       <c r="N46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.9539112934544391E-2</v>
       </c>
       <c r="R46">
@@ -2205,11 +2205,11 @@
         <v>900</v>
       </c>
       <c r="M47">
-        <f>(G47+J47)/2</f>
+        <f t="shared" si="0"/>
         <v>419.48894228265749</v>
       </c>
       <c r="N47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.9010402274509488E-2</v>
       </c>
       <c r="R47">
@@ -2239,11 +2239,11 @@
         <v>920</v>
       </c>
       <c r="M48">
-        <f>(G48+J48)/2</f>
+        <f t="shared" si="0"/>
         <v>412.25599182559</v>
       </c>
       <c r="N48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.8486791749999156E-2</v>
       </c>
       <c r="R48">
@@ -2273,11 +2273,11 @@
         <v>940</v>
       </c>
       <c r="M49">
-        <f>(G49+J49)/2</f>
+        <f t="shared" si="0"/>
         <v>405.155879849624</v>
       </c>
       <c r="N49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.76487513009738E-2</v>
       </c>
       <c r="R49">
@@ -2307,11 +2307,11 @@
         <v>960</v>
       </c>
       <c r="M50">
-        <f>(G50+J50)/2</f>
+        <f t="shared" si="0"/>
         <v>398.18562556853453</v>
       </c>
       <c r="N50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.6831650098445152E-2</v>
       </c>
       <c r="R50">
@@ -2341,11 +2341,11 @@
         <v>980</v>
       </c>
       <c r="M51">
-        <f>(G51+J51)/2</f>
+        <f t="shared" si="0"/>
         <v>391.34266701874901</v>
       </c>
       <c r="N51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.7293314685978203E-2</v>
       </c>
       <c r="R51">
@@ -2375,11 +2375,11 @@
         <v>1000</v>
       </c>
       <c r="M52">
-        <f>(G52+J52)/2</f>
+        <f t="shared" si="0"/>
         <v>384.624835185108</v>
       </c>
       <c r="N52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.7376224148015353E-2</v>
       </c>
       <c r="R52">
@@ -2409,11 +2409,11 @@
         <v>1020</v>
       </c>
       <c r="M53">
-        <f>(G53+J53)/2</f>
+        <f t="shared" si="0"/>
         <v>378.02938319520104</v>
       </c>
       <c r="N53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.741730063596151E-2</v>
       </c>
       <c r="R53">
@@ -2443,11 +2443,11 @@
         <v>1040</v>
       </c>
       <c r="M54">
-        <f>(G54+J54)/2</f>
+        <f t="shared" si="0"/>
         <v>371.55428221583247</v>
       </c>
       <c r="N54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.7100729235514791E-2</v>
       </c>
       <c r="R54">
@@ -2477,11 +2477,11 @@
         <v>1060</v>
       </c>
       <c r="M55">
-        <f>(G55+J55)/2</f>
+        <f t="shared" si="0"/>
         <v>365.19691063366304</v>
       </c>
       <c r="N55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.6764871985990339E-2</v>
       </c>
       <c r="R55">
@@ -2511,11 +2511,11 @@
         <v>1080</v>
       </c>
       <c r="M56">
-        <f>(G56+J56)/2</f>
+        <f t="shared" si="0"/>
         <v>358.95504028129847</v>
       </c>
       <c r="N56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.641227155155093E-2</v>
       </c>
       <c r="R56">
@@ -2545,11 +2545,11 @@
         <v>1100</v>
       </c>
       <c r="M57">
-        <f>(G57+J57)/2</f>
+        <f t="shared" si="0"/>
         <v>352.82681378354448</v>
       </c>
       <c r="N57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5728908995547499E-2</v>
       </c>
       <c r="R57">
@@ -2579,11 +2579,11 @@
         <v>1120</v>
       </c>
       <c r="M58">
-        <f>(G58+J58)/2</f>
+        <f t="shared" si="0"/>
         <v>346.80977712982951</v>
       </c>
       <c r="N58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5048620660500092E-2</v>
       </c>
       <c r="R58">
@@ -2613,11 +2613,11 @@
         <v>1140</v>
       </c>
       <c r="M59">
-        <f>(G59+J59)/2</f>
+        <f t="shared" si="0"/>
         <v>340.90217669807453</v>
       </c>
       <c r="N59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.405341415746534E-2</v>
       </c>
       <c r="R59">
@@ -2647,11 +2647,11 @@
         <v>1160</v>
       </c>
       <c r="M60">
-        <f>(G60+J60)/2</f>
+        <f t="shared" si="0"/>
         <v>335.10165148373153</v>
       </c>
       <c r="N60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.3078885505442486E-2</v>
       </c>
       <c r="R60">
@@ -2681,11 +2681,11 @@
         <v>1180</v>
       </c>
       <c r="M61">
-        <f>(G61+J61)/2</f>
+        <f t="shared" si="0"/>
         <v>329.40622013656952</v>
       </c>
       <c r="N61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.3370200404458501E-2</v>
       </c>
       <c r="R61">
@@ -2715,11 +2715,11 @@
         <v>1200</v>
       </c>
       <c r="M62">
-        <f>(G62+J62)/2</f>
+        <f t="shared" si="0"/>
         <v>323.8142599283525</v>
       </c>
       <c r="N62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.328715891948832E-2</v>
       </c>
       <c r="R62">
@@ -2749,11 +2749,11 @@
         <v>1220</v>
       </c>
       <c r="M63">
-        <f>(G63+J63)/2</f>
+        <f t="shared" si="0"/>
         <v>318.32354125574949</v>
       </c>
       <c r="N63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.3166018939521109E-2</v>
       </c>
       <c r="R63">
@@ -2783,11 +2783,11 @@
         <v>1240</v>
       </c>
       <c r="M64">
-        <f>(G64+J64)/2</f>
+        <f t="shared" si="0"/>
         <v>312.93252477264298</v>
       </c>
       <c r="N64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.2691497392004294E-2</v>
       </c>
       <c r="R64">
@@ -2817,11 +2817,11 @@
         <v>1260</v>
       </c>
       <c r="M65">
-        <f>(G65+J65)/2</f>
+        <f t="shared" si="0"/>
         <v>307.63905554887651</v>
       </c>
       <c r="N65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.2201521541462625E-2</v>
       </c>
       <c r="R65">
@@ -2851,11 +2851,11 @@
         <v>1280</v>
       </c>
       <c r="M66">
-        <f>(G66+J66)/2</f>
+        <f t="shared" si="0"/>
         <v>302.4413501432345</v>
       </c>
       <c r="N66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.1698860290514403E-2</v>
       </c>
       <c r="R66">
@@ -2885,11 +2885,11 @@
         <v>1300</v>
       </c>
       <c r="M67">
-        <f>(G67+J67)/2</f>
+        <f t="shared" ref="M67:M130" si="4">(G67+J67)/2</f>
         <v>297.337976430921</v>
       </c>
       <c r="N67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0870058328996492E-2</v>
       </c>
       <c r="R67">
@@ -2919,11 +2919,11 @@
         <v>1320</v>
       </c>
       <c r="M68">
-        <f>(G68+J68)/2</f>
+        <f t="shared" si="4"/>
         <v>292.32688935412898</v>
       </c>
       <c r="N68">
-        <f t="shared" ref="N68:N131" si="3">C68-M68</f>
+        <f t="shared" ref="N68:N131" si="5">C68-M68</f>
         <v>5.0048552809016655E-2</v>
       </c>
       <c r="R68">
@@ -2953,11 +2953,11 @@
         <v>1340</v>
       </c>
       <c r="M69">
-        <f>(G69+J69)/2</f>
+        <f t="shared" si="4"/>
         <v>287.40672767062904</v>
       </c>
       <c r="N69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.8916898932986896E-2</v>
       </c>
       <c r="R69">
@@ -2987,11 +2987,11 @@
         <v>1360</v>
       </c>
       <c r="M70">
-        <f>(G70+J70)/2</f>
+        <f t="shared" si="4"/>
         <v>282.57550951808201</v>
       </c>
       <c r="N70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.7810274855976331E-2</v>
       </c>
       <c r="R70">
@@ -3021,11 +3021,11 @@
         <v>1380</v>
       </c>
       <c r="M71">
-        <f>(G71+J71)/2</f>
+        <f t="shared" si="4"/>
         <v>277.83161914790003</v>
       </c>
       <c r="N71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.796063289796848E-2</v>
       </c>
       <c r="R71">
@@ -3055,11 +3055,11 @@
         <v>1400</v>
       </c>
       <c r="M72">
-        <f>(G72+J72)/2</f>
+        <f t="shared" si="4"/>
         <v>273.17378724906905</v>
       </c>
       <c r="N72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.7744148568938272E-2</v>
       </c>
       <c r="R72">
@@ -3089,11 +3089,11 @@
         <v>1420</v>
       </c>
       <c r="M73">
-        <f>(G73+J73)/2</f>
+        <f t="shared" si="4"/>
         <v>268.600127628797</v>
       </c>
       <c r="N73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.7495990044012615E-2</v>
       </c>
       <c r="R73">
@@ -3123,11 +3123,11 @@
         <v>1440</v>
       </c>
       <c r="M74">
-        <f>(G74+J74)/2</f>
+        <f t="shared" si="4"/>
         <v>264.10911471011002</v>
       </c>
       <c r="N74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.7219518823965245E-2</v>
       </c>
       <c r="R74">
@@ -3157,11 +3157,11 @@
         <v>1460</v>
       </c>
       <c r="M75">
-        <f>(G75+J75)/2</f>
+        <f t="shared" si="4"/>
         <v>259.69956421087704</v>
       </c>
       <c r="N75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.6605162099979225E-2</v>
       </c>
       <c r="R75">
@@ -3191,11 +3191,11 @@
         <v>1480</v>
       </c>
       <c r="M76">
-        <f>(G76+J76)/2</f>
+        <f t="shared" si="4"/>
         <v>255.36967898058151</v>
       </c>
       <c r="N76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.5983876406495483E-2</v>
       </c>
       <c r="R76">
@@ -3225,11 +3225,11 @@
         <v>1500</v>
       </c>
       <c r="M77">
-        <f>(G77+J77)/2</f>
+        <f t="shared" si="4"/>
         <v>251.11833300767398</v>
       </c>
       <c r="N77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.5042438273014795E-2</v>
       </c>
       <c r="R77">
@@ -3259,11 +3259,11 @@
         <v>1520</v>
       </c>
       <c r="M78">
-        <f>(G78+J78)/2</f>
+        <f t="shared" si="4"/>
         <v>246.94378052526201</v>
       </c>
       <c r="N78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.4113684744985449E-2</v>
       </c>
       <c r="R78">
@@ -3293,11 +3293,11 @@
         <v>1540</v>
       </c>
       <c r="M79">
-        <f>(G79+J79)/2</f>
+        <f t="shared" si="4"/>
         <v>242.84463297785697</v>
       </c>
       <c r="N79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.3198947905011664E-2</v>
       </c>
       <c r="R79">
@@ -3327,11 +3327,11 @@
         <v>1560</v>
       </c>
       <c r="M80">
-        <f>(G80+J80)/2</f>
+        <f t="shared" si="4"/>
         <v>238.8198399769465</v>
       </c>
       <c r="N80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.1986549521510597E-2</v>
       </c>
       <c r="R80">
@@ -3361,11 +3361,11 @@
         <v>1580</v>
       </c>
       <c r="M81">
-        <f>(G81+J81)/2</f>
+        <f t="shared" si="4"/>
         <v>234.86773587362751</v>
       </c>
       <c r="N81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.2022931915482786E-2</v>
       </c>
       <c r="R81">
@@ -3395,11 +3395,11 @@
         <v>1600</v>
       </c>
       <c r="M82">
-        <f>(G82+J82)/2</f>
+        <f t="shared" si="4"/>
         <v>230.98732296311749</v>
       </c>
       <c r="N82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.1700612871494513E-2</v>
       </c>
       <c r="R82">
@@ -3429,11 +3429,11 @@
         <v>1620</v>
       </c>
       <c r="M83">
-        <f>(G83+J83)/2</f>
+        <f t="shared" si="4"/>
         <v>227.17698160786301</v>
       </c>
       <c r="N83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.1353588503000083E-2</v>
       </c>
       <c r="R83">
@@ -3463,11 +3463,11 @@
         <v>1640</v>
       </c>
       <c r="M84">
-        <f>(G84+J84)/2</f>
+        <f t="shared" si="4"/>
         <v>223.435446542943</v>
       </c>
       <c r="N84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.0984799585004339E-2</v>
       </c>
       <c r="R84">
@@ -3497,11 +3497,11 @@
         <v>1660</v>
       </c>
       <c r="M85">
-        <f>(G85+J85)/2</f>
+        <f t="shared" si="4"/>
         <v>219.76178803621252</v>
       </c>
       <c r="N85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.0284670759490382E-2</v>
       </c>
       <c r="R85">
@@ -3531,11 +3531,11 @@
         <v>1680</v>
       </c>
       <c r="M86">
-        <f>(G86+J86)/2</f>
+        <f t="shared" si="4"/>
         <v>216.15445916050101</v>
       </c>
       <c r="N86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.9583303786002944E-2</v>
       </c>
       <c r="R86">
@@ -3565,11 +3565,11 @@
         <v>1700</v>
       </c>
       <c r="M87">
-        <f>(G87+J87)/2</f>
+        <f t="shared" si="4"/>
         <v>212.61257814203799</v>
       </c>
       <c r="N87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.8567588831000421E-2</v>
       </c>
       <c r="R87">
@@ -3599,11 +3599,11 @@
         <v>1720</v>
       </c>
       <c r="M88">
-        <f>(G88+J88)/2</f>
+        <f t="shared" si="4"/>
         <v>209.13463948730799</v>
       </c>
       <c r="N88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.7569577687008859E-2</v>
       </c>
       <c r="R88">
@@ -3633,11 +3633,11 @@
         <v>1740</v>
       </c>
       <c r="M89">
-        <f>(G89+J89)/2</f>
+        <f t="shared" si="4"/>
         <v>205.71948958789648</v>
       </c>
       <c r="N89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.6590425132516202E-2</v>
       </c>
       <c r="R89">
@@ -3667,11 +3667,11 @@
         <v>1760</v>
       </c>
       <c r="M90">
-        <f>(G90+J90)/2</f>
+        <f t="shared" si="4"/>
         <v>202.36630806115051</v>
       </c>
       <c r="N90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.6545267301505646E-2</v>
       </c>
       <c r="R90">
@@ -3701,11 +3701,11 @@
         <v>1780</v>
       </c>
       <c r="M91">
-        <f>(G91+J91)/2</f>
+        <f t="shared" si="4"/>
         <v>199.07365571475751</v>
       </c>
       <c r="N91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.6462455826494988E-2</v>
       </c>
       <c r="R91">
@@ -3735,11 +3735,11 @@
         <v>1800</v>
       </c>
       <c r="M92">
-        <f>(G92+J92)/2</f>
+        <f t="shared" si="4"/>
         <v>195.84075600164999</v>
       </c>
       <c r="N92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.6030064930002936E-2</v>
       </c>
       <c r="R92">
@@ -3769,11 +3769,11 @@
         <v>1820</v>
       </c>
       <c r="M93">
-        <f>(G93+J93)/2</f>
+        <f t="shared" si="4"/>
         <v>192.66620715154551</v>
       </c>
       <c r="N93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.5581103397504421E-2</v>
       </c>
       <c r="R93">
@@ -3803,11 +3803,11 @@
         <v>1840</v>
       </c>
       <c r="M94">
-        <f>(G94+J94)/2</f>
+        <f t="shared" si="4"/>
         <v>189.548957045782</v>
       </c>
       <c r="N94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.5118366697986403E-2</v>
       </c>
       <c r="R94">
@@ -3837,11 +3837,11 @@
         <v>1860</v>
       </c>
       <c r="M95">
-        <f>(G95+J95)/2</f>
+        <f t="shared" si="4"/>
         <v>186.48828472426447</v>
       </c>
       <c r="N95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.433244749552955E-2</v>
       </c>
       <c r="R95">
@@ -3871,11 +3871,11 @@
         <v>1880</v>
       </c>
       <c r="M96">
-        <f>(G96+J96)/2</f>
+        <f t="shared" si="4"/>
         <v>183.48284904379449</v>
       </c>
       <c r="N96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.3552598160525804E-2</v>
       </c>
       <c r="R96">
@@ -3905,11 +3905,11 @@
         <v>1900</v>
       </c>
       <c r="M97">
-        <f>(G97+J97)/2</f>
+        <f t="shared" si="4"/>
         <v>180.53196921002552</v>
       </c>
       <c r="N97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.2465764178482459E-2</v>
       </c>
       <c r="R97">
@@ -3939,11 +3939,11 @@
         <v>1920</v>
       </c>
       <c r="M98">
-        <f>(G98+J98)/2</f>
+        <f t="shared" si="4"/>
         <v>177.63433792125852</v>
       </c>
       <c r="N98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.1403053628480393E-2</v>
       </c>
       <c r="R98">
@@ -3973,11 +3973,11 @@
         <v>1940</v>
       </c>
       <c r="M99">
-        <f>(G99+J99)/2</f>
+        <f t="shared" si="4"/>
         <v>174.78899549074401</v>
       </c>
       <c r="N99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.0365268532989376E-2</v>
       </c>
       <c r="R99">
@@ -4007,11 +4007,11 @@
         <v>1960</v>
       </c>
       <c r="M100">
-        <f>(G100+J100)/2</f>
+        <f t="shared" si="4"/>
         <v>171.99531151159698</v>
       </c>
       <c r="N100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.0253365011020605E-2</v>
       </c>
       <c r="R100">
@@ -4041,11 +4041,11 @@
         <v>1980</v>
       </c>
       <c r="M101">
-        <f>(G101+J101)/2</f>
+        <f t="shared" si="4"/>
         <v>169.252034214345</v>
       </c>
       <c r="N101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.0111501919009243E-2</v>
       </c>
       <c r="R101">
@@ -4075,11 +4075,11 @@
         <v>2000</v>
       </c>
       <c r="M102">
-        <f>(G102+J102)/2</f>
+        <f t="shared" si="4"/>
         <v>166.5582553318705</v>
       </c>
       <c r="N102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.9941989457512364E-2</v>
       </c>
       <c r="R102">
@@ -4109,11 +4109,11 @@
         <v>2020</v>
       </c>
       <c r="M103">
-        <f>(G103+J103)/2</f>
+        <f t="shared" si="4"/>
         <v>163.91339199726701</v>
       </c>
       <c r="N103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.9438268501991161E-2</v>
       </c>
       <c r="R103">
@@ -4143,11 +4143,11 @@
         <v>2040</v>
       </c>
       <c r="M104">
-        <f>(G104+J104)/2</f>
+        <f t="shared" si="4"/>
         <v>161.31624507113298</v>
       </c>
       <c r="N104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8926323006004395E-2</v>
       </c>
       <c r="R104">
@@ -4177,11 +4177,11 @@
         <v>2060</v>
       </c>
       <c r="M105">
-        <f>(G105+J105)/2</f>
+        <f t="shared" si="4"/>
         <v>158.76626665784249</v>
       </c>
       <c r="N105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8096715160501162E-2</v>
       </c>
       <c r="R105">
@@ -4211,11 +4211,11 @@
         <v>2080</v>
       </c>
       <c r="M106">
-        <f>(G106+J106)/2</f>
+        <f t="shared" si="4"/>
         <v>156.26228644471851</v>
       </c>
       <c r="N106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7277808585495222E-2</v>
       </c>
       <c r="R106">
@@ -4245,11 +4245,11 @@
         <v>2100</v>
       </c>
       <c r="M107">
-        <f>(G107+J107)/2</f>
+        <f t="shared" si="4"/>
         <v>153.80347584859049</v>
       </c>
       <c r="N107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.6471232628495045E-2</v>
       </c>
       <c r="R107">
@@ -4279,11 +4279,11 @@
         <v>2120</v>
       </c>
       <c r="M108">
-        <f>(G108+J108)/2</f>
+        <f t="shared" si="4"/>
         <v>151.389330075983</v>
       </c>
       <c r="N108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.5369483256014291E-2</v>
       </c>
       <c r="R108">
@@ -4313,11 +4313,11 @@
         <v>2140</v>
       </c>
       <c r="M109">
-        <f>(G109+J109)/2</f>
+        <f t="shared" si="4"/>
         <v>149.01872715249249</v>
       </c>
       <c r="N109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4296596451506502E-2</v>
       </c>
       <c r="R109">
@@ -4347,11 +4347,11 @@
         <v>2160</v>
       </c>
       <c r="M110">
-        <f>(G110+J110)/2</f>
+        <f t="shared" si="4"/>
         <v>146.69119446884599</v>
       </c>
       <c r="N110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4139409024002134E-2</v>
       </c>
       <c r="R110">
@@ -4381,11 +4381,11 @@
         <v>2180</v>
       </c>
       <c r="M111">
-        <f>(G111+J111)/2</f>
+        <f t="shared" si="4"/>
         <v>144.40563614063649</v>
       </c>
       <c r="N111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.3958281786519819E-2</v>
       </c>
       <c r="R111">
@@ -4415,11 +4415,11 @@
         <v>2200</v>
       </c>
       <c r="M112">
-        <f>(G112+J112)/2</f>
+        <f t="shared" si="4"/>
         <v>142.161296366606</v>
       </c>
       <c r="N112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.3754919265996932E-2</v>
       </c>
       <c r="R112">
@@ -4449,11 +4449,11 @@
         <v>2220</v>
       </c>
       <c r="M113">
-        <f>(G113+J113)/2</f>
+        <f t="shared" si="4"/>
         <v>139.95774163108752</v>
       </c>
       <c r="N113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.3222658967483767E-2</v>
       </c>
       <c r="R113">
@@ -4483,11 +4483,11 @@
         <v>2240</v>
       </c>
       <c r="M114">
-        <f>(G114+J114)/2</f>
+        <f t="shared" si="4"/>
         <v>137.79392043851951</v>
       </c>
       <c r="N114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.2686482170485078E-2</v>
       </c>
       <c r="R114">
@@ -4517,11 +4517,11 @@
         <v>2260</v>
       </c>
       <c r="M115">
-        <f>(G115+J115)/2</f>
+        <f t="shared" si="4"/>
         <v>135.669428880824</v>
       </c>
       <c r="N115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.1837019954006109E-2</v>
       </c>
       <c r="R115">
@@ -4551,11 +4551,11 @@
         <v>2280</v>
       </c>
       <c r="M116">
-        <f>(G116+J116)/2</f>
+        <f t="shared" si="4"/>
         <v>133.583239028847</v>
       </c>
       <c r="N116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.100175311699104E-2</v>
       </c>
       <c r="R116">
@@ -4585,11 +4585,11 @@
         <v>2300</v>
       </c>
       <c r="M117">
-        <f>(G117+J117)/2</f>
+        <f t="shared" si="4"/>
         <v>131.53466149846702</v>
       </c>
       <c r="N117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.0182090361970495E-2</v>
       </c>
       <c r="R117">
@@ -4619,11 +4619,11 @@
         <v>2320</v>
       </c>
       <c r="M118">
-        <f>(G118+J118)/2</f>
+        <f t="shared" si="4"/>
         <v>129.52332779628051</v>
       </c>
       <c r="N118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.9070720105474948E-2</v>
       </c>
       <c r="R118">
@@ -4653,11 +4653,11 @@
         <v>2340</v>
       </c>
       <c r="M119">
-        <f>(G119+J119)/2</f>
+        <f t="shared" si="4"/>
         <v>127.54825076505399</v>
       </c>
       <c r="N119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.7990906148000363E-2</v>
       </c>
       <c r="R119">
@@ -4687,11 +4687,11 @@
         <v>2360</v>
       </c>
       <c r="M120">
-        <f>(G120+J120)/2</f>
+        <f t="shared" si="4"/>
         <v>125.60908916579399</v>
       </c>
       <c r="N120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.7815249851011572E-2</v>
       </c>
       <c r="R120">
@@ -4721,11 +4721,11 @@
         <v>2380</v>
       </c>
       <c r="M121">
-        <f>(G121+J121)/2</f>
+        <f t="shared" si="4"/>
         <v>123.704877104883</v>
       </c>
       <c r="N121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.7620381507001071E-2</v>
       </c>
       <c r="R121">
@@ -4755,11 +4755,11 @@
         <v>2400</v>
       </c>
       <c r="M122">
-        <f>(G122+J122)/2</f>
+        <f t="shared" si="4"/>
         <v>121.834985803113</v>
       </c>
       <c r="N122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.7407425597994575E-2</v>
       </c>
       <c r="R122">
@@ -4789,11 +4789,11 @@
         <v>2420</v>
       </c>
       <c r="M123">
-        <f>(G123+J123)/2</f>
+        <f t="shared" si="4"/>
         <v>119.9991060824825</v>
       </c>
       <c r="N123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.6869651981508582E-2</v>
       </c>
       <c r="R123">
@@ -4823,11 +4823,11 @@
         <v>2440</v>
       </c>
       <c r="M124">
-        <f>(G124+J124)/2</f>
+        <f t="shared" si="4"/>
         <v>118.196309523487</v>
       </c>
       <c r="N124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.6331074947004254E-2</v>
       </c>
       <c r="R124">
@@ -4857,11 +4857,11 @@
         <v>2460</v>
       </c>
       <c r="M125">
-        <f>(G125+J125)/2</f>
+        <f t="shared" si="4"/>
         <v>116.426312057714</v>
       </c>
       <c r="N125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.5482452691003346E-2</v>
       </c>
       <c r="R125">
@@ -4891,11 +4891,11 @@
         <v>2480</v>
       </c>
       <c r="M126">
-        <f>(G126+J126)/2</f>
+        <f t="shared" si="4"/>
         <v>114.688204429872</v>
       </c>
       <c r="N126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.4650439440998753E-2</v>
       </c>
       <c r="R126">
@@ -4925,11 +4925,11 @@
         <v>2500</v>
       </c>
       <c r="M127">
-        <f>(G127+J127)/2</f>
+        <f t="shared" si="4"/>
         <v>112.9814131674955</v>
       </c>
       <c r="N127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.3836286226492689E-2</v>
       </c>
       <c r="R127">
@@ -4959,11 +4959,11 @@
         <v>2520</v>
       </c>
       <c r="M128">
-        <f>(G128+J128)/2</f>
+        <f t="shared" si="4"/>
         <v>111.30568320642149</v>
       </c>
       <c r="N128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2732941728515357E-2</v>
       </c>
       <c r="R128">
@@ -4993,11 +4993,11 @@
         <v>2540</v>
       </c>
       <c r="M129">
-        <f>(G129+J129)/2</f>
+        <f t="shared" si="4"/>
         <v>109.66013975780851</v>
       </c>
       <c r="N129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1662957076495672E-2</v>
       </c>
       <c r="R129">
@@ -5027,11 +5027,11 @@
         <v>2560</v>
       </c>
       <c r="M130">
-        <f>(G130+J130)/2</f>
+        <f t="shared" si="4"/>
         <v>108.0442401360865</v>
       </c>
       <c r="N130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1795447666500536E-2</v>
       </c>
       <c r="R130">
@@ -5061,11 +5061,11 @@
         <v>2580</v>
       </c>
       <c r="M131">
-        <f>(G131+J131)/2</f>
+        <f t="shared" ref="M131:M194" si="6">(G131+J131)/2</f>
         <v>106.45775659907849</v>
       </c>
       <c r="N131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1593604113500078E-2</v>
       </c>
       <c r="R131">
@@ -5095,11 +5095,11 @@
         <v>2600</v>
       </c>
       <c r="M132">
-        <f>(G132+J132)/2</f>
+        <f t="shared" si="6"/>
         <v>104.899847059628</v>
       </c>
       <c r="N132">
-        <f t="shared" ref="N132:N195" si="4">C132-M132</f>
+        <f t="shared" ref="N132:N195" si="7">C132-M132</f>
         <v>1.1377150304994643E-2</v>
       </c>
       <c r="R132">
@@ -5129,11 +5129,11 @@
         <v>2620</v>
       </c>
       <c r="M133">
-        <f>(G133+J133)/2</f>
+        <f t="shared" si="6"/>
         <v>103.370305778144</v>
       </c>
       <c r="N133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0839394946003722E-2</v>
       </c>
       <c r="R133">
@@ -5163,11 +5163,11 @@
         <v>2640</v>
       </c>
       <c r="M134">
-        <f>(G134+J134)/2</f>
+        <f t="shared" si="6"/>
         <v>101.8683068510115</v>
       </c>
       <c r="N134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0303519342500067E-2</v>
       </c>
       <c r="R134">
@@ -5197,11 +5197,11 @@
         <v>2660</v>
       </c>
       <c r="M135">
-        <f>(G135+J135)/2</f>
+        <f t="shared" si="6"/>
         <v>100.3933553025483</v>
       </c>
       <c r="N135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.771095303705124E-3</v>
       </c>
       <c r="R135">
@@ -5231,11 +5231,11 @@
         <v>2680</v>
       </c>
       <c r="M136">
-        <f>(G136+J136)/2</f>
+        <f t="shared" si="6"/>
         <v>98.945270073113107</v>
       </c>
       <c r="N136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.9387297580856284E-3</v>
       </c>
       <c r="R136">
@@ -5265,11 +5265,11 @@
         <v>2700</v>
       </c>
       <c r="M137">
-        <f>(G137+J137)/2</f>
+        <f t="shared" si="6"/>
         <v>97.523255425278904</v>
       </c>
       <c r="N137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.1263497256998107E-3</v>
       </c>
       <c r="R137">
@@ -5299,11 +5299,11 @@
         <v>2720</v>
       </c>
       <c r="M138">
-        <f>(G138+J138)/2</f>
+        <f t="shared" si="6"/>
         <v>96.127150659054948</v>
       </c>
       <c r="N138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.0272362449514958E-3</v>
       </c>
       <c r="R138">
@@ -5333,11 +5333,11 @@
         <v>2740</v>
       </c>
       <c r="M139">
-        <f>(G139+J139)/2</f>
+        <f t="shared" si="6"/>
         <v>94.756174599341648</v>
       </c>
       <c r="N139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.9633332703583619E-3</v>
       </c>
       <c r="R139">
@@ -5367,11 +5367,11 @@
         <v>2760</v>
       </c>
       <c r="M140">
-        <f>(G140+J140)/2</f>
+        <f t="shared" si="6"/>
         <v>93.409875900430805</v>
       </c>
       <c r="N140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.0891453386915373E-3</v>
       </c>
       <c r="R140">
@@ -5401,11 +5401,11 @@
         <v>2780</v>
       </c>
       <c r="M141">
-        <f>(G141+J141)/2</f>
+        <f t="shared" si="6"/>
         <v>92.088116161881203</v>
       </c>
       <c r="N141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.8852161901938871E-3</v>
       </c>
       <c r="R141">
@@ -5435,11 +5435,11 @@
         <v>2800</v>
       </c>
       <c r="M142">
-        <f>(G142+J142)/2</f>
+        <f t="shared" si="6"/>
         <v>90.790142015964051</v>
       </c>
       <c r="N142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.6702363765452901E-3</v>
       </c>
       <c r="R142">
@@ -5469,11 +5469,11 @@
         <v>2820</v>
       </c>
       <c r="M143">
-        <f>(G143+J143)/2</f>
+        <f t="shared" si="6"/>
         <v>89.515833882889098</v>
       </c>
       <c r="N143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.1375169115033259E-3</v>
       </c>
       <c r="R143">
@@ -5503,11 +5503,11 @@
         <v>2840</v>
       </c>
       <c r="M144">
-        <f>(G144+J144)/2</f>
+        <f t="shared" si="6"/>
         <v>88.264451444885395</v>
       </c>
       <c r="N144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.6093227664982805E-3</v>
       </c>
       <c r="R144">
@@ -5537,11 +5537,11 @@
         <v>2860</v>
       </c>
       <c r="M145">
-        <f>(G145+J145)/2</f>
+        <f t="shared" si="6"/>
         <v>87.0355831801227</v>
       </c>
       <c r="N145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.0869676654011755E-3</v>
       </c>
       <c r="R145">
@@ -5571,11 +5571,11 @@
         <v>2880</v>
       </c>
       <c r="M146">
-        <f>(G146+J146)/2</f>
+        <f t="shared" si="6"/>
         <v>85.829129607848387</v>
       </c>
       <c r="N146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.2672175485117805E-3</v>
       </c>
       <c r="R146">
@@ -5605,11 +5605,11 @@
         <v>2900</v>
       </c>
       <c r="M147">
-        <f>(G147+J147)/2</f>
+        <f t="shared" si="6"/>
         <v>84.644376045112807</v>
       </c>
       <c r="N147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.4692415047979921E-3</v>
       </c>
       <c r="R147">
@@ -5639,11 +5639,11 @@
         <v>2920</v>
       </c>
       <c r="M148">
-        <f>(G148+J148)/2</f>
+        <f t="shared" si="6"/>
         <v>83.481240423072109</v>
       </c>
       <c r="N148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3865626583964286E-3</v>
       </c>
       <c r="R148">
@@ -5673,11 +5673,11 @@
         <v>2940</v>
       </c>
       <c r="M149">
-        <f>(G149+J149)/2</f>
+        <f t="shared" si="6"/>
         <v>82.339019725599741</v>
       </c>
       <c r="N149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.4043544296480377E-4</v>
       </c>
       <c r="R149">
@@ -5707,11 +5707,11 @@
         <v>2960</v>
       </c>
       <c r="M150">
-        <f>(G150+J150)/2</f>
+        <f t="shared" si="6"/>
         <v>81.217338769785798</v>
       </c>
       <c r="N150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.707122974991762E-4</v>
       </c>
       <c r="R150">
@@ -5741,11 +5741,11 @@
         <v>2980</v>
       </c>
       <c r="M151">
-        <f>(G151+J151)/2</f>
+        <f t="shared" si="6"/>
         <v>80.116133578363502</v>
       </c>
       <c r="N151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.7511087920117916E-4</v>
       </c>
       <c r="R151">
@@ -5775,11 +5775,11 @@
         <v>3000</v>
       </c>
       <c r="M152">
-        <f>(G152+J152)/2</f>
+        <f t="shared" si="6"/>
         <v>79.034724786835596</v>
       </c>
       <c r="N152">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.1351311603962131E-5</v>
       </c>
       <c r="R152">
@@ -5809,11 +5809,11 @@
         <v>3020</v>
       </c>
       <c r="M153">
-        <f>(G153+J153)/2</f>
+        <f t="shared" si="6"/>
         <v>77.973064546394141</v>
       </c>
       <c r="N153">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4.4724355764458323E-4</v>
       </c>
       <c r="R153">
@@ -5843,11 +5843,11 @@
         <v>3040</v>
       </c>
       <c r="M154">
-        <f>(G154+J154)/2</f>
+        <f t="shared" si="6"/>
         <v>76.930483897614948</v>
       </c>
       <c r="N154">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-9.5926911315302732E-4</v>
       </c>
       <c r="R154">
@@ -5877,11 +5877,11 @@
         <v>3060</v>
       </c>
       <c r="M155">
-        <f>(G155+J155)/2</f>
+        <f t="shared" si="6"/>
         <v>75.906640818917737</v>
       </c>
       <c r="N155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.4636371415406302E-3</v>
       </c>
       <c r="R155">
@@ -5911,11 +5911,11 @@
         <v>3080</v>
       </c>
       <c r="M156">
-        <f>(G156+J156)/2</f>
+        <f t="shared" si="6"/>
         <v>74.901503723836441</v>
       </c>
       <c r="N156">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-2.2634099744465175E-3</v>
       </c>
       <c r="R156">
@@ -5945,11 +5945,11 @@
         <v>3100</v>
       </c>
       <c r="M157">
-        <f>(G157+J157)/2</f>
+        <f t="shared" si="6"/>
         <v>73.91442549464935</v>
       </c>
       <c r="N157">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-3.0401129989456877E-3</v>
       </c>
       <c r="R157">
@@ -5979,11 +5979,11 @@
         <v>3120</v>
       </c>
       <c r="M158">
-        <f>(G158+J158)/2</f>
+        <f t="shared" si="6"/>
         <v>72.945082566592546</v>
       </c>
       <c r="N158">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-3.7930373894425884E-3</v>
       </c>
       <c r="R158">
@@ -6013,11 +6013,11 @@
         <v>3140</v>
       </c>
       <c r="M159">
-        <f>(G159+J159)/2</f>
+        <f t="shared" si="6"/>
         <v>71.993458622158457</v>
       </c>
       <c r="N159">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-3.6771557401635846E-3</v>
       </c>
       <c r="R159">
@@ -6047,11 +6047,11 @@
         <v>3160</v>
       </c>
       <c r="M160">
-        <f>(G160+J160)/2</f>
+        <f t="shared" si="6"/>
         <v>71.058927287844952</v>
       </c>
       <c r="N160">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-3.5804596366517671E-3</v>
       </c>
       <c r="R160">
@@ -6081,11 +6081,11 @@
         <v>3180</v>
       </c>
       <c r="M161">
-        <f>(G161+J161)/2</f>
+        <f t="shared" si="6"/>
         <v>70.141486489110548</v>
       </c>
       <c r="N161">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-3.806965313444266E-3</v>
       </c>
       <c r="R161">
@@ -6115,11 +6115,11 @@
         <v>3200</v>
       </c>
       <c r="M162">
-        <f>(G162+J162)/2</f>
+        <f t="shared" si="6"/>
         <v>69.240518462466497</v>
       </c>
       <c r="N162">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4.038888666599405E-3</v>
       </c>
       <c r="R162">
@@ -6149,11 +6149,11 @@
         <v>3220</v>
       </c>
       <c r="M163">
-        <f>(G163+J163)/2</f>
+        <f t="shared" si="6"/>
         <v>68.355728212104509</v>
       </c>
       <c r="N163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4.2751942981027469E-3</v>
       </c>
       <c r="R163">
@@ -6183,11 +6183,11 @@
         <v>3240</v>
       </c>
       <c r="M164">
-        <f>(G164+J164)/2</f>
+        <f t="shared" si="6"/>
         <v>67.487127340754157</v>
       </c>
       <c r="N164">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4.8157577654563966E-3</v>
       </c>
       <c r="R164">
@@ -6217,11 +6217,11 @@
         <v>3260</v>
       </c>
       <c r="M165">
-        <f>(G165+J165)/2</f>
+        <f t="shared" si="6"/>
         <v>66.63411732387496</v>
       </c>
       <c r="N165">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-5.3449680639658936E-3</v>
       </c>
       <c r="R165">
@@ -6251,11 +6251,11 @@
         <v>3280</v>
       </c>
       <c r="M166">
-        <f>(G166+J166)/2</f>
+        <f t="shared" si="6"/>
         <v>65.796723046397503</v>
       </c>
       <c r="N166">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-6.1655356489040969E-3</v>
       </c>
       <c r="R166">
@@ -6285,11 +6285,11 @@
         <v>3300</v>
       </c>
       <c r="M167">
-        <f>(G167+J167)/2</f>
+        <f t="shared" si="6"/>
         <v>64.974353632977852</v>
       </c>
       <c r="N167">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-6.9595320339459477E-3</v>
       </c>
       <c r="R167">
@@ -6319,11 +6319,11 @@
         <v>3320</v>
       </c>
       <c r="M168">
-        <f>(G168+J168)/2</f>
+        <f t="shared" si="6"/>
         <v>64.166740249888051</v>
       </c>
       <c r="N168">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-7.7263492002543899E-3</v>
       </c>
       <c r="R168">
@@ -6353,11 +6353,11 @@
         <v>3340</v>
       </c>
       <c r="M169">
-        <f>(G169+J169)/2</f>
+        <f t="shared" si="6"/>
         <v>63.3739200495002</v>
       </c>
       <c r="N169">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-7.6353510372015876E-3</v>
       </c>
       <c r="R169">
@@ -6387,11 +6387,11 @@
         <v>3360</v>
       </c>
       <c r="M170">
-        <f>(G170+J170)/2</f>
+        <f t="shared" si="6"/>
         <v>62.595319980347</v>
       </c>
       <c r="N170">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-7.5585561535973511E-3</v>
       </c>
       <c r="R170">
@@ -6421,11 +6421,11 @@
         <v>3380</v>
       </c>
       <c r="M171">
-        <f>(G171+J171)/2</f>
+        <f t="shared" si="6"/>
         <v>61.830989561372803</v>
       </c>
       <c r="N171">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-7.8001115365040619E-3</v>
       </c>
       <c r="R171">
@@ -6455,11 +6455,11 @@
         <v>3400</v>
       </c>
       <c r="M172">
-        <f>(G172+J172)/2</f>
+        <f t="shared" si="6"/>
         <v>61.08036247930405</v>
       </c>
       <c r="N172">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-8.043187073248248E-3</v>
       </c>
       <c r="R172">
@@ -6489,11 +6489,11 @@
         <v>3420</v>
       </c>
       <c r="M173">
-        <f>(G173+J173)/2</f>
+        <f t="shared" si="6"/>
         <v>60.343193783263352</v>
       </c>
       <c r="N173">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-8.2871785728499958E-3</v>
       </c>
       <c r="R173">
@@ -6523,11 +6523,11 @@
         <v>3440</v>
       </c>
       <c r="M174">
-        <f>(G174+J174)/2</f>
+        <f t="shared" si="6"/>
         <v>59.619543944163951</v>
       </c>
       <c r="N174">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-8.8320644038475393E-3</v>
       </c>
       <c r="R174">
@@ -6557,11 +6557,11 @@
         <v>3460</v>
       </c>
       <c r="M175">
-        <f>(G175+J175)/2</f>
+        <f t="shared" si="6"/>
         <v>58.908863159303003</v>
       </c>
       <c r="N175">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-9.3630222381051453E-3</v>
       </c>
       <c r="R175">
@@ -6591,11 +6591,11 @@
         <v>3480</v>
       </c>
       <c r="M176">
-        <f>(G176+J176)/2</f>
+        <f t="shared" si="6"/>
         <v>58.211223426955897</v>
       </c>
       <c r="N176">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.0182764850100057E-2</v>
       </c>
       <c r="R176">
@@ -6625,11 +6625,11 @@
         <v>3500</v>
       </c>
       <c r="M177">
-        <f>(G177+J177)/2</f>
+        <f t="shared" si="6"/>
         <v>57.526080847255152</v>
       </c>
       <c r="N177">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.0974041768150755E-2</v>
       </c>
       <c r="R177">
@@ -6659,11 +6659,11 @@
         <v>3520</v>
       </c>
       <c r="M178">
-        <f>(G178+J178)/2</f>
+        <f t="shared" si="6"/>
         <v>56.853212259513398</v>
       </c>
       <c r="N178">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.1736425400997064E-2</v>
       </c>
       <c r="R178">
@@ -6693,11 +6693,11 @@
         <v>3540</v>
       </c>
       <c r="M179">
-        <f>(G179+J179)/2</f>
+        <f t="shared" si="6"/>
         <v>56.192699414330299</v>
       </c>
       <c r="N179">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.165343978159683E-2</v>
       </c>
       <c r="R179">
@@ -6727,11 +6727,11 @@
         <v>3560</v>
       </c>
       <c r="M180">
-        <f>(G180+J180)/2</f>
+        <f t="shared" si="6"/>
         <v>55.544013721979397</v>
       </c>
       <c r="N180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.1581399941498205E-2</v>
       </c>
       <c r="R180">
@@ -6761,11 +6761,11 @@
         <v>3580</v>
       </c>
       <c r="M181">
-        <f>(G181+J181)/2</f>
+        <f t="shared" si="6"/>
         <v>54.906944148229449</v>
       </c>
       <c r="N181">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.1520917834850763E-2</v>
       </c>
       <c r="R181">
@@ -6795,11 +6795,11 @@
         <v>3600</v>
       </c>
       <c r="M182">
-        <f>(G182+J182)/2</f>
+        <f t="shared" si="6"/>
         <v>54.281581567431303</v>
       </c>
       <c r="N182">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.1770214913404686E-2</v>
       </c>
       <c r="R182">
@@ -6829,11 +6829,11 @@
         <v>3620</v>
       </c>
       <c r="M183">
-        <f>(G183+J183)/2</f>
+        <f t="shared" si="6"/>
         <v>53.667411948230601</v>
       </c>
       <c r="N183">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.2018221569597642E-2</v>
       </c>
       <c r="R183">
@@ -6863,11 +6863,11 @@
         <v>3640</v>
       </c>
       <c r="M184">
-        <f>(G184+J184)/2</f>
+        <f t="shared" si="6"/>
         <v>53.064536438640644</v>
       </c>
       <c r="N184">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.2564922340047247E-2</v>
       </c>
       <c r="R184">
@@ -6897,11 +6897,11 @@
         <v>3660</v>
       </c>
       <c r="M185">
-        <f>(G185+J185)/2</f>
+        <f t="shared" si="6"/>
         <v>52.47244571907185</v>
       </c>
       <c r="N185">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.3096004773252901E-2</v>
       </c>
       <c r="R185">
@@ -6931,11 +6931,11 @@
         <v>3680</v>
       </c>
       <c r="M186">
-        <f>(G186+J186)/2</f>
+        <f t="shared" si="6"/>
         <v>51.890947493604045</v>
       </c>
       <c r="N186">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.3610602685446338E-2</v>
       </c>
       <c r="R186">
@@ -6965,11 +6965,11 @@
         <v>3700</v>
       </c>
       <c r="M187">
-        <f>(G187+J187)/2</f>
+        <f t="shared" si="6"/>
         <v>51.320150970625946</v>
       </c>
       <c r="N187">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.4405970225446652E-2</v>
       </c>
       <c r="R187">
@@ -6999,11 +6999,11 @@
         <v>3720</v>
       </c>
       <c r="M188">
-        <f>(G188+J188)/2</f>
+        <f t="shared" si="6"/>
         <v>50.759560402579297</v>
       </c>
       <c r="N188">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.5171163073695482E-2</v>
       </c>
       <c r="R188">
@@ -7033,11 +7033,11 @@
         <v>3740</v>
       </c>
       <c r="M189">
-        <f>(G189+J189)/2</f>
+        <f t="shared" si="6"/>
         <v>50.209294664208244</v>
       </c>
       <c r="N189">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.5103453599941474E-2</v>
       </c>
       <c r="R189">
@@ -7067,11 +7067,11 @@
         <v>3760</v>
       </c>
       <c r="M190">
-        <f>(G190+J190)/2</f>
+        <f t="shared" si="6"/>
         <v>49.668862095230352</v>
       </c>
       <c r="N190">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.5043739827653724E-2</v>
       </c>
       <c r="R190">
@@ -7101,11 +7101,11 @@
         <v>3780</v>
       </c>
       <c r="M191">
-        <f>(G191+J191)/2</f>
+        <f t="shared" si="6"/>
         <v>49.138087587581495</v>
       </c>
       <c r="N191">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.499268157509448E-2</v>
       </c>
       <c r="R191">
@@ -7135,11 +7135,11 @@
         <v>3800</v>
       </c>
       <c r="M192">
-        <f>(G192+J192)/2</f>
+        <f t="shared" si="6"/>
         <v>48.617097167330748</v>
       </c>
       <c r="N192">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.5248531571948831E-2</v>
       </c>
       <c r="R192">
@@ -7169,11 +7169,11 @@
         <v>3820</v>
       </c>
       <c r="M193">
-        <f>(G193+J193)/2</f>
+        <f t="shared" si="6"/>
         <v>48.105411812172648</v>
       </c>
       <c r="N193">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.5500755241347974E-2</v>
       </c>
       <c r="R193">
@@ -7203,11 +7203,11 @@
         <v>3840</v>
       </c>
       <c r="M194">
-        <f>(G194+J194)/2</f>
+        <f t="shared" si="6"/>
         <v>47.603166623750951</v>
       </c>
       <c r="N194">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.6049418539850535E-2</v>
       </c>
       <c r="R194">
@@ -7237,11 +7237,11 @@
         <v>3860</v>
       </c>
       <c r="M195">
-        <f>(G195+J195)/2</f>
+        <f t="shared" ref="M195:M258" si="8">(G195+J195)/2</f>
         <v>47.10988606245045</v>
       </c>
       <c r="N195">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.6580699354349804E-2</v>
       </c>
       <c r="R195">
@@ -7271,11 +7271,11 @@
         <v>3880</v>
       </c>
       <c r="M196">
-        <f>(G196+J196)/2</f>
+        <f t="shared" si="8"/>
         <v>46.6254107137284</v>
       </c>
       <c r="N196">
-        <f t="shared" ref="N196:N259" si="5">C196-M196</f>
+        <f t="shared" ref="N196:N259" si="9">C196-M196</f>
         <v>-1.7093895971498796E-2</v>
       </c>
       <c r="R196">
@@ -7305,11 +7305,11 @@
         <v>3900</v>
       </c>
       <c r="M197">
-        <f>(G197+J197)/2</f>
+        <f t="shared" si="8"/>
         <v>46.149881972456448</v>
       </c>
       <c r="N197">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.7886298038348514E-2</v>
       </c>
       <c r="R197">
@@ -7339,11 +7339,11 @@
         <v>3920</v>
       </c>
       <c r="M198">
-        <f>(G198+J198)/2</f>
+        <f t="shared" si="8"/>
         <v>45.682836061145451</v>
       </c>
       <c r="N198">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.8647340030248927E-2</v>
       </c>
       <c r="R198">
@@ -7373,11 +7373,11 @@
         <v>3940</v>
       </c>
       <c r="M199">
-        <f>(G199+J199)/2</f>
+        <f t="shared" si="8"/>
         <v>45.2241222975778</v>
       </c>
       <c r="N199">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.8287119379600369E-2</v>
       </c>
       <c r="R199">
@@ -7407,11 +7407,11 @@
         <v>3960</v>
       </c>
       <c r="M200">
-        <f>(G200+J200)/2</f>
+        <f t="shared" si="8"/>
         <v>44.773887946629202</v>
       </c>
       <c r="N200">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.8239848986304708E-2</v>
       </c>
       <c r="R200">
@@ -7441,11 +7441,11 @@
         <v>3980</v>
       </c>
       <c r="M201">
-        <f>(G201+J201)/2</f>
+        <f t="shared" si="8"/>
         <v>44.331680429832851</v>
       </c>
       <c r="N201">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.819877091285349E-2</v>
       </c>
       <c r="R201">
@@ -7475,11 +7475,11 @@
         <v>4000</v>
       </c>
       <c r="M202">
-        <f>(G202+J202)/2</f>
+        <f t="shared" si="8"/>
         <v>43.897655177271105</v>
       </c>
       <c r="N202">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.8462279610503174E-2</v>
       </c>
       <c r="R202">
@@ -7509,11 +7509,11 @@
         <v>4020</v>
       </c>
       <c r="M203">
-        <f>(G203+J203)/2</f>
+        <f t="shared" si="8"/>
         <v>43.471362222072798</v>
       </c>
       <c r="N203">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.8720193338495505E-2</v>
       </c>
       <c r="R203">
@@ -7543,11 +7543,11 @@
         <v>4040</v>
       </c>
       <c r="M204">
-        <f>(G204+J204)/2</f>
+        <f t="shared" si="8"/>
         <v>43.052664349857494</v>
       </c>
       <c r="N204">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.897206737399415E-2</v>
       </c>
       <c r="R204">
@@ -7577,11 +7577,11 @@
         <v>4060</v>
       </c>
       <c r="M205">
-        <f>(G205+J205)/2</f>
+        <f t="shared" si="8"/>
         <v>42.64172207176145</v>
       </c>
       <c r="N205">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-1.9512421406751912E-2</v>
       </c>
       <c r="R205">
@@ -7611,11 +7611,11 @@
         <v>4080</v>
       </c>
       <c r="M206">
-        <f>(G206+J206)/2</f>
+        <f t="shared" si="8"/>
         <v>42.238095902726755</v>
       </c>
       <c r="N206">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.0033249356352201E-2</v>
       </c>
       <c r="R206">
@@ -7645,11 +7645,11 @@
         <v>4100</v>
       </c>
       <c r="M207">
-        <f>(G207+J207)/2</f>
+        <f t="shared" si="8"/>
         <v>41.841954103316098</v>
       </c>
       <c r="N207">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.083194139869704E-2</v>
       </c>
       <c r="R207">
@@ -7679,11 +7679,11 @@
         <v>4120</v>
       </c>
       <c r="M208">
-        <f>(G208+J208)/2</f>
+        <f t="shared" si="8"/>
         <v>41.4528593528849</v>
       </c>
       <c r="N208">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.1598087170502822E-2</v>
       </c>
       <c r="R208">
@@ -7713,11 +7713,11 @@
         <v>4140</v>
       </c>
       <c r="M209">
-        <f>(G209+J209)/2</f>
+        <f t="shared" si="8"/>
         <v>41.070686810196747</v>
       </c>
       <c r="N209">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.1254634257743987E-2</v>
       </c>
       <c r="R209">
@@ -7747,11 +7747,11 @@
         <v>4160</v>
       </c>
       <c r="M210">
-        <f>(G210+J210)/2</f>
+        <f t="shared" si="8"/>
         <v>40.695609178379456</v>
       </c>
       <c r="N210">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.1221450276556197E-2</v>
       </c>
       <c r="R210">
@@ -7781,11 +7781,11 @@
         <v>4180</v>
       </c>
       <c r="M211">
-        <f>(G211+J211)/2</f>
+        <f t="shared" si="8"/>
         <v>40.327198939078748</v>
       </c>
       <c r="N211">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.1191827998144674E-2</v>
       </c>
       <c r="R211">
@@ -7815,11 +7815,11 @@
         <v>4200</v>
       </c>
       <c r="M212">
-        <f>(G212+J212)/2</f>
+        <f t="shared" si="8"/>
         <v>39.96563613187125</v>
       </c>
       <c r="N212">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.1464386789347145E-2</v>
       </c>
       <c r="R212">
@@ -7849,11 +7849,11 @@
         <v>4220</v>
       </c>
       <c r="M213">
-        <f>(G213+J213)/2</f>
+        <f t="shared" si="8"/>
         <v>39.610494960077446</v>
       </c>
       <c r="N213">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.1729220107943092E-2</v>
       </c>
       <c r="R213">
@@ -7883,11 +7883,11 @@
         <v>4240</v>
       </c>
       <c r="M214">
-        <f>(G214+J214)/2</f>
+        <f t="shared" si="8"/>
         <v>39.261661882313248</v>
       </c>
       <c r="N214">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.1986092450951844E-2</v>
       </c>
       <c r="R214">
@@ -7917,11 +7917,11 @@
         <v>4260</v>
       </c>
       <c r="M215">
-        <f>(G215+J215)/2</f>
+        <f t="shared" si="8"/>
         <v>38.919320770684351</v>
       </c>
       <c r="N215">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.2529826475647496E-2</v>
       </c>
       <c r="R215">
@@ -7951,11 +7951,11 @@
         <v>4280</v>
       </c>
       <c r="M216">
-        <f>(G216+J216)/2</f>
+        <f t="shared" si="8"/>
         <v>38.5830549861994</v>
       </c>
       <c r="N216">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.3052598239097222E-2</v>
       </c>
       <c r="R216">
@@ -7985,11 +7985,11 @@
         <v>4300</v>
       </c>
       <c r="M217">
-        <f>(G217+J217)/2</f>
+        <f t="shared" si="8"/>
         <v>38.252757273843201</v>
       </c>
       <c r="N217">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.35540061562034E-2</v>
       </c>
       <c r="R217">
@@ -8019,11 +8019,11 @@
         <v>4320</v>
       </c>
       <c r="M218">
-        <f>(G218+J218)/2</f>
+        <f t="shared" si="8"/>
         <v>37.928615074712802</v>
       </c>
       <c r="N218">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.4326508662902313E-2</v>
       </c>
       <c r="R218">
@@ -8053,11 +8053,11 @@
         <v>4340</v>
       </c>
       <c r="M219">
-        <f>(G219+J219)/2</f>
+        <f t="shared" si="8"/>
         <v>37.610220485428243</v>
       </c>
       <c r="N219">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.4000662494742642E-2</v>
       </c>
       <c r="R219">
@@ -8087,11 +8087,11 @@
         <v>4360</v>
       </c>
       <c r="M220">
-        <f>(G220+J220)/2</f>
+        <f t="shared" si="8"/>
         <v>37.297767627637796</v>
       </c>
       <c r="N220">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.3983045808797954E-2</v>
       </c>
       <c r="R220">
@@ -8121,11 +8121,11 @@
         <v>4380</v>
       </c>
       <c r="M221">
-        <f>(G221+J221)/2</f>
+        <f t="shared" si="8"/>
         <v>36.990849676967599</v>
       </c>
       <c r="N221">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.396674676619881E-2</v>
       </c>
       <c r="R221">
@@ -8155,11 +8155,11 @@
         <v>4400</v>
       </c>
       <c r="M222">
-        <f>(G222+J222)/2</f>
+        <f t="shared" si="8"/>
         <v>36.68936905334845</v>
       </c>
       <c r="N222">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.3952438829446976E-2</v>
       </c>
       <c r="R222">
@@ -8189,11 +8189,11 @@
         <v>4420</v>
       </c>
       <c r="M223">
-        <f>(G223+J223)/2</f>
+        <f t="shared" si="8"/>
         <v>36.393522849787004</v>
       </c>
       <c r="N223">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.4233211823002421E-2</v>
       </c>
       <c r="R223">
@@ -8223,11 +8223,11 @@
         <v>4440</v>
       </c>
       <c r="M224">
-        <f>(G224+J224)/2</f>
+        <f t="shared" si="8"/>
         <v>36.102912445801898</v>
       </c>
       <c r="N224">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.4504226804701545E-2</v>
       </c>
       <c r="R224">
@@ -8257,11 +8257,11 @@
         <v>4460</v>
       </c>
       <c r="M225">
-        <f>(G225+J225)/2</f>
+        <f t="shared" si="8"/>
         <v>35.817741339970596</v>
       </c>
       <c r="N225">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.5060748839493385E-2</v>
       </c>
       <c r="R225">
@@ -8291,11 +8291,11 @@
         <v>4480</v>
       </c>
       <c r="M226">
-        <f>(G226+J226)/2</f>
+        <f t="shared" si="8"/>
         <v>35.537611668257199</v>
       </c>
       <c r="N226">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.5594872085299869E-2</v>
       </c>
       <c r="R226">
@@ -8325,11 +8325,11 @@
         <v>4500</v>
       </c>
       <c r="M227">
-        <f>(G227+J227)/2</f>
+        <f t="shared" si="8"/>
         <v>35.262434756999397</v>
       </c>
       <c r="N227">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.6106240118899393E-2</v>
       </c>
       <c r="R227">
@@ -8359,11 +8359,11 @@
         <v>4520</v>
       </c>
       <c r="M228">
-        <f>(G228+J228)/2</f>
+        <f t="shared" si="8"/>
         <v>34.992416636082694</v>
       </c>
       <c r="N228">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.5815248517794487E-2</v>
       </c>
       <c r="R228">
@@ -8393,11 +8393,11 @@
         <v>4540</v>
       </c>
       <c r="M229">
-        <f>(G229+J229)/2</f>
+        <f t="shared" si="8"/>
         <v>34.727167145843396</v>
       </c>
       <c r="N229">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.5535171118498567E-2</v>
       </c>
       <c r="R229">
@@ -8427,11 +8427,11 @@
         <v>4560</v>
       </c>
       <c r="M230">
-        <f>(G230+J230)/2</f>
+        <f t="shared" si="8"/>
         <v>34.46689844095625</v>
       </c>
       <c r="N230">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.5561949650253268E-2</v>
       </c>
       <c r="R230">
@@ -8461,11 +8461,11 @@
         <v>4580</v>
       </c>
       <c r="M231">
-        <f>(G231+J231)/2</f>
+        <f t="shared" si="8"/>
         <v>34.211220789097148</v>
       </c>
       <c r="N231">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.5588481924046391E-2</v>
       </c>
       <c r="R231">
@@ -8495,11 +8495,11 @@
         <v>4600</v>
       </c>
       <c r="M232">
-        <f>(G232+J232)/2</f>
+        <f t="shared" si="8"/>
         <v>33.960053653621848</v>
       </c>
       <c r="N232">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.5614964495545678E-2</v>
       </c>
       <c r="R232">
@@ -8529,11 +8529,11 @@
         <v>4620</v>
       </c>
       <c r="M233">
-        <f>(G233+J233)/2</f>
+        <f t="shared" si="8"/>
         <v>33.713611293123094</v>
       </c>
       <c r="N233">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.5934468959995627E-2</v>
       </c>
       <c r="R233">
@@ -8563,11 +8563,11 @@
         <v>4640</v>
       </c>
       <c r="M234">
-        <f>(G234+J234)/2</f>
+        <f t="shared" si="8"/>
         <v>33.471511197868551</v>
       </c>
       <c r="N234">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.6241551453253464E-2</v>
       </c>
       <c r="R234">
@@ -8597,11 +8597,11 @@
         <v>4660</v>
       </c>
       <c r="M235">
-        <f>(G235+J235)/2</f>
+        <f t="shared" si="8"/>
         <v>33.233677355370844</v>
       </c>
       <c r="N235">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.65357141118443E-2</v>
       </c>
       <c r="R235">
@@ -8631,11 +8631,11 @@
         <v>4680</v>
       </c>
       <c r="M236">
-        <f>(G236+J236)/2</f>
+        <f t="shared" si="8"/>
         <v>33.000325991377551</v>
       </c>
       <c r="N236">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.7107308804950492E-2</v>
       </c>
       <c r="R236">
@@ -8665,11 +8665,11 @@
         <v>4700</v>
       </c>
       <c r="M237">
-        <f>(G237+J237)/2</f>
+        <f t="shared" si="8"/>
         <v>32.771081503097648</v>
       </c>
       <c r="N237">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.7653589125250733E-2</v>
       </c>
       <c r="R237">
@@ -8699,11 +8699,11 @@
         <v>4720</v>
       </c>
       <c r="M238">
-        <f>(G238+J238)/2</f>
+        <f t="shared" si="8"/>
         <v>32.546165775672399</v>
       </c>
       <c r="N238">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.7406404043595955E-2</v>
       </c>
       <c r="R238">
@@ -8733,11 +8733,11 @@
         <v>4740</v>
       </c>
       <c r="M239">
-        <f>(G239+J239)/2</f>
+        <f t="shared" si="8"/>
         <v>32.325203150989395</v>
       </c>
       <c r="N239">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.7166849368697399E-2</v>
       </c>
       <c r="R239">
@@ -8767,11 +8767,11 @@
         <v>4760</v>
       </c>
       <c r="M240">
-        <f>(G240+J240)/2</f>
+        <f t="shared" si="8"/>
         <v>32.108124564913247</v>
       </c>
       <c r="N240">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.6934868187247218E-2</v>
       </c>
       <c r="R240">
@@ -8801,11 +8801,11 @@
         <v>4780</v>
       </c>
       <c r="M241">
-        <f>(G241+J241)/2</f>
+        <f t="shared" si="8"/>
         <v>31.895153403901197</v>
       </c>
       <c r="N241">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.7002183488399112E-2</v>
       </c>
       <c r="R241">
@@ -8835,11 +8835,11 @@
         <v>4800</v>
       </c>
       <c r="M242">
-        <f>(G242+J242)/2</f>
+        <f t="shared" si="8"/>
         <v>31.685920507785401</v>
       </c>
       <c r="N242">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.7066426790501197E-2</v>
       </c>
       <c r="R242">
@@ -8869,11 +8869,11 @@
         <v>4820</v>
       </c>
       <c r="M243">
-        <f>(G243+J243)/2</f>
+        <f t="shared" si="8"/>
         <v>31.480654751607549</v>
       </c>
       <c r="N243">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.7421621442847766E-2</v>
       </c>
       <c r="R243">
@@ -8903,11 +8903,11 @@
         <v>4840</v>
       </c>
       <c r="M244">
-        <f>(G244+J244)/2</f>
+        <f t="shared" si="8"/>
         <v>31.2789866822175</v>
       </c>
       <c r="N244">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.7761955076499589E-2</v>
       </c>
       <c r="R244">
@@ -8937,11 +8937,11 @@
         <v>4860</v>
       </c>
       <c r="M245">
-        <f>(G245+J245)/2</f>
+        <f t="shared" si="8"/>
         <v>31.080853646110548</v>
       </c>
       <c r="N245">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.8087086022146934E-2</v>
       </c>
       <c r="R245">
@@ -8971,11 +8971,11 @@
         <v>4880</v>
       </c>
       <c r="M246">
-        <f>(G246+J246)/2</f>
+        <f t="shared" si="8"/>
         <v>30.886485727023551</v>
       </c>
       <c r="N246">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.8688235850850674E-2</v>
       </c>
       <c r="R246">
@@ -9005,11 +9005,11 @@
         <v>4900</v>
       </c>
       <c r="M247">
-        <f>(G247+J247)/2</f>
+        <f t="shared" si="8"/>
         <v>30.695519594964452</v>
       </c>
       <c r="N247">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.9262153604651786E-2</v>
       </c>
       <c r="R247">
@@ -9039,11 +9039,11 @@
         <v>4920</v>
       </c>
       <c r="M248">
-        <f>(G248+J248)/2</f>
+        <f t="shared" si="8"/>
         <v>30.5078961660458</v>
       </c>
       <c r="N248">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.8756913122599315E-2</v>
       </c>
       <c r="R248">
@@ -9073,11 +9073,11 @@
         <v>4940</v>
       </c>
       <c r="M249">
-        <f>(G249+J249)/2</f>
+        <f t="shared" si="8"/>
         <v>30.32384667349795</v>
       </c>
       <c r="N249">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.8557363264852142E-2</v>
       </c>
       <c r="R249">
@@ -9107,11 +9107,11 @@
         <v>4960</v>
       </c>
       <c r="M250">
-        <f>(G250+J250)/2</f>
+        <f t="shared" si="8"/>
         <v>30.143013656162552</v>
       </c>
       <c r="N250">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.8362655935453063E-2</v>
       </c>
       <c r="R250">
@@ -9141,11 +9141,11 @@
         <v>4980</v>
       </c>
       <c r="M251">
-        <f>(G251+J251)/2</f>
+        <f t="shared" si="8"/>
         <v>29.9656334856817</v>
       </c>
       <c r="N251">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.8465522040100666E-2</v>
       </c>
       <c r="R251">
@@ -9175,11 +9175,11 @@
         <v>5000</v>
       </c>
       <c r="M252">
-        <f>(G252+J252)/2</f>
+        <f t="shared" si="8"/>
         <v>29.79134801122315</v>
       </c>
       <c r="N252">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.8562938207450372E-2</v>
       </c>
       <c r="R252">
@@ -9209,11 +9209,11 @@
         <v>5020</v>
       </c>
       <c r="M253">
-        <f>(G253+J253)/2</f>
+        <f t="shared" si="8"/>
         <v>29.620103624697901</v>
       </c>
       <c r="N253">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.8655024401299301E-2</v>
       </c>
       <c r="R253">
@@ -9243,11 +9243,11 @@
         <v>5040</v>
       </c>
       <c r="M254">
-        <f>(G254+J254)/2</f>
+        <f t="shared" si="8"/>
         <v>29.452137450014952</v>
       </c>
       <c r="N254">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.9031332688351341E-2</v>
       </c>
       <c r="R254">
@@ -9277,11 +9277,11 @@
         <v>5060</v>
       </c>
       <c r="M255">
-        <f>(G255+J255)/2</f>
+        <f t="shared" si="8"/>
         <v>29.287096853634601</v>
       </c>
       <c r="N255">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.9390518904602203E-2</v>
       </c>
       <c r="R255">
@@ -9311,11 +9311,11 @@
         <v>5080</v>
       </c>
       <c r="M256">
-        <f>(G256+J256)/2</f>
+        <f t="shared" si="8"/>
         <v>29.124931301636799</v>
       </c>
       <c r="N256">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.9732346610298777E-2</v>
       </c>
       <c r="R256">
@@ -9345,11 +9345,11 @@
         <v>5100</v>
       </c>
       <c r="M257">
-        <f>(G257+J257)/2</f>
+        <f t="shared" si="8"/>
         <v>28.9658786761252</v>
       </c>
       <c r="N257">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-3.0344114927899568E-2</v>
       </c>
       <c r="R257">
@@ -9379,11 +9379,11 @@
         <v>5120</v>
       </c>
       <c r="M258">
-        <f>(G258+J258)/2</f>
+        <f t="shared" si="8"/>
         <v>28.809591655809051</v>
       </c>
       <c r="N258">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.9883854625552431E-2</v>
       </c>
       <c r="R258">
@@ -9413,11 +9413,11 @@
         <v>5140</v>
       </c>
       <c r="M259">
-        <f>(G259+J259)/2</f>
+        <f t="shared" ref="M259:M302" si="10">(G259+J259)/2</f>
         <v>28.656313005732901</v>
       </c>
       <c r="N259">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-2.972801714849993E-2</v>
       </c>
       <c r="R259">
@@ -9447,11 +9447,11 @@
         <v>5160</v>
       </c>
       <c r="M260">
-        <f>(G260+J260)/2</f>
+        <f t="shared" si="10"/>
         <v>28.505694391444202</v>
       </c>
       <c r="N260">
-        <f t="shared" ref="N260:N302" si="6">C260-M260</f>
+        <f t="shared" ref="N260:N302" si="11">C260-M260</f>
         <v>-2.9574507542800887E-2</v>
       </c>
       <c r="R260">
@@ -9481,11 +9481,11 @@
         <v>5180</v>
       </c>
       <c r="M261">
-        <f>(G261+J261)/2</f>
+        <f t="shared" si="10"/>
         <v>28.357690012046298</v>
       </c>
       <c r="N261">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-2.9423868393699593E-2</v>
       </c>
       <c r="R261">
@@ -9515,11 +9515,11 @@
         <v>5200</v>
       </c>
       <c r="M262">
-        <f>(G262+J262)/2</f>
+        <f t="shared" si="10"/>
         <v>28.212543037102151</v>
       </c>
       <c r="N262">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-2.9564664473650026E-2</v>
       </c>
       <c r="R262">
@@ -9549,11 +9549,11 @@
         <v>5220</v>
       </c>
       <c r="M263">
-        <f>(G263+J263)/2</f>
+        <f t="shared" si="10"/>
         <v>28.069910122955399</v>
       </c>
       <c r="N263">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-2.9697766171800311E-2</v>
       </c>
       <c r="R263">
@@ -9583,11 +9583,11 @@
         <v>5240</v>
       </c>
       <c r="M264">
-        <f>(G264+J264)/2</f>
+        <f t="shared" si="10"/>
         <v>27.930039239376899</v>
       </c>
       <c r="N264">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.0114237953998924E-2</v>
       </c>
       <c r="R264">
@@ -9617,11 +9617,11 @@
         <v>5260</v>
       </c>
       <c r="M265">
-        <f>(G265+J265)/2</f>
+        <f t="shared" si="10"/>
         <v>27.792585851493101</v>
       </c>
       <c r="N265">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.0511662302199483E-2</v>
       </c>
       <c r="R265">
@@ -9651,11 +9651,11 @@
         <v>5280</v>
       </c>
       <c r="M266">
-        <f>(G266+J266)/2</f>
+        <f t="shared" si="10"/>
         <v>27.6575085341325</v>
       </c>
       <c r="N266">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.0889891835098382E-2</v>
       </c>
       <c r="R266">
@@ -9685,11 +9685,11 @@
         <v>5300</v>
       </c>
       <c r="M267">
-        <f>(G267+J267)/2</f>
+        <f t="shared" si="10"/>
         <v>27.525055494639751</v>
       </c>
       <c r="N267">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.1537679276450348E-2</v>
       </c>
       <c r="R267">
@@ -9719,11 +9719,11 @@
         <v>5320</v>
       </c>
       <c r="M268">
-        <f>(G268+J268)/2</f>
+        <f t="shared" si="10"/>
         <v>27.394886905587448</v>
       </c>
       <c r="N268">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.1119295392549873E-2</v>
       </c>
       <c r="R268">
@@ -9753,11 +9753,11 @@
         <v>5340</v>
       </c>
       <c r="M269">
-        <f>(G269+J269)/2</f>
+        <f t="shared" si="10"/>
         <v>27.266963771325699</v>
       </c>
       <c r="N269">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.0712487915899089E-2</v>
       </c>
       <c r="R269">
@@ -9787,11 +9787,11 @@
         <v>5360</v>
       </c>
       <c r="M270">
-        <f>(G270+J270)/2</f>
+        <f t="shared" si="10"/>
         <v>27.141534576290553</v>
       </c>
       <c r="N270">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.060332744925276E-2</v>
       </c>
       <c r="R270">
@@ -9821,11 +9821,11 @@
         <v>5380</v>
       </c>
       <c r="M271">
-        <f>(G271+J271)/2</f>
+        <f t="shared" si="10"/>
         <v>27.018264021817899</v>
       </c>
       <c r="N271">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.0494497547600474E-2</v>
       </c>
       <c r="R271">
@@ -9855,11 +9855,11 @@
         <v>5400</v>
       </c>
       <c r="M272">
-        <f>(G272+J272)/2</f>
+        <f t="shared" si="10"/>
         <v>26.897405181081602</v>
       </c>
       <c r="N272">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.0676357959002587E-2</v>
       </c>
       <c r="R272">
@@ -9889,11 +9889,11 @@
         <v>5420</v>
       </c>
       <c r="M273">
-        <f>(G273+J273)/2</f>
+        <f t="shared" si="10"/>
         <v>26.77862125537515</v>
       </c>
       <c r="N273">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.0848409629850693E-2</v>
       </c>
       <c r="R273">
@@ -9923,11 +9923,11 @@
         <v>5440</v>
       </c>
       <c r="M274">
-        <f>(G274+J274)/2</f>
+        <f t="shared" si="10"/>
         <v>26.6618769747062</v>
       </c>
       <c r="N274">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.1010719373398388E-2</v>
       </c>
       <c r="R274">
@@ -9957,11 +9957,11 @@
         <v>5460</v>
       </c>
       <c r="M275">
-        <f>(G275+J275)/2</f>
+        <f t="shared" si="10"/>
         <v>26.547425377165801</v>
       </c>
       <c r="N275">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.1450821077900315E-2</v>
       </c>
       <c r="R275">
@@ -9991,11 +9991,11 @@
         <v>5480</v>
       </c>
       <c r="M276">
-        <f>(G276+J276)/2</f>
+        <f t="shared" si="10"/>
         <v>26.434933896026351</v>
       </c>
       <c r="N276">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.1869930696249327E-2</v>
       </c>
       <c r="R276">
@@ -10025,11 +10025,11 @@
         <v>5500</v>
       </c>
       <c r="M277">
-        <f>(G277+J277)/2</f>
+        <f t="shared" si="10"/>
         <v>26.324369345831052</v>
       </c>
       <c r="N277">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.2268034869051831E-2</v>
       </c>
       <c r="R277">
@@ -10059,11 +10059,11 @@
         <v>5520</v>
       </c>
       <c r="M278">
-        <f>(G278+J278)/2</f>
+        <f t="shared" si="10"/>
         <v>26.215984824241097</v>
       </c>
       <c r="N278">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.2930864912497526E-2</v>
       </c>
       <c r="R278">
@@ -10093,11 +10093,11 @@
         <v>5540</v>
       </c>
       <c r="M279">
-        <f>(G279+J279)/2</f>
+        <f t="shared" si="10"/>
         <v>26.1094518581877</v>
       </c>
       <c r="N279">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.2550212650001242E-2</v>
       </c>
       <c r="R279">
@@ -10127,11 +10127,11 @@
         <v>5560</v>
       </c>
       <c r="M280">
-        <f>(G280+J280)/2</f>
+        <f t="shared" si="10"/>
         <v>26.005028000419252</v>
       </c>
       <c r="N280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.2467307111950561E-2</v>
       </c>
       <c r="R280">
@@ -10161,11 +10161,11 @@
         <v>5580</v>
       </c>
       <c r="M281">
-        <f>(G281+J281)/2</f>
+        <f t="shared" si="10"/>
         <v>25.90238302219775</v>
       </c>
       <c r="N281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.2381871598250456E-2</v>
       </c>
       <c r="R281">
@@ -10195,11 +10195,11 @@
         <v>5600</v>
       </c>
       <c r="M282">
-        <f>(G282+J282)/2</f>
+        <f t="shared" si="10"/>
         <v>25.801486957518001</v>
       </c>
       <c r="N282">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.2294505371101678E-2</v>
       </c>
       <c r="R282">
@@ -10229,11 +10229,11 @@
         <v>5620</v>
       </c>
       <c r="M283">
-        <f>(G283+J283)/2</f>
+        <f t="shared" si="10"/>
         <v>25.702597143517799</v>
       </c>
       <c r="N283">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.2492641452400051E-2</v>
       </c>
       <c r="R283">
@@ -10263,11 +10263,11 @@
         <v>5640</v>
       </c>
       <c r="M284">
-        <f>(G284+J284)/2</f>
+        <f t="shared" si="10"/>
         <v>25.605387163693898</v>
       </c>
       <c r="N284">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.2679152489397012E-2</v>
       </c>
       <c r="R284">
@@ -10297,11 +10297,11 @@
         <v>5660</v>
       </c>
       <c r="M285">
-        <f>(G285+J285)/2</f>
+        <f t="shared" si="10"/>
         <v>25.509828849699502</v>
       </c>
       <c r="N285">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.2854338957001517E-2</v>
       </c>
       <c r="R285">
@@ -10331,11 +10331,11 @@
         <v>5680</v>
       </c>
       <c r="M286">
-        <f>(G286+J286)/2</f>
+        <f t="shared" si="10"/>
         <v>25.41617944484215</v>
       </c>
       <c r="N286">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.3303191634651341E-2</v>
       </c>
       <c r="R286">
@@ -10365,11 +10365,11 @@
         <v>5700</v>
       </c>
       <c r="M287">
-        <f>(G287+J287)/2</f>
+        <f t="shared" si="10"/>
         <v>25.32411622563685</v>
       </c>
       <c r="N287">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.3730128754150712E-2</v>
       </c>
       <c r="R287">
@@ -10399,11 +10399,11 @@
         <v>5720</v>
       </c>
       <c r="M288">
-        <f>(G288+J288)/2</f>
+        <f t="shared" si="10"/>
         <v>25.233900797295547</v>
       </c>
       <c r="N288">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.4423387937845717E-2</v>
       </c>
       <c r="R288">
@@ -10433,11 +10433,11 @@
         <v>5740</v>
       </c>
       <c r="M289">
-        <f>(G289+J289)/2</f>
+        <f t="shared" si="10"/>
         <v>25.145208438984952</v>
       </c>
       <c r="N289">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.4077049904251311E-2</v>
       </c>
       <c r="R289">
@@ -10467,11 +10467,11 @@
         <v>5760</v>
       </c>
       <c r="M290">
-        <f>(G290+J290)/2</f>
+        <f t="shared" si="10"/>
         <v>25.058013765300998</v>
       </c>
       <c r="N290">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.3738194449099979E-2</v>
       </c>
       <c r="R290">
@@ -10501,11 +10501,11 @@
         <v>5780</v>
       </c>
       <c r="M291">
-        <f>(G291+J291)/2</f>
+        <f t="shared" si="10"/>
         <v>24.972578039240449</v>
       </c>
       <c r="N291">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.3692090944750674E-2</v>
       </c>
       <c r="R291">
@@ -10535,11 +10535,11 @@
         <v>5800</v>
       </c>
       <c r="M292">
-        <f>(G292+J292)/2</f>
+        <f t="shared" si="10"/>
         <v>24.88857995656555</v>
       </c>
       <c r="N292">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.3642219089252023E-2</v>
       </c>
       <c r="R292">
@@ -10569,11 +10569,11 @@
         <v>5820</v>
       </c>
       <c r="M293">
-        <f>(G293+J293)/2</f>
+        <f t="shared" si="10"/>
         <v>24.805995679233749</v>
       </c>
       <c r="N293">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.3589247246350595E-2</v>
       </c>
       <c r="R293">
@@ -10603,11 +10603,11 @@
         <v>5840</v>
       </c>
       <c r="M294">
-        <f>(G294+J294)/2</f>
+        <f t="shared" si="10"/>
         <v>24.725086273745852</v>
       </c>
       <c r="N294">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.3818097009753245E-2</v>
       </c>
       <c r="R294">
@@ -10637,11 +10637,11 @@
         <v>5860</v>
       </c>
       <c r="M295">
-        <f>(G295+J295)/2</f>
+        <f t="shared" si="10"/>
         <v>24.645533749594151</v>
       </c>
       <c r="N295">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.4033934846451785E-2</v>
       </c>
       <c r="R295">
@@ -10671,11 +10671,11 @@
         <v>5880</v>
       </c>
       <c r="M296">
-        <f>(G296+J296)/2</f>
+        <f t="shared" si="10"/>
         <v>24.567315717249951</v>
       </c>
       <c r="N296">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.4236908640352226E-2</v>
       </c>
       <c r="R296">
@@ -10705,11 +10705,11 @@
         <v>5900</v>
       </c>
       <c r="M297">
-        <f>(G297+J297)/2</f>
+        <f t="shared" si="10"/>
         <v>24.490692990748151</v>
       </c>
       <c r="N297">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.4709854969250387E-2</v>
       </c>
       <c r="R297">
@@ -10739,11 +10739,11 @@
         <v>5920</v>
       </c>
       <c r="M298">
-        <f>(G298+J298)/2</f>
+        <f t="shared" si="10"/>
         <v>24.415350722879651</v>
       </c>
       <c r="N298">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.5159525318952944E-2</v>
       </c>
       <c r="R298">
@@ -10773,11 +10773,11 @@
         <v>5940</v>
       </c>
       <c r="M299">
-        <f>(G299+J299)/2</f>
+        <f t="shared" si="10"/>
         <v>24.3415539854923</v>
       </c>
       <c r="N299">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.486748591259925E-2</v>
       </c>
       <c r="R299">
@@ -10807,11 +10807,11 @@
         <v>5960</v>
       </c>
       <c r="M300">
-        <f>(G300+J300)/2</f>
+        <f t="shared" si="10"/>
         <v>24.268985629657649</v>
       </c>
       <c r="N300">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.4580715856549205E-2</v>
       </c>
       <c r="R300">
@@ -10841,11 +10841,11 @@
         <v>5980</v>
       </c>
       <c r="M301">
-        <f>(G301+J301)/2</f>
+        <f t="shared" si="10"/>
         <v>24.197625515263802</v>
       </c>
       <c r="N301">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.429816611150116E-2</v>
       </c>
       <c r="R301">
@@ -10875,11 +10875,11 @@
         <v>6000</v>
       </c>
       <c r="M302">
-        <f>(G302+J302)/2</f>
+        <f t="shared" si="10"/>
         <v>24.127738281399452</v>
       </c>
       <c r="N302">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-3.430447239665213E-2</v>
       </c>
       <c r="R302">

--- a/Projeto/Grid independency.xlsx
+++ b/Projeto/Grid independency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Farinha\Documents\GitHub\TCal\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFF8EC9-CFA6-426A-BE3E-D380CCE9B28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36124ADF-4544-4AC1-8A17-FE8808A4DBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9830628-72A4-43C7-B2B0-C1E936715225}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="B1:Y606"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,6 +486,10 @@
       <c r="D3">
         <v>20</v>
       </c>
+      <c r="E3">
+        <f>C3-C4</f>
+        <v>54.717445646225883</v>
+      </c>
       <c r="G3">
         <v>1041.9262007006801</v>
       </c>
@@ -534,6 +538,10 @@
       <c r="D4">
         <v>40</v>
       </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E21" si="1">C4-C5</f>
+        <v>39.452176657178029</v>
+      </c>
       <c r="G4">
         <v>986.81445665900901</v>
       </c>
@@ -551,7 +559,7 @@
         <v>997.53320118639454</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N67" si="1">C4-M4</f>
+        <f t="shared" ref="N4:N67" si="2">C4-M4</f>
         <v>0.35869970329952139</v>
       </c>
       <c r="R4">
@@ -567,11 +575,11 @@
         <v>40</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4:X17" si="2">(U4+R4)/2</f>
+        <f t="shared" ref="X4:X17" si="3">(U4+R4)/2</f>
         <v>997.72506438536493</v>
       </c>
       <c r="Y4">
-        <f t="shared" ref="Y4:Y17" si="3">X4-M4</f>
+        <f t="shared" ref="Y4:Y17" si="4">X4-M4</f>
         <v>0.19186319897039539</v>
       </c>
     </row>
@@ -582,6 +590,10 @@
       <c r="D5">
         <v>60</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>31.738006038183016</v>
+      </c>
       <c r="G5">
         <v>947.57028353020303</v>
       </c>
@@ -599,7 +611,7 @@
         <v>958.16677244145501</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.27295179106101841</v>
       </c>
       <c r="R5">
@@ -615,11 +627,11 @@
         <v>60</v>
       </c>
       <c r="X5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>958.29187245103458</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1251000095795689</v>
       </c>
     </row>
@@ -630,6 +642,10 @@
       <c r="D6">
         <v>80</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>27.071125742304957</v>
+      </c>
       <c r="G6">
         <v>916.09611482523201</v>
       </c>
@@ -647,7 +663,7 @@
         <v>926.48089025979652</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22082793453648719</v>
       </c>
       <c r="R6">
@@ -663,11 +679,11 @@
         <v>80</v>
       </c>
       <c r="X6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>926.57490612945946</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.4015869662939622E-2</v>
       </c>
     </row>
@@ -678,6 +694,10 @@
       <c r="D7">
         <v>100</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>23.948810187555068</v>
+      </c>
       <c r="G7">
         <v>889.28599943439099</v>
       </c>
@@ -695,7 +715,7 @@
         <v>899.44557141732753</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.18502103470052589</v>
       </c>
       <c r="R7">
@@ -711,11 +731,11 @@
         <v>100</v>
       </c>
       <c r="X7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>899.52223274656603</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.666132923850455E-2</v>
       </c>
     </row>
@@ -726,6 +746,10 @@
       <c r="D8">
         <v>120</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>21.71787931850497</v>
+      </c>
       <c r="G8">
         <v>865.58616965407805</v>
       </c>
@@ -743,7 +767,7 @@
         <v>875.52340306146948</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15837920300350561</v>
       </c>
       <c r="R8">
@@ -759,11 +783,11 @@
         <v>120</v>
       </c>
       <c r="X8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>875.58894225099095</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5539189521473418E-2</v>
       </c>
     </row>
@@ -774,6 +798,10 @@
       <c r="D9">
         <v>140</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>20.043409690136059</v>
+      </c>
       <c r="G9">
         <v>844.10377586167704</v>
       </c>
@@ -791,7 +819,7 @@
         <v>853.82566013875908</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13824280720893967</v>
       </c>
       <c r="R9">
@@ -807,11 +835,11 @@
         <v>140</v>
       </c>
       <c r="X9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>853.8837856482869</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.812550952782658E-2</v>
       </c>
     </row>
@@ -822,6 +850,10 @@
       <c r="D10">
         <v>160</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>18.73525918793996</v>
+      </c>
       <c r="G10">
         <v>824.283260898908</v>
       </c>
@@ -839,7 +871,7 @@
         <v>833.79763506399058</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12285819184137381</v>
       </c>
       <c r="R10">
@@ -855,11 +887,11 @@
         <v>160</v>
       </c>
       <c r="X10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>833.85045885541547</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2823791424884803E-2</v>
       </c>
     </row>
@@ -870,6 +902,10 @@
       <c r="D11">
         <v>180</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>17.676869794247978</v>
+      </c>
       <c r="G11">
         <v>805.760003750088</v>
       </c>
@@ -887,7 +923,7 @@
         <v>815.07456371388298</v>
       </c>
       <c r="N11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11067035400901659</v>
       </c>
       <c r="R11">
@@ -903,11 +939,11 @@
         <v>180</v>
       </c>
       <c r="X11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>815.12312124187451</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.8557527991533789E-2</v>
       </c>
     </row>
@@ -918,6 +954,10 @@
       <c r="D12">
         <v>200</v>
       </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>16.798311923633037</v>
+      </c>
       <c r="G12">
         <v>788.28380005755196</v>
       </c>
@@ -935,7 +975,7 @@
         <v>797.40578557844242</v>
       </c>
       <c r="N12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10257869520160057</v>
       </c>
       <c r="R12">
@@ -951,11 +991,11 @@
         <v>200</v>
       </c>
       <c r="X12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>797.45104213135551</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5256552913087944E-2</v>
       </c>
     </row>
@@ -966,6 +1006,10 @@
       <c r="D13">
         <v>220</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>16.050353663408032</v>
+      </c>
       <c r="G13">
         <v>771.67755741217297</v>
       </c>
@@ -983,7 +1027,7 @@
         <v>780.61368369828097</v>
       </c>
       <c r="N13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.6368651730017518E-2</v>
       </c>
       <c r="R13">
@@ -999,11 +1043,11 @@
         <v>220</v>
       </c>
       <c r="X13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>780.65625634829848</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2572650017518754E-2</v>
       </c>
     </row>
@@ -1014,6 +1058,10 @@
       <c r="D14">
         <v>240</v>
       </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>15.400899175013933</v>
+      </c>
       <c r="G14">
         <v>755.81202754065396</v>
       </c>
@@ -1031,7 +1079,7 @@
         <v>764.56849859915951</v>
       </c>
       <c r="N14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.120008744343977E-2</v>
       </c>
       <c r="R14">
@@ -1047,11 +1095,11 @@
         <v>240</v>
       </c>
       <c r="X14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>764.60858945224948</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0090853089964185E-2</v>
       </c>
     </row>
@@ -1062,6 +1110,10 @@
       <c r="D15">
         <v>260</v>
       </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>14.827758472247979</v>
+      </c>
       <c r="G15">
         <v>740.58918988878395</v>
       </c>
@@ -1079,7 +1131,7 @@
         <v>749.17172863000246</v>
       </c>
       <c r="N15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.7070881586555515E-2</v>
       </c>
       <c r="R15">
@@ -1095,11 +1147,11 @@
         <v>260</v>
       </c>
       <c r="X15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>749.20972260153144</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7993971528976545E-2</v>
       </c>
     </row>
@@ -1110,6 +1162,10 @@
       <c r="D16">
         <v>280</v>
       </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>14.315184133979983</v>
+      </c>
       <c r="G16">
         <v>725.93376879171899</v>
       </c>
@@ -1127,7 +1183,7 @@
         <v>734.34767109609652</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.3369943244520073E-2</v>
       </c>
       <c r="R16">
@@ -1143,11 +1199,11 @@
         <v>280</v>
       </c>
       <c r="X16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>734.3836266623855</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5955566288976115E-2</v>
       </c>
     </row>
@@ -1158,6 +1214,10 @@
       <c r="D17">
         <v>300</v>
       </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>13.851706970067085</v>
+      </c>
       <c r="G17">
         <v>711.78541712107005</v>
       </c>
@@ -1175,7 +1235,7 @@
         <v>720.03559019324052</v>
       </c>
       <c r="N17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.0266712120533157E-2</v>
       </c>
       <c r="R17">
@@ -1191,11 +1251,11 @@
         <v>300</v>
       </c>
       <c r="X17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>720.06979585755744</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4205664316914408E-2</v>
       </c>
     </row>
@@ -1206,6 +1266,10 @@
       <c r="D18">
         <v>320</v>
       </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>13.428758683358978</v>
+      </c>
       <c r="G18">
         <v>698.09551803085606</v>
       </c>
@@ -1223,7 +1287,7 @@
         <v>706.18652764231456</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.7622292979413032E-2</v>
       </c>
       <c r="R18">
@@ -1240,6 +1304,10 @@
       <c r="D19">
         <v>340</v>
       </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>13.039781343759046</v>
+      </c>
       <c r="G19">
         <v>684.82427156957397</v>
       </c>
@@ -1257,7 +1325,7 @@
         <v>692.76038486605546</v>
       </c>
       <c r="N19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.50063858795329E-2</v>
       </c>
       <c r="R19">
@@ -1274,6 +1342,10 @@
       <c r="D20">
         <v>360</v>
       </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>12.678307059762915</v>
+      </c>
       <c r="G20">
         <v>671.93769579029697</v>
       </c>
@@ -1291,7 +1363,7 @@
         <v>679.72290826872154</v>
       </c>
       <c r="N20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.2701639454407996E-2</v>
       </c>
       <c r="R20">
@@ -1299,6 +1371,16 @@
       </c>
       <c r="S20">
         <v>360</v>
+      </c>
+      <c r="V20">
+        <v>1099.7439398628301</v>
+      </c>
+      <c r="W20">
+        <v>20</v>
+      </c>
+      <c r="X20">
+        <f>V20-V21</f>
+        <v>29.209218870110135</v>
       </c>
     </row>
     <row r="21" spans="3:25" x14ac:dyDescent="0.25">
@@ -1308,6 +1390,10 @@
       <c r="D21">
         <v>380</v>
       </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>12.343011121483983</v>
+      </c>
       <c r="G21">
         <v>659.40756901040504</v>
       </c>
@@ -1325,7 +1411,7 @@
         <v>667.04564279175747</v>
       </c>
       <c r="N21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.1660056655559856E-2</v>
       </c>
       <c r="R21">
@@ -1333,6 +1419,16 @@
       </c>
       <c r="S21">
         <v>380</v>
+      </c>
+      <c r="V21">
+        <v>1070.5347209927199</v>
+      </c>
+      <c r="W21">
+        <v>40</v>
+      </c>
+      <c r="X21">
+        <f t="shared" ref="X21:X37" si="5">V21-V22</f>
+        <v>21.851034690530014</v>
       </c>
     </row>
     <row r="22" spans="3:25" x14ac:dyDescent="0.25">
@@ -1359,7 +1455,7 @@
         <v>654.70353256261149</v>
       </c>
       <c r="N22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0759164317564682E-2</v>
       </c>
       <c r="R22">
@@ -1367,6 +1463,16 @@
       </c>
       <c r="S22">
         <v>400</v>
+      </c>
+      <c r="V22">
+        <v>1048.6836863021899</v>
+      </c>
+      <c r="W22">
+        <v>60</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="5"/>
+        <v>18.379544682959931</v>
       </c>
     </row>
     <row r="23" spans="3:25" x14ac:dyDescent="0.25">
@@ -1393,7 +1499,7 @@
         <v>642.67519206220447</v>
       </c>
       <c r="N23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.9979832756530413E-2</v>
       </c>
       <c r="R23">
@@ -1401,6 +1507,16 @@
       </c>
       <c r="S23">
         <v>420</v>
+      </c>
+      <c r="V23">
+        <v>1030.30414161923</v>
+      </c>
+      <c r="W23">
+        <v>80</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="5"/>
+        <v>16.533089537230012</v>
       </c>
     </row>
     <row r="24" spans="3:25" x14ac:dyDescent="0.25">
@@ -1427,7 +1543,7 @@
         <v>630.94229569213246</v>
       </c>
       <c r="N24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.8980967873585541E-2</v>
       </c>
       <c r="R24">
@@ -1435,6 +1551,16 @@
       </c>
       <c r="S24">
         <v>440</v>
+      </c>
+      <c r="V24">
+        <v>1013.771052082</v>
+      </c>
+      <c r="W24">
+        <v>100</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="5"/>
+        <v>15.520860341772959</v>
       </c>
     </row>
     <row r="25" spans="3:25" x14ac:dyDescent="0.25">
@@ -1461,7 +1587,7 @@
         <v>619.48812613134248</v>
       </c>
       <c r="N25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.8095287133473903E-2</v>
       </c>
       <c r="R25">
@@ -1469,6 +1595,16 @@
       </c>
       <c r="S25">
         <v>460</v>
+      </c>
+      <c r="V25">
+        <v>998.25019174022702</v>
+      </c>
+      <c r="W25">
+        <v>120</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="5"/>
+        <v>14.974305656165029</v>
       </c>
     </row>
     <row r="26" spans="3:25" x14ac:dyDescent="0.25">
@@ -1495,7 +1631,7 @@
         <v>608.29855717090595</v>
       </c>
       <c r="N26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6984172092020344E-2</v>
       </c>
       <c r="R26">
@@ -1503,6 +1639,16 @@
       </c>
       <c r="S26">
         <v>480</v>
+      </c>
+      <c r="V26">
+        <v>983.27588608406199</v>
+      </c>
+      <c r="W26">
+        <v>140</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="5"/>
+        <v>14.691793262893043</v>
       </c>
     </row>
     <row r="27" spans="3:25" x14ac:dyDescent="0.25">
@@ -1529,7 +1675,7 @@
         <v>597.360414974832</v>
       </c>
       <c r="N27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5983741381046457E-2</v>
       </c>
       <c r="R27">
@@ -1537,6 +1683,16 @@
       </c>
       <c r="S27">
         <v>500</v>
+      </c>
+      <c r="V27">
+        <v>968.58409282116895</v>
+      </c>
+      <c r="W27">
+        <v>160</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="5"/>
+        <v>14.554605151865985</v>
       </c>
     </row>
     <row r="28" spans="3:25" x14ac:dyDescent="0.25">
@@ -1563,7 +1719,7 @@
         <v>586.66225882983849</v>
       </c>
       <c r="N28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5084352297503756E-2</v>
       </c>
       <c r="R28">
@@ -1571,6 +1727,16 @@
       </c>
       <c r="S28">
         <v>520</v>
+      </c>
+      <c r="V28">
+        <v>954.02948766930297</v>
+      </c>
+      <c r="W28">
+        <v>180</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="5"/>
+        <v>14.48971444911399</v>
       </c>
     </row>
     <row r="29" spans="3:25" x14ac:dyDescent="0.25">
@@ -1597,7 +1763,7 @@
         <v>576.19415922870849</v>
       </c>
       <c r="N29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3953831083495061E-2</v>
       </c>
       <c r="R29">
@@ -1605,6 +1771,16 @@
       </c>
       <c r="S29">
         <v>540</v>
+      </c>
+      <c r="V29">
+        <v>939.53977322018898</v>
+      </c>
+      <c r="W29">
+        <v>200</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="5"/>
+        <v>14.457164301291982</v>
       </c>
     </row>
     <row r="30" spans="3:25" x14ac:dyDescent="0.25">
@@ -1631,7 +1807,7 @@
         <v>565.94654525900842</v>
       </c>
       <c r="N30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2923886828571085E-2</v>
       </c>
       <c r="R30">
@@ -1639,6 +1815,16 @@
       </c>
       <c r="S30">
         <v>560</v>
+      </c>
+      <c r="V30">
+        <v>925.08260891889699</v>
+      </c>
+      <c r="W30">
+        <v>220</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="5"/>
+        <v>14.430304906750962</v>
       </c>
     </row>
     <row r="31" spans="3:25" x14ac:dyDescent="0.25">
@@ -1665,7 +1851,7 @@
         <v>555.91139455444704</v>
       </c>
       <c r="N31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2954006141922036E-2</v>
       </c>
       <c r="R31">
@@ -1673,6 +1859,16 @@
       </c>
       <c r="S31">
         <v>580</v>
+      </c>
+      <c r="V31">
+        <v>910.65230401214603</v>
+      </c>
+      <c r="W31">
+        <v>240</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="5"/>
+        <v>14.395128973074065</v>
       </c>
     </row>
     <row r="32" spans="3:25" x14ac:dyDescent="0.25">
@@ -1699,7 +1895,7 @@
         <v>546.08078041729948</v>
       </c>
       <c r="N32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2994505072538232E-2</v>
       </c>
       <c r="R32">
@@ -1708,8 +1904,18 @@
       <c r="S32">
         <v>600</v>
       </c>
-    </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V32">
+        <v>896.25717503907197</v>
+      </c>
+      <c r="W32">
+        <v>260</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="5"/>
+        <v>14.344503590549948</v>
+      </c>
+    </row>
+    <row r="33" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>536.51082568720801</v>
       </c>
@@ -1733,7 +1939,7 @@
         <v>536.44778156650295</v>
       </c>
       <c r="N33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3044120705058049E-2</v>
       </c>
       <c r="R33">
@@ -1742,8 +1948,18 @@
       <c r="S33">
         <v>620</v>
       </c>
-    </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V33">
+        <v>881.91267144852202</v>
+      </c>
+      <c r="W33">
+        <v>280</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="5"/>
+        <v>14.275468910274071</v>
+      </c>
+    </row>
+    <row r="34" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>527.06915351850103</v>
       </c>
@@ -1767,7 +1983,7 @@
         <v>527.00637406452893</v>
       </c>
       <c r="N34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2779453972098054E-2</v>
       </c>
       <c r="R34">
@@ -1776,8 +1992,18 @@
       <c r="S34">
         <v>640</v>
       </c>
-    </row>
-    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V34">
+        <v>867.63720253824795</v>
+      </c>
+      <c r="W34">
+        <v>300</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="5"/>
+        <v>14.18752561211295</v>
+      </c>
+    </row>
+    <row r="35" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>517.81291296347399</v>
       </c>
@@ -1801,7 +2027,7 @@
         <v>517.75037647251497</v>
       </c>
       <c r="N35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.253649095901892E-2</v>
       </c>
       <c r="R35">
@@ -1810,8 +2036,18 @@
       <c r="S35">
         <v>660</v>
       </c>
-    </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V35">
+        <v>853.449676926135</v>
+      </c>
+      <c r="W35">
+        <v>320</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="5"/>
+        <v>14.081559398483023</v>
+      </c>
+    </row>
+    <row r="36" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>508.73669711263898</v>
       </c>
@@ -1835,7 +2071,7 @@
         <v>508.67470859019704</v>
       </c>
       <c r="N36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.1988522441936311E-2</v>
       </c>
       <c r="R36">
@@ -1844,8 +2080,18 @@
       <c r="S36">
         <v>680</v>
       </c>
-    </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V36">
+        <v>839.36811752765198</v>
+      </c>
+      <c r="W36">
+        <v>340</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="5"/>
+        <v>13.959174608643025</v>
+      </c>
+    </row>
+    <row r="37" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>499.83548304966502</v>
       </c>
@@ -1869,7 +2115,7 @@
         <v>499.77400963841751</v>
       </c>
       <c r="N37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.1473411247504828E-2</v>
       </c>
       <c r="R37">
@@ -1878,8 +2124,18 @@
       <c r="S37">
         <v>700</v>
       </c>
-    </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V37">
+        <v>825.40894291900895</v>
+      </c>
+      <c r="W37">
+        <v>360</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="5"/>
+        <v>13.820722547532</v>
+      </c>
+    </row>
+    <row r="38" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>491.10458487333801</v>
       </c>
@@ -1903,7 +2159,7 @@
         <v>491.04359699028998</v>
       </c>
       <c r="N38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.098788304802838E-2</v>
       </c>
       <c r="R38">
@@ -1912,8 +2168,14 @@
       <c r="S38">
         <v>720</v>
       </c>
-    </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V38">
+        <v>811.58822037147695</v>
+      </c>
+      <c r="W38">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="39" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>482.53961321662501</v>
       </c>
@@ -1937,7 +2199,7 @@
         <v>482.47940494271052</v>
       </c>
       <c r="N39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0208273914497568E-2</v>
       </c>
       <c r="R39">
@@ -1946,8 +2208,14 @@
       <c r="S39">
         <v>740</v>
       </c>
-    </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V39">
+        <v>797.916796008647</v>
+      </c>
+      <c r="W39">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>474.13644033748801</v>
       </c>
@@ -1971,7 +2239,7 @@
         <v>474.07697209592197</v>
       </c>
       <c r="N40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.946824156603725E-2</v>
       </c>
       <c r="R40">
@@ -1980,8 +2248,14 @@
       <c r="S40">
         <v>760</v>
       </c>
-    </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V40">
+        <v>784.40525736495397</v>
+      </c>
+      <c r="W40">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="41" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>465.89244345285499</v>
       </c>
@@ -2005,7 +2279,7 @@
         <v>465.83272904766852</v>
       </c>
       <c r="N41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9714405186468866E-2</v>
       </c>
       <c r="R41">
@@ -2014,8 +2288,14 @@
       <c r="S41">
         <v>780</v>
       </c>
-    </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V41">
+        <v>771.06239735763302</v>
+      </c>
+      <c r="W41">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="42" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>457.802573775371</v>
       </c>
@@ -2039,7 +2319,7 @@
         <v>457.74264908007399</v>
       </c>
       <c r="N42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9924695297013386E-2</v>
       </c>
       <c r="R42">
@@ -2048,8 +2328,14 @@
       <c r="S42">
         <v>800</v>
       </c>
-    </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V42">
+        <v>757.89538258944401</v>
+      </c>
+      <c r="W42">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="43" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>449.86333007253103</v>
       </c>
@@ -2073,7 +2359,7 @@
         <v>449.80322839031049</v>
       </c>
       <c r="N43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0101682220533803E-2</v>
       </c>
       <c r="R43">
@@ -2082,8 +2368,14 @@
       <c r="S43">
         <v>820</v>
       </c>
-    </row>
-    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V43">
+        <v>744.90993074202004</v>
+      </c>
+      <c r="W43">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="44" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>442.07137379109002</v>
       </c>
@@ -2107,7 +2399,7 @@
         <v>442.01144642314898</v>
       </c>
       <c r="N44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.992736794104303E-2</v>
       </c>
       <c r="R44">
@@ -2116,8 +2408,14 @@
       <c r="S44">
         <v>840</v>
       </c>
-    </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V44">
+        <v>732.11048424363503</v>
+      </c>
+      <c r="W44">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>434.42351266743401</v>
       </c>
@@ -2141,7 +2439,7 @@
         <v>434.3637731785895</v>
       </c>
       <c r="N45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9739488844513744E-2</v>
       </c>
       <c r="R45">
@@ -2150,8 +2448,14 @@
       <c r="S45">
         <v>860</v>
       </c>
-    </row>
-    <row r="46" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V45">
+        <v>719.500373179191</v>
+      </c>
+      <c r="W45">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="46" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>426.916686152907</v>
       </c>
@@ -2175,7 +2479,7 @@
         <v>426.85714703997246</v>
       </c>
       <c r="N46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9539112934544391E-2</v>
       </c>
       <c r="R46">
@@ -2184,8 +2488,14 @@
       <c r="S46">
         <v>880</v>
       </c>
-    </row>
-    <row r="47" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V46">
+        <v>707.08196407515595</v>
+      </c>
+      <c r="W46">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="47" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>419.547952684932</v>
       </c>
@@ -2209,7 +2519,7 @@
         <v>419.48894228265749</v>
       </c>
       <c r="N47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9010402274509488E-2</v>
       </c>
       <c r="R47">
@@ -2218,8 +2528,14 @@
       <c r="S47">
         <v>900</v>
       </c>
-    </row>
-    <row r="48" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V47">
+        <v>694.85679340255399</v>
+      </c>
+      <c r="W47">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="48" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>412.31447861734</v>
       </c>
@@ -2243,7 +2559,7 @@
         <v>412.25599182559</v>
       </c>
       <c r="N48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8486791749999156E-2</v>
       </c>
       <c r="R48">
@@ -2252,8 +2568,14 @@
       <c r="S48">
         <v>920</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V48">
+        <v>682.82726741602198</v>
+      </c>
+      <c r="W48">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>405.21352860092497</v>
       </c>
@@ -2277,7 +2599,7 @@
         <v>405.155879849624</v>
       </c>
       <c r="N49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.76487513009738E-2</v>
       </c>
       <c r="R49">
@@ -2286,8 +2608,14 @@
       <c r="S49">
         <v>940</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V49">
+        <v>670.99191831205496</v>
+      </c>
+      <c r="W49">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>398.24245721863298</v>
       </c>
@@ -2311,7 +2639,7 @@
         <v>398.18562556853453</v>
       </c>
       <c r="N50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6831650098445152E-2</v>
       </c>
       <c r="R50">
@@ -2320,8 +2648,14 @@
       <c r="S50">
         <v>960</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V50">
+        <v>659.35045418853599</v>
+      </c>
+      <c r="W50">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>391.39996033343499</v>
       </c>
@@ -2345,7 +2679,7 @@
         <v>391.34266701874901</v>
       </c>
       <c r="N51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.7293314685978203E-2</v>
       </c>
       <c r="R51">
@@ -2354,8 +2688,14 @@
       <c r="S51">
         <v>980</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V51">
+        <v>647.90214426658497</v>
+      </c>
+      <c r="W51">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C52">
         <v>384.68221140925601</v>
       </c>
@@ -2379,7 +2719,7 @@
         <v>384.624835185108</v>
       </c>
       <c r="N52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.7376224148015353E-2</v>
       </c>
       <c r="R52">
@@ -2388,8 +2728,14 @@
       <c r="S52">
         <v>1000</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V52">
+        <v>636.64588801810601</v>
+      </c>
+      <c r="W52">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>378.086800495837</v>
       </c>
@@ -2413,7 +2759,7 @@
         <v>378.02938319520104</v>
       </c>
       <c r="N53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.741730063596151E-2</v>
       </c>
       <c r="R53">
@@ -2422,8 +2768,14 @@
       <c r="S53">
         <v>1020</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V53">
+        <v>625.580274427728</v>
+      </c>
+      <c r="W53">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C54">
         <v>371.61138294506799</v>
       </c>
@@ -2447,7 +2799,7 @@
         <v>371.55428221583247</v>
       </c>
       <c r="N54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.7100729235514791E-2</v>
       </c>
       <c r="R54">
@@ -2456,8 +2808,14 @@
       <c r="S54">
         <v>1040</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V54">
+        <v>614.70363300288102</v>
+      </c>
+      <c r="W54">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C55">
         <v>365.25367550564903</v>
       </c>
@@ -2481,7 +2839,7 @@
         <v>365.19691063366304</v>
       </c>
       <c r="N55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6764871985990339E-2</v>
       </c>
       <c r="R55">
@@ -2490,8 +2848,14 @@
       <c r="S55">
         <v>1060</v>
       </c>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V55">
+        <v>604.01407768678905</v>
+      </c>
+      <c r="W55">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>359.01145255285002</v>
       </c>
@@ -2515,7 +2879,7 @@
         <v>358.95504028129847</v>
       </c>
       <c r="N56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.641227155155093E-2</v>
       </c>
       <c r="R56">
@@ -2524,8 +2888,14 @@
       <c r="S56">
         <v>1080</v>
       </c>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V56">
+        <v>593.50954463510698</v>
+      </c>
+      <c r="W56">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C57">
         <v>352.88254269254003</v>
       </c>
@@ -2549,7 +2919,7 @@
         <v>352.82681378354448</v>
       </c>
       <c r="N57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5728908995547499E-2</v>
       </c>
       <c r="R57">
@@ -2558,8 +2928,14 @@
       <c r="S57">
         <v>1100</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V57">
+        <v>583.18782468238999</v>
+      </c>
+      <c r="W57">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C58">
         <v>346.86482575049001</v>
       </c>
@@ -2583,7 +2959,7 @@
         <v>346.80977712982951</v>
       </c>
       <c r="N58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5048620660500092E-2</v>
       </c>
       <c r="R58">
@@ -2592,8 +2968,14 @@
       <c r="S58">
         <v>1120</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V58">
+        <v>573.048165583117</v>
+      </c>
+      <c r="W58">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C59">
         <v>340.95623011223199</v>
       </c>
@@ -2617,7 +2999,7 @@
         <v>340.90217669807453</v>
       </c>
       <c r="N59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.405341415746534E-2</v>
       </c>
       <c r="R59">
@@ -2626,8 +3008,14 @@
       <c r="S59">
         <v>1140</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V59">
+        <v>563.08646991946796</v>
+      </c>
+      <c r="W59">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C60">
         <v>335.15473036923697</v>
       </c>
@@ -2651,7 +3039,7 @@
         <v>335.10165148373153</v>
       </c>
       <c r="N60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3078885505442486E-2</v>
       </c>
       <c r="R60">
@@ -2660,8 +3048,14 @@
       <c r="S60">
         <v>1160</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V60">
+        <v>553.30025213175202</v>
+      </c>
+      <c r="W60">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C61">
         <v>329.45959033697397</v>
       </c>
@@ -2685,7 +3079,7 @@
         <v>329.40622013656952</v>
       </c>
       <c r="N61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3370200404458501E-2</v>
       </c>
       <c r="R61">
@@ -2694,8 +3088,14 @@
       <c r="S61">
         <v>1180</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V61">
+        <v>543.68697019105696</v>
+      </c>
+      <c r="W61">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C62">
         <v>323.86754708727199</v>
       </c>
@@ -2719,7 +3119,7 @@
         <v>323.8142599283525</v>
       </c>
       <c r="N62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.328715891948832E-2</v>
       </c>
       <c r="R62">
@@ -2728,8 +3128,14 @@
       <c r="S62">
         <v>1200</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V62">
+        <v>534.24404112471098</v>
+      </c>
+      <c r="W62">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C63">
         <v>318.37670727468901</v>
       </c>
@@ -2753,7 +3159,7 @@
         <v>318.32354125574949</v>
       </c>
       <c r="N63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3166018939521109E-2</v>
       </c>
       <c r="R63">
@@ -2762,8 +3168,14 @@
       <c r="S63">
         <v>1220</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V63">
+        <v>524.96885381848404</v>
+      </c>
+      <c r="W63">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C64">
         <v>312.98521627003498</v>
       </c>
@@ -2787,7 +3199,7 @@
         <v>312.93252477264298</v>
       </c>
       <c r="N64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2691497392004294E-2</v>
       </c>
       <c r="R64">
@@ -2796,8 +3208,14 @@
       <c r="S64">
         <v>1240</v>
       </c>
-    </row>
-    <row r="65" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V64">
+        <v>515.85877982206898</v>
+      </c>
+      <c r="W64">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="65" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C65">
         <v>307.69125707041798</v>
       </c>
@@ -2821,7 +3239,7 @@
         <v>307.63905554887651</v>
       </c>
       <c r="N65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2201521541462625E-2</v>
       </c>
       <c r="R65">
@@ -2830,8 +3248,14 @@
       <c r="S65">
         <v>1260</v>
       </c>
-    </row>
-    <row r="66" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V65">
+        <v>506.91118252093003</v>
+      </c>
+      <c r="W65">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="66" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>302.49304900352502</v>
       </c>
@@ -2855,7 +3279,7 @@
         <v>302.4413501432345</v>
       </c>
       <c r="N66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1698860290514403E-2</v>
       </c>
       <c r="R66">
@@ -2864,8 +3288,14 @@
       <c r="S66">
         <v>1280</v>
       </c>
-    </row>
-    <row r="67" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V66">
+        <v>498.12342492763901</v>
+      </c>
+      <c r="W66">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="67" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>297.38884648925</v>
       </c>
@@ -2885,11 +3315,11 @@
         <v>1300</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M130" si="4">(G67+J67)/2</f>
+        <f t="shared" ref="M67:M130" si="6">(G67+J67)/2</f>
         <v>297.337976430921</v>
       </c>
       <c r="N67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0870058328996492E-2</v>
       </c>
       <c r="R67">
@@ -2898,8 +3328,14 @@
       <c r="S67">
         <v>1300</v>
       </c>
-    </row>
-    <row r="68" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V67">
+        <v>489.492876291394</v>
+      </c>
+      <c r="W67">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="68" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>292.376937906938</v>
       </c>
@@ -2919,11 +3355,11 @@
         <v>1320</v>
       </c>
       <c r="M68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>292.32688935412898</v>
       </c>
       <c r="N68">
-        <f t="shared" ref="N68:N131" si="5">C68-M68</f>
+        <f t="shared" ref="N68:N131" si="7">C68-M68</f>
         <v>5.0048552809016655E-2</v>
       </c>
       <c r="R68">
@@ -2932,8 +3368,14 @@
       <c r="S68">
         <v>1320</v>
       </c>
-    </row>
-    <row r="69" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V68">
+        <v>481.018478619071</v>
+      </c>
+      <c r="W68">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="69" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C69">
         <v>287.45564456956203</v>
       </c>
@@ -2953,11 +3395,11 @@
         <v>1340</v>
       </c>
       <c r="M69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>287.40672767062904</v>
       </c>
       <c r="N69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.8916898932986896E-2</v>
       </c>
       <c r="R69">
@@ -2966,8 +3408,14 @@
       <c r="S69">
         <v>1340</v>
       </c>
-    </row>
-    <row r="70" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V69">
+        <v>472.69596806335397</v>
+      </c>
+      <c r="W69">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C70">
         <v>282.62331979293799</v>
       </c>
@@ -2987,11 +3435,11 @@
         <v>1360</v>
       </c>
       <c r="M70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>282.57550951808201</v>
       </c>
       <c r="N70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.7810274855976331E-2</v>
       </c>
       <c r="R70">
@@ -3000,8 +3448,14 @@
       <c r="S70">
         <v>1360</v>
       </c>
-    </row>
-    <row r="71" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V70">
+        <v>464.522769798426</v>
+      </c>
+      <c r="W70">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="71" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C71">
         <v>277.879579780798</v>
       </c>
@@ -3021,11 +3475,11 @@
         <v>1380</v>
       </c>
       <c r="M71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>277.83161914790003</v>
       </c>
       <c r="N71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.796063289796848E-2</v>
       </c>
       <c r="R71">
@@ -3034,8 +3488,14 @@
       <c r="S71">
         <v>1380</v>
       </c>
-    </row>
-    <row r="72" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V71">
+        <v>456.49633212523503</v>
+      </c>
+      <c r="W71">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="72" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C72">
         <v>273.22153139763799</v>
       </c>
@@ -3055,11 +3515,11 @@
         <v>1400</v>
       </c>
       <c r="M72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>273.17378724906905</v>
       </c>
       <c r="N72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.7744148568938272E-2</v>
       </c>
       <c r="R72">
@@ -3068,8 +3528,14 @@
       <c r="S72">
         <v>1400</v>
       </c>
-    </row>
-    <row r="73" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V72">
+        <v>448.61412966610999</v>
+      </c>
+      <c r="W72">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="73" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C73">
         <v>268.64762361884101</v>
       </c>
@@ -3089,11 +3555,11 @@
         <v>1420</v>
       </c>
       <c r="M73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>268.600127628797</v>
       </c>
       <c r="N73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.7495990044012615E-2</v>
       </c>
       <c r="R73">
@@ -3102,8 +3568,14 @@
       <c r="S73">
         <v>1420</v>
       </c>
-    </row>
-    <row r="74" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V73">
+        <v>440.87366561148599</v>
+      </c>
+      <c r="W73">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="74" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C74">
         <v>264.15633422893399</v>
       </c>
@@ -3123,11 +3595,11 @@
         <v>1440</v>
       </c>
       <c r="M74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>264.10911471011002</v>
       </c>
       <c r="N74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.7219518823965245E-2</v>
       </c>
       <c r="R74">
@@ -3136,8 +3608,14 @@
       <c r="S74">
         <v>1440</v>
       </c>
-    </row>
-    <row r="75" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V74">
+        <v>433.27247346992198</v>
+      </c>
+      <c r="W74">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="75" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C75">
         <v>259.74616937297702</v>
       </c>
@@ -3157,11 +3635,11 @@
         <v>1460</v>
       </c>
       <c r="M75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>259.69956421087704</v>
       </c>
       <c r="N75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.6605162099979225E-2</v>
       </c>
       <c r="R75">
@@ -3170,8 +3648,14 @@
       <c r="S75">
         <v>1460</v>
       </c>
-    </row>
-    <row r="76" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V75">
+        <v>425.808118468347</v>
+      </c>
+      <c r="W75">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="76" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C76">
         <v>255.41566285698801</v>
       </c>
@@ -3191,11 +3675,11 @@
         <v>1480</v>
       </c>
       <c r="M76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>255.36967898058151</v>
       </c>
       <c r="N76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5983876406495483E-2</v>
       </c>
       <c r="R76">
@@ -3204,8 +3688,14 @@
       <c r="S76">
         <v>1480</v>
       </c>
-    </row>
-    <row r="77" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V76">
+        <v>418.47819867435902</v>
+      </c>
+      <c r="W76">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="77" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C77">
         <v>251.163375445947</v>
       </c>
@@ -3225,11 +3715,11 @@
         <v>1500</v>
       </c>
       <c r="M77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>251.11833300767398</v>
       </c>
       <c r="N77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5042438273014795E-2</v>
       </c>
       <c r="R77">
@@ -3238,8 +3728,14 @@
       <c r="S77">
         <v>1500</v>
       </c>
-    </row>
-    <row r="78" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V77">
+        <v>411.28034588460503</v>
+      </c>
+      <c r="W77">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="78" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C78">
         <v>246.987894210007</v>
       </c>
@@ -3259,11 +3755,11 @@
         <v>1520</v>
       </c>
       <c r="M78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>246.94378052526201</v>
       </c>
       <c r="N78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.4113684744985449E-2</v>
       </c>
       <c r="R78">
@@ -3272,8 +3768,14 @@
       <c r="S78">
         <v>1520</v>
       </c>
-    </row>
-    <row r="79" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V78">
+        <v>404.21377180555601</v>
+      </c>
+      <c r="W78">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="79" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C79">
         <v>242.88783192576199</v>
       </c>
@@ -3293,11 +3795,11 @@
         <v>1540</v>
       </c>
       <c r="M79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>242.84463297785697</v>
       </c>
       <c r="N79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.3198947905011664E-2</v>
       </c>
       <c r="R79">
@@ -3306,8 +3808,14 @@
       <c r="S79">
         <v>1540</v>
       </c>
-    </row>
-    <row r="80" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V79">
+        <v>397.27453442078001</v>
+      </c>
+      <c r="W79">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="80" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C80">
         <v>238.86182652646801</v>
       </c>
@@ -3327,11 +3835,11 @@
         <v>1560</v>
       </c>
       <c r="M80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>238.8198399769465</v>
       </c>
       <c r="N80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.1986549521510597E-2</v>
       </c>
       <c r="R80">
@@ -3340,8 +3848,14 @@
       <c r="S80">
         <v>1560</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V80">
+        <v>390.46037647286897</v>
+      </c>
+      <c r="W80">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C81">
         <v>234.90975880554299</v>
       </c>
@@ -3361,11 +3875,11 @@
         <v>1580</v>
       </c>
       <c r="M81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>234.86773587362751</v>
       </c>
       <c r="N81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.2022931915482786E-2</v>
       </c>
       <c r="R81">
@@ -3374,8 +3888,14 @@
       <c r="S81">
         <v>1580</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V81">
+        <v>383.76907578028499</v>
+      </c>
+      <c r="W81">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C82">
         <v>231.02902357598899</v>
       </c>
@@ -3395,11 +3915,11 @@
         <v>1600</v>
       </c>
       <c r="M82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>230.98732296311749</v>
       </c>
       <c r="N82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.1700612871494513E-2</v>
       </c>
       <c r="R82">
@@ -3408,8 +3928,14 @@
       <c r="S82">
         <v>1600</v>
       </c>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V82">
+        <v>377.19844568759697</v>
+      </c>
+      <c r="W82">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C83">
         <v>227.21833519636601</v>
       </c>
@@ -3429,11 +3955,11 @@
         <v>1620</v>
       </c>
       <c r="M83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>227.17698160786301</v>
       </c>
       <c r="N83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.1353588503000083E-2</v>
       </c>
       <c r="R83">
@@ -3442,8 +3968,14 @@
       <c r="S83">
         <v>1620</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V83">
+        <v>370.74633501013398</v>
+      </c>
+      <c r="W83">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C84">
         <v>223.476431342528</v>
       </c>
@@ -3463,11 +3995,11 @@
         <v>1640</v>
       </c>
       <c r="M84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>223.435446542943</v>
       </c>
       <c r="N84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.0984799585004339E-2</v>
       </c>
       <c r="R84">
@@ -3476,8 +4008,14 @@
       <c r="S84">
         <v>1640</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V84">
+        <v>364.41062783426298</v>
+      </c>
+      <c r="W84">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C85">
         <v>219.80207270697201</v>
       </c>
@@ -3497,11 +4035,11 @@
         <v>1660</v>
       </c>
       <c r="M85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>219.76178803621252</v>
       </c>
       <c r="N85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.0284670759490382E-2</v>
       </c>
       <c r="R85">
@@ -3510,8 +4048,14 @@
       <c r="S85">
         <v>1660</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V85">
+        <v>358.18924326313498</v>
+      </c>
+      <c r="W85">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C86">
         <v>216.19404246428701</v>
       </c>
@@ -3531,11 +4075,11 @@
         <v>1680</v>
       </c>
       <c r="M86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>216.15445916050101</v>
       </c>
       <c r="N86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.9583303786002944E-2</v>
       </c>
       <c r="R86">
@@ -3544,8 +4088,14 @@
       <c r="S86">
         <v>1680</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V86">
+        <v>352.08013513529698</v>
+      </c>
+      <c r="W86">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C87">
         <v>212.65114573086899</v>
       </c>
@@ -3565,11 +4115,11 @@
         <v>1700</v>
       </c>
       <c r="M87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>212.61257814203799</v>
       </c>
       <c r="N87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.8567588831000421E-2</v>
       </c>
       <c r="R87">
@@ -3578,8 +4128,14 @@
       <c r="S87">
         <v>1700</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V87">
+        <v>346.081291723557</v>
+      </c>
+      <c r="W87">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C88">
         <v>209.172209064995</v>
       </c>
@@ -3599,11 +4155,11 @@
         <v>1720</v>
       </c>
       <c r="M88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>209.13463948730799</v>
       </c>
       <c r="N88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.7569577687008859E-2</v>
       </c>
       <c r="R88">
@@ -3612,8 +4168,14 @@
       <c r="S88">
         <v>1720</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V88">
+        <v>340.19226467452501</v>
+      </c>
+      <c r="W88">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C89">
         <v>205.75608001302899</v>
       </c>
@@ -3633,11 +4195,11 @@
         <v>1740</v>
       </c>
       <c r="M89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>205.71948958789648</v>
       </c>
       <c r="N89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.6590425132516202E-2</v>
       </c>
       <c r="R89">
@@ -3646,8 +4208,14 @@
       <c r="S89">
         <v>1740</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V89">
+        <v>334.40948627226499</v>
+      </c>
+      <c r="W89">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C90">
         <v>202.40285332845201</v>
       </c>
@@ -3667,11 +4235,11 @@
         <v>1760</v>
       </c>
       <c r="M90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>202.36630806115051</v>
       </c>
       <c r="N90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.6545267301505646E-2</v>
       </c>
       <c r="R90">
@@ -3680,8 +4248,14 @@
       <c r="S90">
         <v>1760</v>
       </c>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V90">
+        <v>328.731051671025</v>
+      </c>
+      <c r="W90">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C91">
         <v>199.110118170584</v>
       </c>
@@ -3701,11 +4275,11 @@
         <v>1780</v>
       </c>
       <c r="M91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>199.07365571475751</v>
       </c>
       <c r="N91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.6462455826494988E-2</v>
       </c>
       <c r="R91">
@@ -3714,8 +4288,14 @@
       <c r="S91">
         <v>1780</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V91">
+        <v>323.155088881631</v>
+      </c>
+      <c r="W91">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C92">
         <v>195.87678606658</v>
       </c>
@@ -3735,11 +4315,11 @@
         <v>1800</v>
       </c>
       <c r="M92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>195.84075600164999</v>
       </c>
       <c r="N92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.6030064930002936E-2</v>
       </c>
       <c r="R92">
@@ -3748,8 +4328,14 @@
       <c r="S92">
         <v>1800</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V92">
+        <v>317.67975861890102</v>
+      </c>
+      <c r="W92">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C93">
         <v>192.70178825494301</v>
       </c>
@@ -3769,11 +4355,11 @@
         <v>1820</v>
       </c>
       <c r="M93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>192.66620715154551</v>
       </c>
       <c r="N93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.5581103397504421E-2</v>
       </c>
       <c r="R93">
@@ -3782,8 +4368,14 @@
       <c r="S93">
         <v>1820</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V93">
+        <v>312.30325378135899</v>
+      </c>
+      <c r="W93">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C94">
         <v>189.58407541247999</v>
       </c>
@@ -3803,11 +4395,11 @@
         <v>1840</v>
       </c>
       <c r="M94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>189.548957045782</v>
       </c>
       <c r="N94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.5118366697986403E-2</v>
       </c>
       <c r="R94">
@@ -3816,8 +4408,14 @@
       <c r="S94">
         <v>1840</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V94">
+        <v>307.023798879602</v>
+      </c>
+      <c r="W94">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C95">
         <v>186.52261717176</v>
       </c>
@@ -3837,11 +4435,11 @@
         <v>1860</v>
       </c>
       <c r="M95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>186.48828472426447</v>
       </c>
       <c r="N95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.433244749552955E-2</v>
       </c>
       <c r="R95">
@@ -3850,8 +4448,14 @@
       <c r="S95">
         <v>1860</v>
       </c>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V95">
+        <v>301.83964948291799</v>
+      </c>
+      <c r="W95">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C96">
         <v>183.51640164195501</v>
       </c>
@@ -3871,11 +4475,11 @@
         <v>1880</v>
       </c>
       <c r="M96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>183.48284904379449</v>
       </c>
       <c r="N96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.3552598160525804E-2</v>
       </c>
       <c r="R96">
@@ -3884,8 +4488,14 @@
       <c r="S96">
         <v>1880</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V96">
+        <v>296.74909169838003</v>
+      </c>
+      <c r="W96">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C97">
         <v>180.564434974204</v>
       </c>
@@ -3905,11 +4515,11 @@
         <v>1900</v>
       </c>
       <c r="M97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>180.53196921002552</v>
       </c>
       <c r="N97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.2465764178482459E-2</v>
       </c>
       <c r="R97">
@@ -3918,8 +4528,14 @@
       <c r="S97">
         <v>1900</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V97">
+        <v>291.75044167986101</v>
+      </c>
+      <c r="W97">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C98">
         <v>177.665740974887</v>
       </c>
@@ -3939,11 +4555,11 @@
         <v>1920</v>
       </c>
       <c r="M98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>177.63433792125852</v>
       </c>
       <c r="N98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.1403053628480393E-2</v>
       </c>
       <c r="R98">
@@ -3952,8 +4568,14 @@
       <c r="S98">
         <v>1920</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V98">
+        <v>286.84355773035497</v>
+      </c>
+      <c r="W98">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C99">
         <v>174.819360759277</v>
       </c>
@@ -3973,11 +4595,11 @@
         <v>1940</v>
       </c>
       <c r="M99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>174.78899549074401</v>
       </c>
       <c r="N99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.0365268532989376E-2</v>
       </c>
       <c r="R99">
@@ -3986,8 +4608,14 @@
       <c r="S99">
         <v>1940</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V99">
+        <v>282.02521061255197</v>
+      </c>
+      <c r="W99">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C100">
         <v>172.025564876608</v>
       </c>
@@ -4007,11 +4635,11 @@
         <v>1960</v>
       </c>
       <c r="M100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>171.99531151159698</v>
       </c>
       <c r="N100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.0253365011020605E-2</v>
       </c>
       <c r="R100">
@@ -4020,8 +4648,14 @@
       <c r="S100">
         <v>1960</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V100">
+        <v>277.29380870618598</v>
+      </c>
+      <c r="W100">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C101">
         <v>169.28214571626401</v>
       </c>
@@ -4041,11 +4675,11 @@
         <v>1980</v>
       </c>
       <c r="M101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>169.252034214345</v>
       </c>
       <c r="N101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.0111501919009243E-2</v>
       </c>
       <c r="R101">
@@ -4054,8 +4688,14 @@
       <c r="S101">
         <v>1980</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V101">
+        <v>272.64778868949298</v>
+      </c>
+      <c r="W101">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C102">
         <v>166.58819732132801</v>
       </c>
@@ -4075,11 +4715,11 @@
         <v>2000</v>
       </c>
       <c r="M102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>166.5582553318705</v>
       </c>
       <c r="N102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.9941989457512364E-2</v>
       </c>
       <c r="R102">
@@ -4088,8 +4728,14 @@
       <c r="S102">
         <v>2000</v>
       </c>
-    </row>
-    <row r="103" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V102">
+        <v>268.08561525660099</v>
+      </c>
+      <c r="W102">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="103" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C103">
         <v>163.942830265769</v>
       </c>
@@ -4109,11 +4755,11 @@
         <v>2020</v>
       </c>
       <c r="M103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>163.91339199726701</v>
       </c>
       <c r="N103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.9438268501991161E-2</v>
       </c>
       <c r="R103">
@@ -4122,8 +4768,14 @@
       <c r="S103">
         <v>2020</v>
       </c>
-    </row>
-    <row r="104" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V103">
+        <v>263.60578053191199</v>
+      </c>
+      <c r="W103">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="104" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C104">
         <v>161.34517139413899</v>
       </c>
@@ -4143,11 +4795,11 @@
         <v>2040</v>
       </c>
       <c r="M104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>161.31624507113298</v>
       </c>
       <c r="N104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.8926323006004395E-2</v>
       </c>
       <c r="R104">
@@ -4156,8 +4808,14 @@
       <c r="S104">
         <v>2040</v>
       </c>
-    </row>
-    <row r="105" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V104">
+        <v>259.20680346653302</v>
+      </c>
+      <c r="W104">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="105" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C105">
         <v>158.79436337300299</v>
       </c>
@@ -4177,11 +4835,11 @@
         <v>2060</v>
       </c>
       <c r="M105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>158.76626665784249</v>
       </c>
       <c r="N105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.8096715160501162E-2</v>
       </c>
       <c r="R105">
@@ -4190,8 +4848,14 @@
       <c r="S105">
         <v>2060</v>
       </c>
-    </row>
-    <row r="106" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V105">
+        <v>254.887229275485</v>
+      </c>
+      <c r="W105">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="106" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C106">
         <v>156.28956425330401</v>
       </c>
@@ -4211,11 +4875,11 @@
         <v>2080</v>
       </c>
       <c r="M106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>156.26228644471851</v>
       </c>
       <c r="N106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.7277808585495222E-2</v>
       </c>
       <c r="R106">
@@ -4224,8 +4888,14 @@
       <c r="S106">
         <v>2080</v>
       </c>
-    </row>
-    <row r="107" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V106">
+        <v>250.64562892414301</v>
+      </c>
+      <c r="W106">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="107" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C107">
         <v>153.82994708121899</v>
       </c>
@@ -4245,11 +4915,11 @@
         <v>2100</v>
       </c>
       <c r="M107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>153.80347584859049</v>
       </c>
       <c r="N107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.6471232628495045E-2</v>
       </c>
       <c r="R107">
@@ -4258,8 +4928,14 @@
       <c r="S107">
         <v>2100</v>
       </c>
-    </row>
-    <row r="108" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V107">
+        <v>246.48212170769199</v>
+      </c>
+      <c r="W107">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="108" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C108">
         <v>151.41469955923901</v>
       </c>
@@ -4279,11 +4955,11 @@
         <v>2120</v>
       </c>
       <c r="M108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>151.389330075983</v>
       </c>
       <c r="N108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.5369483256014291E-2</v>
       </c>
       <c r="R108">
@@ -4292,8 +4968,14 @@
       <c r="S108">
         <v>2120</v>
       </c>
-    </row>
-    <row r="109" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V108">
+        <v>242.393715620347</v>
+      </c>
+      <c r="W108">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="109" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C109">
         <v>149.04302374894399</v>
       </c>
@@ -4313,11 +4995,11 @@
         <v>2140</v>
       </c>
       <c r="M109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>149.01872715249249</v>
       </c>
       <c r="N109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.4296596451506502E-2</v>
       </c>
       <c r="R109">
@@ -4326,8 +5008,14 @@
       <c r="S109">
         <v>2140</v>
       </c>
-    </row>
-    <row r="110" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V109">
+        <v>238.37906037478501</v>
+      </c>
+      <c r="W109">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="110" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C110">
         <v>146.71533387786999</v>
       </c>
@@ -4347,11 +5035,11 @@
         <v>2160</v>
       </c>
       <c r="M110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>146.69119446884599</v>
       </c>
       <c r="N110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.4139409024002134E-2</v>
       </c>
       <c r="R110">
@@ -4360,8 +5048,14 @@
       <c r="S110">
         <v>2160</v>
       </c>
-    </row>
-    <row r="111" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V110">
+        <v>234.436829988265</v>
+      </c>
+      <c r="W110">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="111" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C111">
         <v>144.42959442242301</v>
       </c>
@@ -4381,11 +5075,11 @@
         <v>2180</v>
       </c>
       <c r="M111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>144.40563614063649</v>
       </c>
       <c r="N111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.3958281786519819E-2</v>
       </c>
       <c r="R111">
@@ -4394,8 +5088,14 @@
       <c r="S111">
         <v>2180</v>
       </c>
-    </row>
-    <row r="112" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V111">
+        <v>230.56572246720501</v>
+      </c>
+      <c r="W111">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="112" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C112">
         <v>142.18505128587199</v>
       </c>
@@ -4415,11 +5115,11 @@
         <v>2200</v>
       </c>
       <c r="M112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>142.161296366606</v>
       </c>
       <c r="N112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.3754919265996932E-2</v>
       </c>
       <c r="R112">
@@ -4428,8 +5128,14 @@
       <c r="S112">
         <v>2200</v>
       </c>
-    </row>
-    <row r="113" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V112">
+        <v>226.76445922837701</v>
+      </c>
+      <c r="W112">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="113" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C113">
         <v>139.980964290055</v>
       </c>
@@ -4449,11 +5155,11 @@
         <v>2220</v>
       </c>
       <c r="M113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>139.95774163108752</v>
       </c>
       <c r="N113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.3222658967483767E-2</v>
       </c>
       <c r="R113">
@@ -4462,8 +5168,14 @@
       <c r="S113">
         <v>2220</v>
       </c>
-    </row>
-    <row r="114" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V113">
+        <v>223.031784521465</v>
+      </c>
+      <c r="W113">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="114" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C114">
         <v>137.81660692068999</v>
       </c>
@@ -4483,11 +5195,11 @@
         <v>2240</v>
       </c>
       <c r="M114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>137.79392043851951</v>
       </c>
       <c r="N114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.2686482170485078E-2</v>
       </c>
       <c r="R114">
@@ -4496,8 +5208,14 @@
       <c r="S114">
         <v>2240</v>
       </c>
-    </row>
-    <row r="115" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V114">
+        <v>219.36646490449499</v>
+      </c>
+      <c r="W114">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="115" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C115">
         <v>135.69126590077801</v>
       </c>
@@ -4517,11 +5235,11 @@
         <v>2260</v>
       </c>
       <c r="M115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>135.669428880824</v>
       </c>
       <c r="N115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.1837019954006109E-2</v>
       </c>
       <c r="R115">
@@ -4530,8 +5248,14 @@
       <c r="S115">
         <v>2260</v>
       </c>
-    </row>
-    <row r="116" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V115">
+        <v>215.767288776637</v>
+      </c>
+      <c r="W115">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="116" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C116">
         <v>133.60424078196399</v>
       </c>
@@ -4551,11 +5275,11 @@
         <v>2280</v>
       </c>
       <c r="M116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>133.583239028847</v>
       </c>
       <c r="N116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.100175311699104E-2</v>
       </c>
       <c r="R116">
@@ -4564,8 +5288,14 @@
       <c r="S116">
         <v>2280</v>
       </c>
-    </row>
-    <row r="117" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V116">
+        <v>212.23306595936199</v>
+      </c>
+      <c r="W116">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="117" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C117">
         <v>131.55484358882899</v>
       </c>
@@ -4585,11 +5315,11 @@
         <v>2300</v>
       </c>
       <c r="M117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>131.53466149846702</v>
       </c>
       <c r="N117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0182090361970495E-2</v>
       </c>
       <c r="R117">
@@ -4598,8 +5328,14 @@
       <c r="S117">
         <v>2300</v>
       </c>
-    </row>
-    <row r="118" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V117">
+        <v>208.76413275130199</v>
+      </c>
+      <c r="W117">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="118" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C118">
         <v>129.54239851638599</v>
       </c>
@@ -4619,11 +5355,11 @@
         <v>2320</v>
       </c>
       <c r="M118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>129.52332779628051</v>
       </c>
       <c r="N118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9070720105474948E-2</v>
       </c>
       <c r="R118">
@@ -4632,8 +5368,14 @@
       <c r="S118">
         <v>2320</v>
       </c>
-    </row>
-    <row r="119" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V118">
+        <v>205.35774837246399</v>
+      </c>
+      <c r="W118">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="119" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C119">
         <v>127.56624167120199</v>
       </c>
@@ -4653,11 +5395,11 @@
         <v>2340</v>
       </c>
       <c r="M119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>127.54825076505399</v>
       </c>
       <c r="N119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7990906148000363E-2</v>
       </c>
       <c r="R119">
@@ -4666,8 +5408,14 @@
       <c r="S119">
         <v>2340</v>
       </c>
-    </row>
-    <row r="120" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V119">
+        <v>202.01278820672999</v>
+      </c>
+      <c r="W119">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="120" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C120">
         <v>125.626904415645</v>
       </c>
@@ -4687,11 +5435,11 @@
         <v>2360</v>
       </c>
       <c r="M120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>125.60908916579399</v>
       </c>
       <c r="N120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7815249851011572E-2</v>
       </c>
       <c r="R120">
@@ -4700,8 +5448,14 @@
       <c r="S120">
         <v>2360</v>
       </c>
-    </row>
-    <row r="121" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V120">
+        <v>198.72814812554799</v>
+      </c>
+      <c r="W120">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="121" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C121">
         <v>123.72249748639</v>
       </c>
@@ -4721,11 +5475,11 @@
         <v>2380</v>
       </c>
       <c r="M121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>123.704877104883</v>
       </c>
       <c r="N121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7620381507001071E-2</v>
       </c>
       <c r="R121">
@@ -4734,8 +5488,14 @@
       <c r="S121">
         <v>2380</v>
       </c>
-    </row>
-    <row r="122" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V121">
+        <v>195.50274417002501</v>
+      </c>
+      <c r="W121">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="122" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C122">
         <v>121.85239322871099</v>
       </c>
@@ -4755,11 +5515,11 @@
         <v>2400</v>
       </c>
       <c r="M122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>121.834985803113</v>
       </c>
       <c r="N122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7407425597994575E-2</v>
       </c>
       <c r="R122">
@@ -4768,8 +5528,14 @@
       <c r="S122">
         <v>2400</v>
       </c>
-    </row>
-    <row r="123" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V122">
+        <v>192.335511998518</v>
+      </c>
+      <c r="W122">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="123" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C123">
         <v>120.01597573446401</v>
       </c>
@@ -4789,11 +5555,11 @@
         <v>2420</v>
       </c>
       <c r="M123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>119.9991060824825</v>
       </c>
       <c r="N123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.6869651981508582E-2</v>
       </c>
       <c r="R123">
@@ -4802,8 +5568,14 @@
       <c r="S123">
         <v>2420</v>
       </c>
-    </row>
-    <row r="124" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V123">
+        <v>189.225406347167</v>
+      </c>
+      <c r="W123">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="124" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C124">
         <v>118.21264059843401</v>
       </c>
@@ -4823,11 +5595,11 @@
         <v>2440</v>
       </c>
       <c r="M124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>118.196309523487</v>
       </c>
       <c r="N124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.6331074947004254E-2</v>
       </c>
       <c r="R124">
@@ -4836,8 +5608,14 @@
       <c r="S124">
         <v>2440</v>
       </c>
-    </row>
-    <row r="125" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V124">
+        <v>186.17140055009699</v>
+      </c>
+      <c r="W124">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="125" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C125">
         <v>116.441794510405</v>
       </c>
@@ -4857,11 +5635,11 @@
         <v>2460</v>
       </c>
       <c r="M125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>116.426312057714</v>
       </c>
       <c r="N125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.5482452691003346E-2</v>
       </c>
       <c r="R125">
@@ -4870,8 +5648,14 @@
       <c r="S125">
         <v>2460</v>
       </c>
-    </row>
-    <row r="126" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V125">
+        <v>183.17248612150601</v>
+      </c>
+      <c r="W125">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="126" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C126">
         <v>114.702854869313</v>
       </c>
@@ -4891,11 +5675,11 @@
         <v>2480</v>
       </c>
       <c r="M126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>114.688204429872</v>
       </c>
       <c r="N126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4650439440998753E-2</v>
       </c>
       <c r="R126">
@@ -4904,8 +5688,14 @@
       <c r="S126">
         <v>2480</v>
       </c>
-    </row>
-    <row r="127" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V126">
+        <v>180.227672389124</v>
+      </c>
+      <c r="W126">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="127" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C127">
         <v>112.995249453722</v>
       </c>
@@ -4925,11 +5715,11 @@
         <v>2500</v>
       </c>
       <c r="M127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>112.9814131674955</v>
       </c>
       <c r="N127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.3836286226492689E-2</v>
       </c>
       <c r="R127">
@@ -4938,8 +5728,14 @@
       <c r="S127">
         <v>2500</v>
       </c>
-    </row>
-    <row r="128" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V127">
+        <v>177.33747376561499</v>
+      </c>
+      <c r="W127">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="128" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C128">
         <v>111.31841614815001</v>
       </c>
@@ -4959,11 +5755,11 @@
         <v>2520</v>
       </c>
       <c r="M128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>111.30568320642149</v>
       </c>
       <c r="N128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2732941728515357E-2</v>
       </c>
       <c r="R128">
@@ -4972,8 +5768,14 @@
       <c r="S128">
         <v>2520</v>
       </c>
-    </row>
-    <row r="129" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V128">
+        <v>174.49936289357001</v>
+      </c>
+      <c r="W128">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="129" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C129">
         <v>109.671802714885</v>
       </c>
@@ -4993,11 +5795,11 @@
         <v>2540</v>
       </c>
       <c r="M129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>109.66013975780851</v>
       </c>
       <c r="N129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1662957076495672E-2</v>
       </c>
       <c r="R129">
@@ -5006,8 +5808,14 @@
       <c r="S129">
         <v>2540</v>
       </c>
-    </row>
-    <row r="130" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V129">
+        <v>171.712403502227</v>
+      </c>
+      <c r="W129">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="130" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C130">
         <v>108.056035583753</v>
       </c>
@@ -5027,11 +5835,11 @@
         <v>2560</v>
       </c>
       <c r="M130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>108.0442401360865</v>
       </c>
       <c r="N130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1795447666500536E-2</v>
       </c>
       <c r="R130">
@@ -5040,8 +5848,14 @@
       <c r="S130">
         <v>2560</v>
       </c>
-    </row>
-    <row r="131" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V130">
+        <v>168.97567659440099</v>
+      </c>
+      <c r="W130">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="131" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C131">
         <v>106.46935020319199</v>
       </c>
@@ -5061,11 +5875,11 @@
         <v>2580</v>
       </c>
       <c r="M131">
-        <f t="shared" ref="M131:M194" si="6">(G131+J131)/2</f>
+        <f t="shared" ref="M131:M194" si="8">(G131+J131)/2</f>
         <v>106.45775659907849</v>
       </c>
       <c r="N131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1593604113500078E-2</v>
       </c>
       <c r="R131">
@@ -5074,8 +5888,14 @@
       <c r="S131">
         <v>2580</v>
       </c>
-    </row>
-    <row r="132" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V131">
+        <v>166.288280131438</v>
+      </c>
+      <c r="W131">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="132" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C132">
         <v>104.911224209933</v>
       </c>
@@ -5095,11 +5915,11 @@
         <v>2600</v>
       </c>
       <c r="M132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>104.899847059628</v>
       </c>
       <c r="N132">
-        <f t="shared" ref="N132:N195" si="7">C132-M132</f>
+        <f t="shared" ref="N132:N195" si="9">C132-M132</f>
         <v>1.1377150304994643E-2</v>
       </c>
       <c r="R132">
@@ -5108,8 +5928,14 @@
       <c r="S132">
         <v>2600</v>
       </c>
-    </row>
-    <row r="133" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V132">
+        <v>163.649328504549</v>
+      </c>
+      <c r="W132">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="133" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C133">
         <v>103.38114517309</v>
       </c>
@@ -5129,11 +5955,11 @@
         <v>2620</v>
       </c>
       <c r="M133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>103.370305778144</v>
       </c>
       <c r="N133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0839394946003722E-2</v>
       </c>
       <c r="R133">
@@ -5142,8 +5968,14 @@
       <c r="S133">
         <v>2620</v>
       </c>
-    </row>
-    <row r="134" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V133">
+        <v>161.05795202829299</v>
+      </c>
+      <c r="W133">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="134" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C134">
         <v>101.878610370354</v>
       </c>
@@ -5163,11 +5995,11 @@
         <v>2640</v>
       </c>
       <c r="M134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>101.8683068510115</v>
       </c>
       <c r="N134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0303519342500067E-2</v>
       </c>
       <c r="R134">
@@ -5176,8 +6008,14 @@
       <c r="S134">
         <v>2640</v>
       </c>
-    </row>
-    <row r="135" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V134">
+        <v>158.51329649967701</v>
+      </c>
+      <c r="W134">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="135" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C135">
         <v>100.40312639785201</v>
       </c>
@@ -5197,11 +6035,11 @@
         <v>2660</v>
       </c>
       <c r="M135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>100.3933553025483</v>
       </c>
       <c r="N135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.771095303705124E-3</v>
       </c>
       <c r="R135">
@@ -5210,8 +6048,14 @@
       <c r="S135">
         <v>2660</v>
       </c>
-    </row>
-    <row r="136" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V135">
+        <v>156.01452282319599</v>
+      </c>
+      <c r="W135">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="136" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C136">
         <v>98.954208802871193</v>
       </c>
@@ -5231,11 +6075,11 @@
         <v>2680</v>
       </c>
       <c r="M136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>98.945270073113107</v>
       </c>
       <c r="N136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.9387297580856284E-3</v>
       </c>
       <c r="R136">
@@ -5244,8 +6088,14 @@
       <c r="S136">
         <v>2680</v>
       </c>
-    </row>
-    <row r="137" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V136">
+        <v>153.560806689961</v>
+      </c>
+      <c r="W136">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="137" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C137">
         <v>97.531381775004604</v>
       </c>
@@ -5265,11 +6115,11 @@
         <v>2700</v>
       </c>
       <c r="M137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>97.523255425278904</v>
       </c>
       <c r="N137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.1263497256998107E-3</v>
       </c>
       <c r="R137">
@@ -5278,8 +6128,14 @@
       <c r="S137">
         <v>2700</v>
       </c>
-    </row>
-    <row r="138" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V137">
+        <v>151.15280789039099</v>
+      </c>
+      <c r="W137">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="138" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C138">
         <v>96.134177895299899</v>
       </c>
@@ -5299,11 +6155,11 @@
         <v>2720</v>
       </c>
       <c r="M138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>96.127150659054948</v>
       </c>
       <c r="N138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.0272362449514958E-3</v>
       </c>
       <c r="R138">
@@ -5312,8 +6168,14 @@
       <c r="S138">
         <v>2720</v>
       </c>
-    </row>
-    <row r="139" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V138">
+        <v>148.78818061624401</v>
+      </c>
+      <c r="W138">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="139" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C139">
         <v>94.762137932612006</v>
       </c>
@@ -5333,11 +6195,11 @@
         <v>2740</v>
       </c>
       <c r="M139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>94.756174599341648</v>
       </c>
       <c r="N139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.9633332703583619E-3</v>
       </c>
       <c r="R139">
@@ -5346,8 +6208,14 @@
       <c r="S139">
         <v>2740</v>
       </c>
-    </row>
-    <row r="140" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V139">
+        <v>146.46614554695901</v>
+      </c>
+      <c r="W139">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="140" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C140">
         <v>93.415965045769497</v>
       </c>
@@ -5367,11 +6235,11 @@
         <v>2760</v>
       </c>
       <c r="M140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>93.409875900430805</v>
       </c>
       <c r="N140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.0891453386915373E-3</v>
       </c>
       <c r="R140">
@@ -5380,8 +6248,14 @@
       <c r="S140">
         <v>2760</v>
       </c>
-    </row>
-    <row r="141" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V140">
+        <v>144.18593794533101</v>
+      </c>
+      <c r="W140">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="141" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C141">
         <v>92.094001378071397</v>
       </c>
@@ -5401,11 +6275,11 @@
         <v>2780</v>
       </c>
       <c r="M141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>92.088116161881203</v>
       </c>
       <c r="N141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.8852161901938871E-3</v>
       </c>
       <c r="R141">
@@ -5414,8 +6288,14 @@
       <c r="S141">
         <v>2780</v>
       </c>
-    </row>
-    <row r="142" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V141">
+        <v>141.94680735523499</v>
+      </c>
+      <c r="W141">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="142" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C142">
         <v>90.795812252340596</v>
       </c>
@@ -5435,11 +6315,11 @@
         <v>2800</v>
       </c>
       <c r="M142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90.790142015964051</v>
       </c>
       <c r="N142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.6702363765452901E-3</v>
       </c>
       <c r="R142">
@@ -5448,8 +6328,14 @@
       <c r="S142">
         <v>2800</v>
       </c>
-    </row>
-    <row r="143" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V142">
+        <v>139.748017095351</v>
+      </c>
+      <c r="W142">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="143" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C143">
         <v>89.520971399800601</v>
       </c>
@@ -5469,11 +6355,11 @@
         <v>2820</v>
       </c>
       <c r="M143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>89.515833882889098</v>
       </c>
       <c r="N143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.1375169115033259E-3</v>
       </c>
       <c r="R143">
@@ -5482,8 +6368,14 @@
       <c r="S143">
         <v>2820</v>
       </c>
-    </row>
-    <row r="144" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V143">
+        <v>137.58884378026201</v>
+      </c>
+      <c r="W143">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="144" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C144">
         <v>88.269060767651894</v>
       </c>
@@ -5503,11 +6395,11 @@
         <v>2840</v>
       </c>
       <c r="M144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>88.264451444885395</v>
       </c>
       <c r="N144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.6093227664982805E-3</v>
       </c>
       <c r="R144">
@@ -5516,8 +6408,14 @@
       <c r="S144">
         <v>2840</v>
       </c>
-    </row>
-    <row r="145" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V144">
+        <v>135.46857691148</v>
+      </c>
+      <c r="W144">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="145" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C145">
         <v>87.039670147788101</v>
       </c>
@@ -5537,11 +6435,11 @@
         <v>2860</v>
       </c>
       <c r="M145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>87.0355831801227</v>
       </c>
       <c r="N145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.0869676654011755E-3</v>
       </c>
       <c r="R145">
@@ -5550,8 +6448,14 @@
       <c r="S145">
         <v>2860</v>
       </c>
-    </row>
-    <row r="146" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V145">
+        <v>133.38651853776801</v>
+      </c>
+      <c r="W145">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="146" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C146">
         <v>85.832396825396899</v>
       </c>
@@ -5571,11 +6475,11 @@
         <v>2880</v>
       </c>
       <c r="M146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>85.829129607848387</v>
       </c>
       <c r="N146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.2672175485117805E-3</v>
       </c>
       <c r="R146">
@@ -5584,8 +6488,14 @@
       <c r="S146">
         <v>2880</v>
       </c>
-    </row>
-    <row r="147" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V146">
+        <v>131.34198297195101</v>
+      </c>
+      <c r="W146">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="147" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C147">
         <v>84.646845286617605</v>
       </c>
@@ -5605,11 +6515,11 @@
         <v>2900</v>
       </c>
       <c r="M147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>84.644376045112807</v>
       </c>
       <c r="N147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.4692415047979921E-3</v>
       </c>
       <c r="R147">
@@ -5618,8 +6528,14 @@
       <c r="S147">
         <v>2900</v>
       </c>
-    </row>
-    <row r="148" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V147">
+        <v>129.335748031674</v>
+      </c>
+      <c r="W147">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="148" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C148">
         <v>83.482626985730505</v>
       </c>
@@ -5639,11 +6555,11 @@
         <v>2920</v>
       </c>
       <c r="M148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>83.481240423072109</v>
       </c>
       <c r="N148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.3865626583964286E-3</v>
       </c>
       <c r="R148">
@@ -5652,8 +6568,14 @@
       <c r="S148">
         <v>2920</v>
       </c>
-    </row>
-    <row r="149" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V148">
+        <v>127.365622745707</v>
+      </c>
+      <c r="W148">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="149" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C149">
         <v>82.339360161042705</v>
       </c>
@@ -5673,11 +6595,11 @@
         <v>2940</v>
       </c>
       <c r="M149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>82.339019725599741</v>
       </c>
       <c r="N149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.4043544296480377E-4</v>
       </c>
       <c r="R149">
@@ -5686,8 +6608,14 @@
       <c r="S149">
         <v>2940</v>
       </c>
-    </row>
-    <row r="150" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V149">
+        <v>125.430958519041</v>
+      </c>
+      <c r="W149">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="150" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C150">
         <v>81.217809482083297</v>
       </c>
@@ -5707,11 +6635,11 @@
         <v>2960</v>
       </c>
       <c r="M150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>81.217338769785798</v>
       </c>
       <c r="N150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.707122974991762E-4</v>
       </c>
       <c r="R150">
@@ -5720,8 +6648,14 @@
       <c r="S150">
         <v>2960</v>
       </c>
-    </row>
-    <row r="151" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V150">
+        <v>123.531119088888</v>
+      </c>
+      <c r="W150">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="151" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C151">
         <v>80.116408689242704</v>
       </c>
@@ -5741,11 +6675,11 @@
         <v>2980</v>
       </c>
       <c r="M151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>80.116133578363502</v>
       </c>
       <c r="N151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.7511087920117916E-4</v>
       </c>
       <c r="R151">
@@ -5754,8 +6688,14 @@
       <c r="S151">
         <v>2980</v>
       </c>
-    </row>
-    <row r="152" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V151">
+        <v>121.665480246849</v>
+      </c>
+      <c r="W151">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="152" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C152">
         <v>79.0347961381472</v>
       </c>
@@ -5775,11 +6715,11 @@
         <v>3000</v>
       </c>
       <c r="M152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>79.034724786835596</v>
       </c>
       <c r="N152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.1351311603962131E-5</v>
       </c>
       <c r="R152">
@@ -5788,8 +6728,14 @@
       <c r="S152">
         <v>3000</v>
       </c>
-    </row>
-    <row r="153" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V152">
+        <v>119.833429354549</v>
+      </c>
+      <c r="W152">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="153" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C153">
         <v>77.972617302836497</v>
       </c>
@@ -5809,11 +6755,11 @@
         <v>3020</v>
       </c>
       <c r="M153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>77.973064546394141</v>
       </c>
       <c r="N153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-4.4724355764458323E-4</v>
       </c>
       <c r="R153">
@@ -5822,8 +6768,14 @@
       <c r="S153">
         <v>3020</v>
       </c>
-    </row>
-    <row r="154" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V153">
+        <v>118.034364887636</v>
+      </c>
+      <c r="W153">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="154" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C154">
         <v>76.929524628501795</v>
       </c>
@@ -5843,11 +6795,11 @@
         <v>3040</v>
       </c>
       <c r="M154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>76.930483897614948</v>
       </c>
       <c r="N154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-9.5926911315302732E-4</v>
       </c>
       <c r="R154">
@@ -5856,8 +6808,14 @@
       <c r="S154">
         <v>3040</v>
       </c>
-    </row>
-    <row r="155" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V154">
+        <v>116.267696052343</v>
+      </c>
+      <c r="W154">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="155" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C155">
         <v>75.905177181776196</v>
       </c>
@@ -5877,11 +6835,11 @@
         <v>3060</v>
       </c>
       <c r="M155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>75.906640818917737</v>
       </c>
       <c r="N155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.4636371415406302E-3</v>
       </c>
       <c r="R155">
@@ -5890,8 +6848,14 @@
       <c r="S155">
         <v>3060</v>
       </c>
-    </row>
-    <row r="156" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V155">
+        <v>114.532842474037</v>
+      </c>
+      <c r="W155">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="156" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C156">
         <v>74.899240313861995</v>
       </c>
@@ -5911,11 +6875,11 @@
         <v>3080</v>
       </c>
       <c r="M156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>74.901503723836441</v>
       </c>
       <c r="N156">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.2634099744465175E-3</v>
       </c>
       <c r="R156">
@@ -5924,8 +6888,14 @@
       <c r="S156">
         <v>3080</v>
       </c>
-    </row>
-    <row r="157" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V156">
+        <v>112.82923394438799</v>
+      </c>
+      <c r="W156">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="157" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C157">
         <v>73.911385381650405</v>
       </c>
@@ -5945,11 +6915,11 @@
         <v>3100</v>
       </c>
       <c r="M157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>73.91442549464935</v>
       </c>
       <c r="N157">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3.0401129989456877E-3</v>
       </c>
       <c r="R157">
@@ -5958,8 +6928,14 @@
       <c r="S157">
         <v>3100</v>
       </c>
-    </row>
-    <row r="158" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V157">
+        <v>111.15774354925</v>
+      </c>
+      <c r="W157">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="158" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C158">
         <v>72.941289529203104</v>
       </c>
@@ -5979,11 +6955,11 @@
         <v>3120</v>
       </c>
       <c r="M158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>72.945082566592546</v>
       </c>
       <c r="N158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3.7930373894425884E-3</v>
       </c>
       <c r="R158">
@@ -5992,8 +6968,14 @@
       <c r="S158">
         <v>3120</v>
       </c>
-    </row>
-    <row r="159" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V158">
+        <v>109.516312793374</v>
+      </c>
+      <c r="W158">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="159" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C159">
         <v>71.989781466418293</v>
       </c>
@@ -6013,11 +6995,11 @@
         <v>3140</v>
       </c>
       <c r="M159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>71.993458622158457</v>
       </c>
       <c r="N159">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3.6771557401635846E-3</v>
       </c>
       <c r="R159">
@@ -6026,8 +7008,14 @@
       <c r="S159">
         <v>3140</v>
       </c>
-    </row>
-    <row r="160" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V159">
+        <v>107.90440195574401</v>
+      </c>
+      <c r="W159">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="160" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C160">
         <v>71.0553468282083</v>
       </c>
@@ -6047,11 +7035,11 @@
         <v>3160</v>
       </c>
       <c r="M160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>71.058927287844952</v>
       </c>
       <c r="N160">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3.5804596366517671E-3</v>
       </c>
       <c r="R160">
@@ -6060,8 +7048,14 @@
       <c r="S160">
         <v>3160</v>
       </c>
-    </row>
-    <row r="161" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V160">
+        <v>106.321481755626</v>
+      </c>
+      <c r="W160">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="161" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C161">
         <v>70.137679523797104</v>
       </c>
@@ -6081,11 +7075,11 @@
         <v>3180</v>
       </c>
       <c r="M161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>70.141486489110548</v>
       </c>
       <c r="N161">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3.806965313444266E-3</v>
       </c>
       <c r="R161">
@@ -6094,8 +7088,14 @@
       <c r="S161">
         <v>3180</v>
       </c>
-    </row>
-    <row r="162" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V161">
+        <v>104.76703311366499</v>
+      </c>
+      <c r="W161">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="162" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C162">
         <v>69.236479573799897</v>
       </c>
@@ -6115,11 +7115,11 @@
         <v>3200</v>
       </c>
       <c r="M162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>69.240518462466497</v>
       </c>
       <c r="N162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-4.038888666599405E-3</v>
       </c>
       <c r="R162">
@@ -6128,8 +7128,14 @@
       <c r="S162">
         <v>3200</v>
       </c>
-    </row>
-    <row r="163" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V162">
+        <v>103.240546690882</v>
+      </c>
+      <c r="W162">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="163" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C163">
         <v>68.351453017806406</v>
       </c>
@@ -6149,11 +7155,11 @@
         <v>3220</v>
       </c>
       <c r="M163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>68.355728212104509</v>
       </c>
       <c r="N163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-4.2751942981027469E-3</v>
       </c>
       <c r="R163">
@@ -6162,8 +7168,14 @@
       <c r="S163">
         <v>3220</v>
       </c>
-    </row>
-    <row r="164" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V163">
+        <v>101.741522452368</v>
+      </c>
+      <c r="W163">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="164" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C164">
         <v>67.4823115829887</v>
       </c>
@@ -6183,11 +7195,11 @@
         <v>3240</v>
       </c>
       <c r="M164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>67.487127340754157</v>
       </c>
       <c r="N164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-4.8157577654563966E-3</v>
       </c>
       <c r="R164">
@@ -6196,8 +7208,14 @@
       <c r="S164">
         <v>3240</v>
       </c>
-    </row>
-    <row r="165" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V164">
+        <v>100.2694693043</v>
+      </c>
+      <c r="W164">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="165" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C165">
         <v>66.628772355810995</v>
       </c>
@@ -6217,11 +7235,11 @@
         <v>3260</v>
       </c>
       <c r="M165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>66.63411732387496</v>
       </c>
       <c r="N165">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-5.3449680639658936E-3</v>
       </c>
       <c r="R165">
@@ -6230,8 +7248,14 @@
       <c r="S165">
         <v>3260</v>
       </c>
-    </row>
-    <row r="166" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V165">
+        <v>98.823904804881295</v>
+      </c>
+      <c r="W165">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="166" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C166">
         <v>65.790557510748599</v>
       </c>
@@ -6251,11 +7275,11 @@
         <v>3280</v>
       </c>
       <c r="M166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>65.796723046397503</v>
       </c>
       <c r="N166">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-6.1655356489040969E-3</v>
       </c>
       <c r="R166">
@@ -6264,8 +7288,14 @@
       <c r="S166">
         <v>3280</v>
       </c>
-    </row>
-    <row r="167" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V166">
+        <v>97.404354935735498</v>
+      </c>
+      <c r="W166">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="167" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C167">
         <v>64.967394100943906</v>
       </c>
@@ -6285,11 +7315,11 @@
         <v>3300</v>
       </c>
       <c r="M167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>64.974353632977852</v>
       </c>
       <c r="N167">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-6.9595320339459477E-3</v>
       </c>
       <c r="R167">
@@ -6298,8 +7328,14 @@
       <c r="S167">
         <v>3300</v>
       </c>
-    </row>
-    <row r="168" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V167">
+        <v>96.011769157435296</v>
+      </c>
+      <c r="W167">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="168" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C168">
         <v>64.159013900687796</v>
       </c>
@@ -6319,11 +7355,11 @@
         <v>3320</v>
       </c>
       <c r="M168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>64.166740249888051</v>
       </c>
       <c r="N168">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-7.7263492002543899E-3</v>
       </c>
       <c r="R168">
@@ -6332,8 +7368,14 @@
       <c r="S168">
         <v>3320</v>
       </c>
-    </row>
-    <row r="169" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V168">
+        <v>94.644202706628107</v>
+      </c>
+      <c r="W168">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="169" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C169">
         <v>63.366284698462998</v>
       </c>
@@ -6353,11 +7395,11 @@
         <v>3340</v>
       </c>
       <c r="M169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>63.3739200495002</v>
       </c>
       <c r="N169">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-7.6353510372015876E-3</v>
       </c>
       <c r="R169">
@@ -6366,8 +7408,14 @@
       <c r="S169">
         <v>3340</v>
       </c>
-    </row>
-    <row r="170" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V169">
+        <v>93.301206543740506</v>
+      </c>
+      <c r="W169">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="170" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C170">
         <v>62.587761424193403</v>
       </c>
@@ -6387,11 +7435,11 @@
         <v>3360</v>
       </c>
       <c r="M170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>62.595319980347</v>
       </c>
       <c r="N170">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-7.5585561535973511E-3</v>
       </c>
       <c r="R170">
@@ -6400,8 +7448,14 @@
       <c r="S170">
         <v>3360</v>
       </c>
-    </row>
-    <row r="171" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V170">
+        <v>91.982340467833794</v>
+      </c>
+      <c r="W170">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="171" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C171">
         <v>61.823189449836299</v>
       </c>
@@ -6421,11 +7475,11 @@
         <v>3380</v>
       </c>
       <c r="M171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>61.830989561372803</v>
       </c>
       <c r="N171">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-7.8001115365040619E-3</v>
       </c>
       <c r="R171">
@@ -6434,8 +7488,14 @@
       <c r="S171">
         <v>3380</v>
       </c>
-    </row>
-    <row r="172" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V171">
+        <v>90.687172933758006</v>
+      </c>
+      <c r="W171">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="172" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C172">
         <v>61.072319292230802</v>
       </c>
@@ -6455,11 +7515,11 @@
         <v>3400</v>
       </c>
       <c r="M172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>61.08036247930405</v>
       </c>
       <c r="N172">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-8.043187073248248E-3</v>
       </c>
       <c r="R172">
@@ -6468,8 +7528,14 @@
       <c r="S172">
         <v>3400</v>
       </c>
-    </row>
-    <row r="173" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V172">
+        <v>89.415280617933306</v>
+      </c>
+      <c r="W172">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="173" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C173">
         <v>60.334906604690502</v>
       </c>
@@ -6489,11 +7555,11 @@
         <v>3420</v>
       </c>
       <c r="M173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>60.343193783263352</v>
       </c>
       <c r="N173">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-8.2871785728499958E-3</v>
       </c>
       <c r="R173">
@@ -6502,8 +7568,14 @@
       <c r="S173">
         <v>3420</v>
       </c>
-    </row>
-    <row r="174" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V173">
+        <v>88.166248000070695</v>
+      </c>
+      <c r="W173">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="174" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C174">
         <v>59.610711879760103</v>
       </c>
@@ -6523,11 +7595,11 @@
         <v>3440</v>
       </c>
       <c r="M174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>59.619543944163951</v>
       </c>
       <c r="N174">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-8.8320644038475393E-3</v>
       </c>
       <c r="R174">
@@ -6536,8 +7608,14 @@
       <c r="S174">
         <v>3440</v>
       </c>
-    </row>
-    <row r="175" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V174">
+        <v>86.939667016899605</v>
+      </c>
+      <c r="W174">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="175" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C175">
         <v>58.899500137064898</v>
       </c>
@@ -6557,11 +7635,11 @@
         <v>3460</v>
       </c>
       <c r="M175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>58.908863159303003</v>
       </c>
       <c r="N175">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-9.3630222381051453E-3</v>
       </c>
       <c r="R175">
@@ -6570,8 +7648,14 @@
       <c r="S175">
         <v>3460</v>
       </c>
-    </row>
-    <row r="176" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V175">
+        <v>85.735136790842503</v>
+      </c>
+      <c r="W175">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="176" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C176">
         <v>58.201040662105797</v>
       </c>
@@ -6591,11 +7675,11 @@
         <v>3480</v>
       </c>
       <c r="M176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>58.211223426955897</v>
       </c>
       <c r="N176">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.0182764850100057E-2</v>
       </c>
       <c r="R176">
@@ -6604,8 +7688,14 @@
       <c r="S176">
         <v>3480</v>
       </c>
-    </row>
-    <row r="177" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V176">
+        <v>84.553686298750506</v>
+      </c>
+      <c r="W176">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="177" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C177">
         <v>57.515106805487001</v>
       </c>
@@ -6625,11 +7715,11 @@
         <v>3500</v>
       </c>
       <c r="M177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>57.526080847255152</v>
       </c>
       <c r="N177">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.0974041768150755E-2</v>
       </c>
       <c r="R177">
@@ -6638,8 +7728,14 @@
       <c r="S177">
         <v>3500</v>
       </c>
-    </row>
-    <row r="178" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V177">
+        <v>83.393435212537895</v>
+      </c>
+      <c r="W177">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="178" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C178">
         <v>56.841475834112401</v>
       </c>
@@ -6659,11 +7755,11 @@
         <v>3520</v>
       </c>
       <c r="M178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>56.853212259513398</v>
       </c>
       <c r="N178">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.1736425400997064E-2</v>
       </c>
       <c r="R178">
@@ -6672,8 +7768,14 @@
       <c r="S178">
         <v>3520</v>
       </c>
-    </row>
-    <row r="179" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V178">
+        <v>82.254003471253398</v>
+      </c>
+      <c r="W178">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="179" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C179">
         <v>56.181045974548702</v>
       </c>
@@ -6693,11 +7795,11 @@
         <v>3540</v>
       </c>
       <c r="M179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>56.192699414330299</v>
       </c>
       <c r="N179">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.165343978159683E-2</v>
       </c>
       <c r="R179">
@@ -6706,8 +7808,14 @@
       <c r="S179">
         <v>3540</v>
       </c>
-    </row>
-    <row r="180" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V179">
+        <v>81.135018602216107</v>
+      </c>
+      <c r="W179">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="180" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C180">
         <v>55.532432322037899</v>
       </c>
@@ -6727,11 +7835,11 @@
         <v>3560</v>
       </c>
       <c r="M180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>55.544013721979397</v>
       </c>
       <c r="N180">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.1581399941498205E-2</v>
       </c>
       <c r="R180">
@@ -6740,8 +7848,14 @@
       <c r="S180">
         <v>3560</v>
       </c>
-    </row>
-    <row r="181" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V180">
+        <v>80.036115606266804</v>
+      </c>
+      <c r="W180">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="181" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C181">
         <v>54.895423230394599</v>
       </c>
@@ -6761,11 +7875,11 @@
         <v>3580</v>
       </c>
       <c r="M181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>54.906944148229449</v>
       </c>
       <c r="N181">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.1520917834850763E-2</v>
       </c>
       <c r="R181">
@@ -6774,8 +7888,14 @@
       <c r="S181">
         <v>3580</v>
       </c>
-    </row>
-    <row r="182" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V181">
+        <v>78.956936546291303</v>
+      </c>
+      <c r="W181">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="182" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C182">
         <v>54.269811352517898</v>
       </c>
@@ -6795,11 +7915,11 @@
         <v>3600</v>
       </c>
       <c r="M182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>54.281581567431303</v>
       </c>
       <c r="N182">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.1770214913404686E-2</v>
       </c>
       <c r="R182">
@@ -6808,8 +7928,14 @@
       <c r="S182">
         <v>3600</v>
       </c>
-    </row>
-    <row r="183" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V182">
+        <v>77.897130139595902</v>
+      </c>
+      <c r="W182">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="183" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C183">
         <v>53.655393726661003</v>
       </c>
@@ -6829,11 +7955,11 @@
         <v>3620</v>
       </c>
       <c r="M183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>53.667411948230601</v>
       </c>
       <c r="N183">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.2018221569597642E-2</v>
       </c>
       <c r="R183">
@@ -6842,8 +7968,14 @@
       <c r="S183">
         <v>3620</v>
       </c>
-    </row>
-    <row r="184" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V183">
+        <v>76.856351421069306</v>
+      </c>
+      <c r="W183">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="184" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C184">
         <v>53.051971516300597</v>
       </c>
@@ -6863,11 +7995,11 @@
         <v>3640</v>
       </c>
       <c r="M184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>53.064536438640644</v>
       </c>
       <c r="N184">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.2564922340047247E-2</v>
       </c>
       <c r="R184">
@@ -6876,8 +8008,14 @@
       <c r="S184">
         <v>3640</v>
       </c>
-    </row>
-    <row r="185" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V184">
+        <v>75.834261483248099</v>
+      </c>
+      <c r="W184">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="185" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C185">
         <v>52.459349714298597</v>
       </c>
@@ -6897,11 +8035,11 @@
         <v>3660</v>
       </c>
       <c r="M185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>52.47244571907185</v>
       </c>
       <c r="N185">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.3096004773252901E-2</v>
       </c>
       <c r="R185">
@@ -6910,8 +8048,14 @@
       <c r="S185">
         <v>3660</v>
       </c>
-    </row>
-    <row r="186" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V185">
+        <v>74.830527280732895</v>
+      </c>
+      <c r="W185">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="186" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C186">
         <v>51.877336890918599</v>
       </c>
@@ -6931,11 +8075,11 @@
         <v>3680</v>
       </c>
       <c r="M186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>51.890947493604045</v>
       </c>
       <c r="N186">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.3610602685446338E-2</v>
       </c>
       <c r="R186">
@@ -6944,8 +8088,14 @@
       <c r="S186">
         <v>3680</v>
       </c>
-    </row>
-    <row r="187" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V186">
+        <v>73.846226312688799</v>
+      </c>
+      <c r="W186">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="187" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C187">
         <v>51.305745000400499</v>
       </c>
@@ -6965,11 +8115,11 @@
         <v>3700</v>
       </c>
       <c r="M187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>51.320150970625946</v>
       </c>
       <c r="N187">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.4405970225446652E-2</v>
       </c>
       <c r="R187">
@@ -6978,8 +8128,14 @@
       <c r="S187">
         <v>3700</v>
       </c>
-    </row>
-    <row r="188" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V187">
+        <v>72.879564291908196</v>
+      </c>
+      <c r="W187">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="188" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C188">
         <v>50.744389239505601</v>
       </c>
@@ -6999,11 +8155,11 @@
         <v>3720</v>
       </c>
       <c r="M188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>50.759560402579297</v>
       </c>
       <c r="N188">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.5171163073695482E-2</v>
       </c>
       <c r="R188">
@@ -7012,8 +8168,14 @@
       <c r="S188">
         <v>3720</v>
       </c>
-    </row>
-    <row r="189" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V188">
+        <v>71.930225056679205</v>
+      </c>
+      <c r="W188">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="189" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C189">
         <v>50.194191210608302</v>
       </c>
@@ -7033,11 +8195,11 @@
         <v>3740</v>
       </c>
       <c r="M189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>50.209294664208244</v>
       </c>
       <c r="N189">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.5103453599941474E-2</v>
       </c>
       <c r="R189">
@@ -7046,8 +8208,14 @@
       <c r="S189">
         <v>3740</v>
       </c>
-    </row>
-    <row r="190" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V189">
+        <v>70.997898833487795</v>
+      </c>
+      <c r="W189">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="190" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C190">
         <v>49.653818355402699</v>
       </c>
@@ -7067,11 +8235,11 @@
         <v>3760</v>
       </c>
       <c r="M190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>49.668862095230352</v>
       </c>
       <c r="N190">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.5043739827653724E-2</v>
       </c>
       <c r="R190">
@@ -7080,8 +8248,14 @@
       <c r="S190">
         <v>3760</v>
       </c>
-    </row>
-    <row r="191" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V190">
+        <v>70.082282226578997</v>
+      </c>
+      <c r="W190">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="191" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C191">
         <v>49.123094906006401</v>
       </c>
@@ -7101,11 +8275,11 @@
         <v>3780</v>
       </c>
       <c r="M191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>49.138087587581495</v>
       </c>
       <c r="N191">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.499268157509448E-2</v>
       </c>
       <c r="R191">
@@ -7114,8 +8288,14 @@
       <c r="S191">
         <v>3780</v>
       </c>
-    </row>
-    <row r="192" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V191">
+        <v>69.183077848881993</v>
+      </c>
+      <c r="W191">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="192" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C192">
         <v>48.601848635758799</v>
       </c>
@@ -7135,11 +8315,11 @@
         <v>3800</v>
       </c>
       <c r="M192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>48.617097167330748</v>
       </c>
       <c r="N192">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.5248531571948831E-2</v>
       </c>
       <c r="R192">
@@ -7148,8 +8328,14 @@
       <c r="S192">
         <v>3800</v>
       </c>
-    </row>
-    <row r="193" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V192">
+        <v>68.299993934424606</v>
+      </c>
+      <c r="W192">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="193" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C193">
         <v>48.0899110569313</v>
       </c>
@@ -7169,11 +8355,11 @@
         <v>3820</v>
       </c>
       <c r="M193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>48.105411812172648</v>
       </c>
       <c r="N193">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.5500755241347974E-2</v>
       </c>
       <c r="R193">
@@ -7182,8 +8368,14 @@
       <c r="S193">
         <v>3820</v>
       </c>
-    </row>
-    <row r="194" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V193">
+        <v>67.432744014005294</v>
+      </c>
+      <c r="W193">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="194" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C194">
         <v>47.587117205211101</v>
       </c>
@@ -7203,11 +8395,11 @@
         <v>3840</v>
       </c>
       <c r="M194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>47.603166623750951</v>
       </c>
       <c r="N194">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.6049418539850535E-2</v>
       </c>
       <c r="R194">
@@ -7216,8 +8408,14 @@
       <c r="S194">
         <v>3840</v>
       </c>
-    </row>
-    <row r="195" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V194">
+        <v>66.581046665902704</v>
+      </c>
+      <c r="W194">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="195" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C195">
         <v>47.0933053630961</v>
       </c>
@@ -7237,11 +8435,11 @@
         <v>3860</v>
       </c>
       <c r="M195">
-        <f t="shared" ref="M195:M258" si="8">(G195+J195)/2</f>
+        <f t="shared" ref="M195:M258" si="10">(G195+J195)/2</f>
         <v>47.10988606245045</v>
       </c>
       <c r="N195">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.6580699354349804E-2</v>
       </c>
       <c r="R195">
@@ -7250,8 +8448,14 @@
       <c r="S195">
         <v>3860</v>
       </c>
-    </row>
-    <row r="196" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V195">
+        <v>65.744625331111493</v>
+      </c>
+      <c r="W195">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="196" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C196">
         <v>46.608316817756901</v>
       </c>
@@ -7271,11 +8475,11 @@
         <v>3880</v>
       </c>
       <c r="M196">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>46.6254107137284</v>
       </c>
       <c r="N196">
-        <f t="shared" ref="N196:N259" si="9">C196-M196</f>
+        <f t="shared" ref="N196:N259" si="11">C196-M196</f>
         <v>-1.7093895971498796E-2</v>
       </c>
       <c r="R196">
@@ -7284,8 +8488,14 @@
       <c r="S196">
         <v>3880</v>
       </c>
-    </row>
-    <row r="197" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V196">
+        <v>64.924595302570495</v>
+      </c>
+      <c r="W196">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="197" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C197">
         <v>46.1319956744181</v>
       </c>
@@ -7305,11 +8515,11 @@
         <v>3900</v>
       </c>
       <c r="M197">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>46.149881972456448</v>
       </c>
       <c r="N197">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.7886298038348514E-2</v>
       </c>
       <c r="R197">
@@ -7318,8 +8528,14 @@
       <c r="S197">
         <v>3900</v>
       </c>
-    </row>
-    <row r="198" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V197">
+        <v>64.119236997995102</v>
+      </c>
+      <c r="W197">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="198" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C198">
         <v>45.664188721115202</v>
       </c>
@@ -7339,11 +8555,11 @@
         <v>3920</v>
       </c>
       <c r="M198">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45.682836061145451</v>
       </c>
       <c r="N198">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.8647340030248927E-2</v>
       </c>
       <c r="R198">
@@ -7352,8 +8568,14 @@
       <c r="S198">
         <v>3920</v>
       </c>
-    </row>
-    <row r="199" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V198">
+        <v>63.328287624564098</v>
+      </c>
+      <c r="W198">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="199" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C199">
         <v>45.2058351781982</v>
       </c>
@@ -7373,11 +8595,11 @@
         <v>3940</v>
       </c>
       <c r="M199">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45.2241222975778</v>
       </c>
       <c r="N199">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.8287119379600369E-2</v>
       </c>
       <c r="R199">
@@ -7386,8 +8608,14 @@
       <c r="S199">
         <v>3940</v>
       </c>
-    </row>
-    <row r="200" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V199">
+        <v>62.551489727461501</v>
+      </c>
+      <c r="W199">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="200" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C200">
         <v>44.755648097642897</v>
       </c>
@@ -7407,11 +8635,11 @@
         <v>3960</v>
       </c>
       <c r="M200">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44.773887946629202</v>
       </c>
       <c r="N200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.8239848986304708E-2</v>
       </c>
       <c r="R200">
@@ -7420,8 +8648,14 @@
       <c r="S200">
         <v>3960</v>
       </c>
-    </row>
-    <row r="201" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V200">
+        <v>61.788591296994497</v>
+      </c>
+      <c r="W200">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="201" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C201">
         <v>44.313481658919997</v>
       </c>
@@ -7441,11 +8675,11 @@
         <v>3980</v>
       </c>
       <c r="M201">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44.331680429832851</v>
       </c>
       <c r="N201">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.819877091285349E-2</v>
       </c>
       <c r="R201">
@@ -7454,8 +8688,14 @@
       <c r="S201">
         <v>3980</v>
       </c>
-    </row>
-    <row r="202" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V201">
+        <v>61.039345445599402</v>
+      </c>
+      <c r="W201">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="202" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C202">
         <v>43.879192897660602</v>
       </c>
@@ -7475,11 +8715,11 @@
         <v>4000</v>
       </c>
       <c r="M202">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>43.897655177271105</v>
       </c>
       <c r="N202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.8462279610503174E-2</v>
       </c>
       <c r="R202">
@@ -7488,8 +8728,14 @@
       <c r="S202">
         <v>4000</v>
       </c>
-    </row>
-    <row r="203" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V202">
+        <v>60.303510040510702</v>
+      </c>
+      <c r="W202">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="203" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C203">
         <v>43.452642028734303</v>
       </c>
@@ -7509,11 +8755,11 @@
         <v>4020</v>
       </c>
       <c r="M203">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>43.471362222072798</v>
       </c>
       <c r="N203">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.8720193338495505E-2</v>
       </c>
       <c r="R203">
@@ -7522,8 +8768,14 @@
       <c r="S203">
         <v>4020</v>
       </c>
-    </row>
-    <row r="204" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V203">
+        <v>59.580847390883299</v>
+      </c>
+      <c r="W203">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="204" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C204">
         <v>43.0336922824835</v>
       </c>
@@ -7543,11 +8795,11 @@
         <v>4040</v>
       </c>
       <c r="M204">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>43.052664349857494</v>
       </c>
       <c r="N204">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.897206737399415E-2</v>
       </c>
       <c r="R204">
@@ -7556,8 +8808,14 @@
       <c r="S204">
         <v>4040</v>
       </c>
-    </row>
-    <row r="205" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V204">
+        <v>58.871124007623102</v>
+      </c>
+      <c r="W204">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="205" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C205">
         <v>42.622209650354698</v>
       </c>
@@ -7577,11 +8835,11 @@
         <v>4060</v>
       </c>
       <c r="M205">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>42.64172207176145</v>
       </c>
       <c r="N205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.9512421406751912E-2</v>
       </c>
       <c r="R205">
@@ -7590,8 +8848,14 @@
       <c r="S205">
         <v>4060</v>
       </c>
-    </row>
-    <row r="206" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V205">
+        <v>58.174110427748602</v>
+      </c>
+      <c r="W205">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="206" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C206">
         <v>42.218062653370403</v>
       </c>
@@ -7611,11 +8875,11 @@
         <v>4080</v>
       </c>
       <c r="M206">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>42.238095902726755</v>
       </c>
       <c r="N206">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.0033249356352201E-2</v>
       </c>
       <c r="R206">
@@ -7624,8 +8888,14 @@
       <c r="S206">
         <v>4080</v>
       </c>
-    </row>
-    <row r="207" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V206">
+        <v>57.490950969026599</v>
+      </c>
+      <c r="W206">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="207" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C207">
         <v>41.821122161917401</v>
       </c>
@@ -7645,11 +8915,11 @@
         <v>4100</v>
       </c>
       <c r="M207">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>41.841954103316098</v>
       </c>
       <c r="N207">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.083194139869704E-2</v>
       </c>
       <c r="R207">
@@ -7658,8 +8928,14 @@
       <c r="S207">
         <v>4100</v>
       </c>
-    </row>
-    <row r="208" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V207">
+        <v>56.819991045720897</v>
+      </c>
+      <c r="W207">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="208" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C208">
         <v>41.431261265714397</v>
       </c>
@@ -7679,11 +8955,11 @@
         <v>4120</v>
       </c>
       <c r="M208">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>41.4528593528849</v>
       </c>
       <c r="N208">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.1598087170502822E-2</v>
       </c>
       <c r="R208">
@@ -7692,8 +8968,14 @@
       <c r="S208">
         <v>4120</v>
       </c>
-    </row>
-    <row r="209" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V208">
+        <v>56.161012413699297</v>
+      </c>
+      <c r="W208">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="209" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C209">
         <v>41.049432175939003</v>
       </c>
@@ -7713,11 +8995,11 @@
         <v>4140</v>
       </c>
       <c r="M209">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>41.070686810196747</v>
       </c>
       <c r="N209">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.1254634257743987E-2</v>
       </c>
       <c r="R209">
@@ -7726,8 +9008,14 @@
       <c r="S209">
         <v>4140</v>
       </c>
-    </row>
-    <row r="210" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V209">
+        <v>55.5138012258275</v>
+      </c>
+      <c r="W209">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="210" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C210">
         <v>40.6743877281029</v>
       </c>
@@ -7747,11 +9035,11 @@
         <v>4160</v>
       </c>
       <c r="M210">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>40.695609178379456</v>
       </c>
       <c r="N210">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.1221450276556197E-2</v>
       </c>
       <c r="R210">
@@ -7760,8 +9048,14 @@
       <c r="S210">
         <v>4160</v>
       </c>
-    </row>
-    <row r="211" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V210">
+        <v>54.878148277456802</v>
+      </c>
+      <c r="W210">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="211" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C211">
         <v>40.306007111080604</v>
       </c>
@@ -7781,11 +9075,11 @@
         <v>4180</v>
       </c>
       <c r="M211">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>40.327198939078748</v>
       </c>
       <c r="N211">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.1191827998144674E-2</v>
       </c>
       <c r="R211">
@@ -7794,8 +9088,14 @@
       <c r="S211">
         <v>4180</v>
       </c>
-    </row>
-    <row r="212" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V211">
+        <v>54.253848738826498</v>
+      </c>
+      <c r="W211">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="212" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C212">
         <v>39.944171745081903</v>
       </c>
@@ -7815,11 +9115,11 @@
         <v>4200</v>
       </c>
       <c r="M212">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>39.96563613187125</v>
       </c>
       <c r="N212">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.1464386789347145E-2</v>
       </c>
       <c r="R212">
@@ -7828,8 +9128,14 @@
       <c r="S212">
         <v>4200</v>
       </c>
-    </row>
-    <row r="213" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V212">
+        <v>53.640701811614697</v>
+      </c>
+      <c r="W212">
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="213" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C213">
         <v>39.588765739969503</v>
       </c>
@@ -7849,11 +9155,11 @@
         <v>4220</v>
       </c>
       <c r="M213">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>39.610494960077446</v>
       </c>
       <c r="N213">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.1729220107943092E-2</v>
       </c>
       <c r="R213">
@@ -7862,8 +9168,14 @@
       <c r="S213">
         <v>4220</v>
       </c>
-    </row>
-    <row r="214" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V213">
+        <v>53.038510428284198</v>
+      </c>
+      <c r="W213">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="214" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C214">
         <v>39.239675789862297</v>
       </c>
@@ -7883,11 +9195,11 @@
         <v>4240</v>
       </c>
       <c r="M214">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>39.261661882313248</v>
       </c>
       <c r="N214">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.1986092450951844E-2</v>
       </c>
       <c r="R214">
@@ -7896,8 +9208,14 @@
       <c r="S214">
         <v>4240</v>
       </c>
-    </row>
-    <row r="215" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V214">
+        <v>52.447081020365502</v>
+      </c>
+      <c r="W214">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="215" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C215">
         <v>38.896790944208703</v>
       </c>
@@ -7917,11 +9235,11 @@
         <v>4260</v>
       </c>
       <c r="M215">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>38.919320770684351</v>
       </c>
       <c r="N215">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.2529826475647496E-2</v>
       </c>
       <c r="R215">
@@ -7930,8 +9248,14 @@
       <c r="S215">
         <v>4260</v>
       </c>
-    </row>
-    <row r="216" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V215">
+        <v>51.8662233505312</v>
+      </c>
+      <c r="W215">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="216" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C216">
         <v>38.560002387960303</v>
       </c>
@@ -7951,11 +9275,11 @@
         <v>4280</v>
       </c>
       <c r="M216">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>38.5830549861994</v>
       </c>
       <c r="N216">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.3052598239097222E-2</v>
       </c>
       <c r="R216">
@@ -7964,8 +9288,14 @@
       <c r="S216">
         <v>4280</v>
       </c>
-    </row>
-    <row r="217" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V216">
+        <v>51.297103612101303</v>
+      </c>
+      <c r="W216">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="217" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C217">
         <v>38.229203267686998</v>
       </c>
@@ -7985,11 +9315,11 @@
         <v>4300</v>
       </c>
       <c r="M217">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>38.252757273843201</v>
       </c>
       <c r="N217">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.35540061562034E-2</v>
       </c>
       <c r="R217">
@@ -7998,8 +9328,14 @@
       <c r="S217">
         <v>4300</v>
       </c>
-    </row>
-    <row r="218" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V217">
+        <v>50.738123851849203</v>
+      </c>
+      <c r="W217">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="218" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C218">
         <v>37.9042885660499</v>
       </c>
@@ -8019,11 +9355,11 @@
         <v>4320</v>
       </c>
       <c r="M218">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>37.928615074712802</v>
       </c>
       <c r="N218">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.4326508662902313E-2</v>
       </c>
       <c r="R218">
@@ -8032,8 +9368,14 @@
       <c r="S218">
         <v>4320</v>
       </c>
-    </row>
-    <row r="219" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V218">
+        <v>50.189103010104297</v>
+      </c>
+      <c r="W218">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="219" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C219">
         <v>37.586219822933501</v>
       </c>
@@ -8053,11 +9395,11 @@
         <v>4340</v>
       </c>
       <c r="M219">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>37.610220485428243</v>
       </c>
       <c r="N219">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.4000662494742642E-2</v>
       </c>
       <c r="R219">
@@ -8066,8 +9408,14 @@
       <c r="S219">
         <v>4340</v>
       </c>
-    </row>
-    <row r="220" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V219">
+        <v>49.649863573579402</v>
+      </c>
+      <c r="W219">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="220" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C220">
         <v>37.273784581828998</v>
       </c>
@@ -8087,11 +9435,11 @@
         <v>4360</v>
       </c>
       <c r="M220">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>37.297767627637796</v>
       </c>
       <c r="N220">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.3983045808797954E-2</v>
       </c>
       <c r="R220">
@@ -8100,8 +9448,14 @@
       <c r="S220">
         <v>4360</v>
       </c>
-    </row>
-    <row r="221" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V220">
+        <v>49.120231976523399</v>
+      </c>
+      <c r="W220">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="221" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C221">
         <v>36.9668829302014</v>
       </c>
@@ -8121,11 +9475,11 @@
         <v>4380</v>
       </c>
       <c r="M221">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>36.990849676967599</v>
       </c>
       <c r="N221">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.396674676619881E-2</v>
       </c>
       <c r="R221">
@@ -8134,8 +9488,14 @@
       <c r="S221">
         <v>4380</v>
       </c>
-    </row>
-    <row r="222" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V221">
+        <v>48.600038397380999</v>
+      </c>
+      <c r="W221">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="222" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C222">
         <v>36.665416614519003</v>
       </c>
@@ -8155,11 +9515,11 @@
         <v>4400</v>
       </c>
       <c r="M222">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>36.68936905334845</v>
       </c>
       <c r="N222">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.3952438829446976E-2</v>
       </c>
       <c r="R222">
@@ -8168,8 +9528,14 @@
       <c r="S222">
         <v>4400</v>
       </c>
-    </row>
-    <row r="223" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V222">
+        <v>48.0891164429515</v>
+      </c>
+      <c r="W222">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="223" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C223">
         <v>36.369289637964002</v>
       </c>
@@ -8189,11 +9555,11 @@
         <v>4420</v>
       </c>
       <c r="M223">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>36.393522849787004</v>
       </c>
       <c r="N223">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.4233211823002421E-2</v>
       </c>
       <c r="R223">
@@ -8202,8 +9568,14 @@
       <c r="S223">
         <v>4420</v>
       </c>
-    </row>
-    <row r="224" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V223">
+        <v>47.587302860910697</v>
+      </c>
+      <c r="W223">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="224" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C224">
         <v>36.078408218997197</v>
       </c>
@@ -8223,11 +9595,11 @@
         <v>4440</v>
       </c>
       <c r="M224">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>36.102912445801898</v>
       </c>
       <c r="N224">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.4504226804701545E-2</v>
       </c>
       <c r="R224">
@@ -8236,8 +9608,14 @@
       <c r="S224">
         <v>4440</v>
       </c>
-    </row>
-    <row r="225" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V224">
+        <v>47.0944373160483</v>
+      </c>
+      <c r="W224">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="225" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C225">
         <v>35.792680591131102</v>
       </c>
@@ -8257,11 +9635,11 @@
         <v>4460</v>
       </c>
       <c r="M225">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>35.817741339970596</v>
       </c>
       <c r="N225">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.5060748839493385E-2</v>
       </c>
       <c r="R225">
@@ -8270,8 +9648,14 @@
       <c r="S225">
         <v>4460</v>
       </c>
-    </row>
-    <row r="226" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V225">
+        <v>46.6103622288121</v>
+      </c>
+      <c r="W225">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="226" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C226">
         <v>35.512016796171899</v>
       </c>
@@ -8291,11 +9675,11 @@
         <v>4480</v>
       </c>
       <c r="M226">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>35.537611668257199</v>
       </c>
       <c r="N226">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.5594872085299869E-2</v>
       </c>
       <c r="R226">
@@ -8304,8 +9688,14 @@
       <c r="S226">
         <v>4480</v>
       </c>
-    </row>
-    <row r="227" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V226">
+        <v>46.136259922726502</v>
+      </c>
+      <c r="W226">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="227" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C227">
         <v>35.236328516880498</v>
       </c>
@@ -8325,11 +9715,11 @@
         <v>4500</v>
       </c>
       <c r="M227">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>35.262434756999397</v>
       </c>
       <c r="N227">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.6106240118899393E-2</v>
       </c>
       <c r="R227">
@@ -8338,8 +9728,14 @@
       <c r="S227">
         <v>4500</v>
       </c>
-    </row>
-    <row r="228" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V227">
+        <v>45.670581842231499</v>
+      </c>
+      <c r="W227">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="228" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C228">
         <v>34.9666013875649</v>
       </c>
@@ -8359,11 +9755,11 @@
         <v>4520</v>
       </c>
       <c r="M228">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>34.992416636082694</v>
       </c>
       <c r="N228">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.5815248517794487E-2</v>
       </c>
       <c r="R228">
@@ -8372,8 +9768,14 @@
       <c r="S228">
         <v>4520</v>
       </c>
-    </row>
-    <row r="229" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V228">
+        <v>45.213177980859101</v>
+      </c>
+      <c r="W228">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="229" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C229">
         <v>34.701631974724897</v>
       </c>
@@ -8393,11 +9795,11 @@
         <v>4540</v>
       </c>
       <c r="M229">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>34.727167145843396</v>
       </c>
       <c r="N229">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.5535171118498567E-2</v>
       </c>
       <c r="R229">
@@ -8406,8 +9808,14 @@
       <c r="S229">
         <v>4540</v>
       </c>
-    </row>
-    <row r="230" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V229">
+        <v>44.763901102703002</v>
+      </c>
+      <c r="W229">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="230" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C230">
         <v>34.441336491305997</v>
       </c>
@@ -8427,11 +9835,11 @@
         <v>4560</v>
       </c>
       <c r="M230">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>34.46689844095625</v>
       </c>
       <c r="N230">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.5561949650253268E-2</v>
       </c>
       <c r="R230">
@@ -8440,8 +9848,14 @@
       <c r="S230">
         <v>4560</v>
       </c>
-    </row>
-    <row r="231" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V230">
+        <v>44.3226073114947</v>
+      </c>
+      <c r="W230">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="231" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C231">
         <v>34.185632307173101</v>
       </c>
@@ -8461,11 +9875,11 @@
         <v>4580</v>
       </c>
       <c r="M231">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>34.211220789097148</v>
       </c>
       <c r="N231">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.5588481924046391E-2</v>
       </c>
       <c r="R231">
@@ -8474,8 +9888,14 @@
       <c r="S231">
         <v>4580</v>
       </c>
-    </row>
-    <row r="232" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V231">
+        <v>43.889155919735401</v>
+      </c>
+      <c r="W231">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="232" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C232">
         <v>33.934438689126303</v>
       </c>
@@ -8495,11 +9915,11 @@
         <v>4600</v>
       </c>
       <c r="M232">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>33.960053653621848</v>
       </c>
       <c r="N232">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.5614964495545678E-2</v>
       </c>
       <c r="R232">
@@ -8508,8 +9928,14 @@
       <c r="S232">
         <v>4600</v>
       </c>
-    </row>
-    <row r="233" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V232">
+        <v>43.463409164447498</v>
+      </c>
+      <c r="W232">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="233" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C233">
         <v>33.687676824163098</v>
       </c>
@@ -8529,11 +9955,11 @@
         <v>4620</v>
       </c>
       <c r="M233">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>33.713611293123094</v>
       </c>
       <c r="N233">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.5934468959995627E-2</v>
       </c>
       <c r="R233">
@@ -8542,8 +9968,14 @@
       <c r="S233">
         <v>4620</v>
       </c>
-    </row>
-    <row r="234" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V233">
+        <v>43.045231934224503</v>
+      </c>
+      <c r="W233">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="234" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C234">
         <v>33.445269646415298</v>
       </c>
@@ -8563,11 +9995,11 @@
         <v>4640</v>
       </c>
       <c r="M234">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>33.471511197868551</v>
       </c>
       <c r="N234">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.6241551453253464E-2</v>
       </c>
       <c r="R234">
@@ -8576,8 +10008,14 @@
       <c r="S234">
         <v>4640</v>
       </c>
-    </row>
-    <row r="235" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V234">
+        <v>42.634491553324899</v>
+      </c>
+      <c r="W234">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="235" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C235">
         <v>33.207141641259</v>
       </c>
@@ -8597,11 +10035,11 @@
         <v>4660</v>
       </c>
       <c r="M235">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>33.233677355370844</v>
       </c>
       <c r="N235">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.65357141118443E-2</v>
       </c>
       <c r="R235">
@@ -8610,8 +10048,14 @@
       <c r="S235">
         <v>4660</v>
       </c>
-    </row>
-    <row r="236" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V235">
+        <v>42.231057625809903</v>
+      </c>
+      <c r="W235">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="236" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C236">
         <v>32.9732186825726</v>
       </c>
@@ -8631,11 +10075,11 @@
         <v>4680</v>
       </c>
       <c r="M236">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>33.000325991377551</v>
       </c>
       <c r="N236">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.7107308804950492E-2</v>
       </c>
       <c r="R236">
@@ -8644,8 +10088,14 @@
       <c r="S236">
         <v>4680</v>
       </c>
-    </row>
-    <row r="237" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V236">
+        <v>41.8361240582962</v>
+      </c>
+      <c r="W236">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="237" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C237">
         <v>32.743427913972397</v>
       </c>
@@ -8665,11 +10115,11 @@
         <v>4700</v>
       </c>
       <c r="M237">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>32.771081503097648</v>
       </c>
       <c r="N237">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.7653589125250733E-2</v>
       </c>
       <c r="R237">
@@ -8678,8 +10128,14 @@
       <c r="S237">
         <v>4700</v>
       </c>
-    </row>
-    <row r="238" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V237">
+        <v>41.448185390769702</v>
+      </c>
+      <c r="W237">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="238" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C238">
         <v>32.518759371628803</v>
       </c>
@@ -8699,11 +10155,11 @@
         <v>4720</v>
       </c>
       <c r="M238">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>32.546165775672399</v>
       </c>
       <c r="N238">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.7406404043595955E-2</v>
       </c>
       <c r="R238">
@@ -8712,8 +10168,14 @@
       <c r="S238">
         <v>4720</v>
       </c>
-    </row>
-    <row r="239" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V238">
+        <v>41.067117565727798</v>
+      </c>
+      <c r="W238">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="239" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C239">
         <v>32.298036301620698</v>
       </c>
@@ -8733,11 +10195,11 @@
         <v>4740</v>
       </c>
       <c r="M239">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>32.325203150989395</v>
       </c>
       <c r="N239">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.7166849368697399E-2</v>
       </c>
       <c r="R239">
@@ -8746,8 +10208,14 @@
       <c r="S239">
         <v>4740</v>
       </c>
-    </row>
-    <row r="240" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V239">
+        <v>40.692798585587902</v>
+      </c>
+      <c r="W239">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="240" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C240">
         <v>32.081189696726</v>
       </c>
@@ -8767,11 +10235,11 @@
         <v>4760</v>
       </c>
       <c r="M240">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>32.108124564913247</v>
       </c>
       <c r="N240">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.6934868187247218E-2</v>
       </c>
       <c r="R240">
@@ -8780,8 +10248,14 @@
       <c r="S240">
         <v>4760</v>
       </c>
-    </row>
-    <row r="241" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V240">
+        <v>40.325109254841102</v>
+      </c>
+      <c r="W240">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="241" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C241">
         <v>31.868151220412798</v>
       </c>
@@ -8801,11 +10275,11 @@
         <v>4780</v>
       </c>
       <c r="M241">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>31.895153403901197</v>
       </c>
       <c r="N241">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.7002183488399112E-2</v>
       </c>
       <c r="R241">
@@ -8814,8 +10288,14 @@
       <c r="S241">
         <v>4780</v>
       </c>
-    </row>
-    <row r="242" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V241">
+        <v>39.9639331286035</v>
+      </c>
+      <c r="W241">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="242" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C242">
         <v>31.6588540809949</v>
       </c>
@@ -8835,11 +10315,11 @@
         <v>4800</v>
       </c>
       <c r="M242">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>31.685920507785401</v>
       </c>
       <c r="N242">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.7066426790501197E-2</v>
       </c>
       <c r="R242">
@@ -8848,8 +10328,14 @@
       <c r="S242">
         <v>4800</v>
       </c>
-    </row>
-    <row r="243" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V242">
+        <v>39.6091562640025</v>
+      </c>
+      <c r="W242">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="243" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C243">
         <v>31.453233130164701</v>
       </c>
@@ -8869,11 +10355,11 @@
         <v>4820</v>
       </c>
       <c r="M243">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>31.480654751607549</v>
       </c>
       <c r="N243">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.7421621442847766E-2</v>
       </c>
       <c r="R243">
@@ -8882,8 +10368,14 @@
       <c r="S243">
         <v>4820</v>
       </c>
-    </row>
-    <row r="244" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V243">
+        <v>39.260666963453303</v>
+      </c>
+      <c r="W243">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="244" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C244">
         <v>31.251224727141</v>
       </c>
@@ -8903,11 +10395,11 @@
         <v>4840</v>
       </c>
       <c r="M244">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>31.2789866822175</v>
       </c>
       <c r="N244">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.7761955076499589E-2</v>
       </c>
       <c r="R244">
@@ -8916,8 +10408,14 @@
       <c r="S244">
         <v>4840</v>
       </c>
-    </row>
-    <row r="245" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V244">
+        <v>38.9183555668804</v>
+      </c>
+      <c r="W244">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="245" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C245">
         <v>31.052766560088401</v>
       </c>
@@ -8937,11 +10435,11 @@
         <v>4860</v>
       </c>
       <c r="M245">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>31.080853646110548</v>
       </c>
       <c r="N245">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.8087086022146934E-2</v>
       </c>
       <c r="R245">
@@ -8950,8 +10448,14 @@
       <c r="S245">
         <v>4860</v>
       </c>
-    </row>
-    <row r="246" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V245">
+        <v>38.583445898007596</v>
+      </c>
+      <c r="W245">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="246" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C246">
         <v>30.8577974911727</v>
       </c>
@@ -8971,11 +10475,11 @@
         <v>4880</v>
       </c>
       <c r="M246">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>30.886485727023551</v>
       </c>
       <c r="N246">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.8688235850850674E-2</v>
       </c>
       <c r="R246">
@@ -8984,8 +10488,14 @@
       <c r="S246">
         <v>4880</v>
       </c>
-    </row>
-    <row r="247" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V246">
+        <v>38.254443700339102</v>
+      </c>
+      <c r="W246">
+        <v>4540</v>
+      </c>
+    </row>
+    <row r="247" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C247">
         <v>30.6662574413598</v>
       </c>
@@ -9005,11 +10515,11 @@
         <v>4900</v>
       </c>
       <c r="M247">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>30.695519594964452</v>
       </c>
       <c r="N247">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.9262153604651786E-2</v>
       </c>
       <c r="R247">
@@ -9018,8 +10528,14 @@
       <c r="S247">
         <v>4900</v>
       </c>
-    </row>
-    <row r="248" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V247">
+        <v>37.931244938753203</v>
+      </c>
+      <c r="W247">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="248" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C248">
         <v>30.479139252923201</v>
       </c>
@@ -9039,11 +10555,11 @@
         <v>4920</v>
       </c>
       <c r="M248">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>30.5078961660458</v>
       </c>
       <c r="N248">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.8756913122599315E-2</v>
       </c>
       <c r="R248">
@@ -9052,8 +10568,14 @@
       <c r="S248">
         <v>4920</v>
       </c>
-    </row>
-    <row r="249" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V248">
+        <v>37.613747014630199</v>
+      </c>
+      <c r="W248">
+        <v>4580</v>
+      </c>
+    </row>
+    <row r="249" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C249">
         <v>30.295289310233098</v>
       </c>
@@ -9073,11 +10595,11 @@
         <v>4940</v>
       </c>
       <c r="M249">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>30.32384667349795</v>
       </c>
       <c r="N249">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.8557363264852142E-2</v>
       </c>
       <c r="R249">
@@ -9086,8 +10608,14 @@
       <c r="S249">
         <v>4940</v>
       </c>
-    </row>
-    <row r="250" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V249">
+        <v>37.301849684700997</v>
+      </c>
+      <c r="W249">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="250" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C250">
         <v>30.114651000227099</v>
       </c>
@@ -9107,11 +10635,11 @@
         <v>4960</v>
       </c>
       <c r="M250">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>30.143013656162552</v>
       </c>
       <c r="N250">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.8362655935453063E-2</v>
       </c>
       <c r="R250">
@@ -9120,8 +10648,14 @@
       <c r="S250">
         <v>4960</v>
       </c>
-    </row>
-    <row r="251" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V250">
+        <v>36.995455089930502</v>
+      </c>
+      <c r="W250">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="251" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C251">
         <v>29.937167963641599</v>
       </c>
@@ -9141,11 +10675,11 @@
         <v>4980</v>
       </c>
       <c r="M251">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>29.9656334856817</v>
       </c>
       <c r="N251">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.8465522040100666E-2</v>
       </c>
       <c r="R251">
@@ -9154,8 +10688,14 @@
       <c r="S251">
         <v>4980</v>
       </c>
-    </row>
-    <row r="252" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V251">
+        <v>36.694467540632402</v>
+      </c>
+      <c r="W251">
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="252" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C252">
         <v>29.762785073015699</v>
       </c>
@@ -9175,11 +10715,11 @@
         <v>5000</v>
       </c>
       <c r="M252">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>29.79134801122315</v>
       </c>
       <c r="N252">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.8562938207450372E-2</v>
       </c>
       <c r="R252">
@@ -9188,8 +10728,14 @@
       <c r="S252">
         <v>5000</v>
       </c>
-    </row>
-    <row r="253" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V252">
+        <v>36.398793273240003</v>
+      </c>
+      <c r="W252">
+        <v>4660</v>
+      </c>
+    </row>
+    <row r="253" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C253">
         <v>29.591448600296602</v>
       </c>
@@ -9209,11 +10755,11 @@
         <v>5020</v>
       </c>
       <c r="M253">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>29.620103624697901</v>
       </c>
       <c r="N253">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.8655024401299301E-2</v>
       </c>
       <c r="R253">
@@ -9222,8 +10768,14 @@
       <c r="S253">
         <v>5020</v>
       </c>
-    </row>
-    <row r="254" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V253">
+        <v>36.108340248235798</v>
+      </c>
+      <c r="W253">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="254" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C254">
         <v>29.423106117326601</v>
       </c>
@@ -9243,11 +10795,11 @@
         <v>5040</v>
       </c>
       <c r="M254">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>29.452137450014952</v>
       </c>
       <c r="N254">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.9031332688351341E-2</v>
       </c>
       <c r="R254">
@@ -9256,8 +10808,14 @@
       <c r="S254">
         <v>5040</v>
       </c>
-    </row>
-    <row r="255" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V254">
+        <v>35.823018002686297</v>
+      </c>
+      <c r="W254">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="255" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C255">
         <v>29.257706334729999</v>
       </c>
@@ -9277,11 +10835,11 @@
         <v>5060</v>
       </c>
       <c r="M255">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>29.287096853634601</v>
       </c>
       <c r="N255">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.9390518904602203E-2</v>
       </c>
       <c r="R255">
@@ -9290,8 +10848,14 @@
       <c r="S255">
         <v>5060</v>
       </c>
-    </row>
-    <row r="256" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V255">
+        <v>35.544055825936297</v>
+      </c>
+      <c r="W255">
+        <v>4720</v>
+      </c>
+    </row>
+    <row r="256" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C256">
         <v>29.0951989550265</v>
       </c>
@@ -9311,11 +10875,11 @@
         <v>5080</v>
       </c>
       <c r="M256">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>29.124931301636799</v>
       </c>
       <c r="N256">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.9732346610298777E-2</v>
       </c>
       <c r="R256">
@@ -9324,8 +10888,14 @@
       <c r="S256">
         <v>5080</v>
       </c>
-    </row>
-    <row r="257" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V256">
+        <v>35.269992588483802</v>
+      </c>
+      <c r="W256">
+        <v>4740</v>
+      </c>
+    </row>
+    <row r="257" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C257">
         <v>28.935534561197301</v>
       </c>
@@ -9345,11 +10915,11 @@
         <v>5100</v>
       </c>
       <c r="M257">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>28.9658786761252</v>
       </c>
       <c r="N257">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-3.0344114927899568E-2</v>
       </c>
       <c r="R257">
@@ -9358,8 +10928,14 @@
       <c r="S257">
         <v>5100</v>
       </c>
-    </row>
-    <row r="258" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V257">
+        <v>35.000742606749398</v>
+      </c>
+      <c r="W257">
+        <v>4760</v>
+      </c>
+    </row>
+    <row r="258" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C258">
         <v>28.779707801183498</v>
       </c>
@@ -9379,11 +10955,11 @@
         <v>5120</v>
       </c>
       <c r="M258">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>28.809591655809051</v>
       </c>
       <c r="N258">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.9883854625552431E-2</v>
       </c>
       <c r="R258">
@@ -9392,8 +10968,14 @@
       <c r="S258">
         <v>5120</v>
       </c>
-    </row>
-    <row r="259" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V258">
+        <v>34.736221029923598</v>
+      </c>
+      <c r="W258">
+        <v>4780</v>
+      </c>
+    </row>
+    <row r="259" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C259">
         <v>28.626584988584401</v>
       </c>
@@ -9413,11 +10995,11 @@
         <v>5140</v>
       </c>
       <c r="M259">
-        <f t="shared" ref="M259:M302" si="10">(G259+J259)/2</f>
+        <f t="shared" ref="M259:M302" si="12">(G259+J259)/2</f>
         <v>28.656313005732901</v>
       </c>
       <c r="N259">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-2.972801714849993E-2</v>
       </c>
       <c r="R259">
@@ -9426,8 +11008,14 @@
       <c r="S259">
         <v>5140</v>
       </c>
-    </row>
-    <row r="260" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V259">
+        <v>34.476344925371897</v>
+      </c>
+      <c r="W259">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="260" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C260">
         <v>28.476119883901401</v>
       </c>
@@ -9447,11 +11035,11 @@
         <v>5160</v>
       </c>
       <c r="M260">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>28.505694391444202</v>
       </c>
       <c r="N260">
-        <f t="shared" ref="N260:N302" si="11">C260-M260</f>
+        <f t="shared" ref="N260:N302" si="13">C260-M260</f>
         <v>-2.9574507542800887E-2</v>
       </c>
       <c r="R260">
@@ -9460,8 +11048,14 @@
       <c r="S260">
         <v>5160</v>
       </c>
-    </row>
-    <row r="261" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V260">
+        <v>34.2210334009783</v>
+      </c>
+      <c r="W260">
+        <v>4820</v>
+      </c>
+    </row>
+    <row r="261" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C261">
         <v>28.328266143652598</v>
       </c>
@@ -9481,11 +11075,11 @@
         <v>5180</v>
       </c>
       <c r="M261">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>28.357690012046298</v>
       </c>
       <c r="N261">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-2.9423868393699593E-2</v>
       </c>
       <c r="R261">
@@ -9494,8 +11088,14 @@
       <c r="S261">
         <v>5180</v>
       </c>
-    </row>
-    <row r="262" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V261">
+        <v>33.9702074364643</v>
+      </c>
+      <c r="W261">
+        <v>4840</v>
+      </c>
+    </row>
+    <row r="262" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C262">
         <v>28.182978372628501</v>
       </c>
@@ -9515,11 +11115,11 @@
         <v>5200</v>
       </c>
       <c r="M262">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>28.212543037102151</v>
       </c>
       <c r="N262">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-2.9564664473650026E-2</v>
       </c>
       <c r="R262">
@@ -9528,8 +11128,14 @@
       <c r="S262">
         <v>5200</v>
       </c>
-    </row>
-    <row r="263" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V262">
+        <v>33.723789661650997</v>
+      </c>
+      <c r="W262">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="263" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C263">
         <v>28.040212356783599</v>
       </c>
@@ -9549,11 +11155,11 @@
         <v>5220</v>
       </c>
       <c r="M263">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>28.069910122955399</v>
       </c>
       <c r="N263">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-2.9697766171800311E-2</v>
       </c>
       <c r="R263">
@@ -9562,8 +11168,14 @@
       <c r="S263">
         <v>5220</v>
       </c>
-    </row>
-    <row r="264" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V263">
+        <v>33.481704164071701</v>
+      </c>
+      <c r="W263">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="264" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C264">
         <v>27.899925001422901</v>
       </c>
@@ -9583,11 +11195,11 @@
         <v>5240</v>
       </c>
       <c r="M264">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>27.930039239376899</v>
       </c>
       <c r="N264">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.0114237953998924E-2</v>
       </c>
       <c r="R264">
@@ -9596,8 +11208,14 @@
       <c r="S264">
         <v>5240</v>
       </c>
-    </row>
-    <row r="265" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V264">
+        <v>33.243876345930097</v>
+      </c>
+      <c r="W264">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="265" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C265">
         <v>27.762074189190901</v>
       </c>
@@ -9617,11 +11235,11 @@
         <v>5260</v>
       </c>
       <c r="M265">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>27.792585851493101</v>
       </c>
       <c r="N265">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.0511662302199483E-2</v>
       </c>
       <c r="R265">
@@ -9630,8 +11248,14 @@
       <c r="S265">
         <v>5260</v>
       </c>
-    </row>
-    <row r="266" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V265">
+        <v>33.011538980799699</v>
+      </c>
+      <c r="W265">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="266" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C266">
         <v>27.626618642297402</v>
       </c>
@@ -9651,11 +11275,11 @@
         <v>5280</v>
       </c>
       <c r="M266">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>27.6575085341325</v>
       </c>
       <c r="N266">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.0889891835098382E-2</v>
       </c>
       <c r="R266">
@@ -9664,8 +11288,14 @@
       <c r="S266">
         <v>5280</v>
       </c>
-    </row>
-    <row r="267" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V266">
+        <v>32.783259669093503</v>
+      </c>
+      <c r="W266">
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="267" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C267">
         <v>27.493517815363301</v>
       </c>
@@ -9685,11 +11315,11 @@
         <v>5300</v>
       </c>
       <c r="M267">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>27.525055494639751</v>
       </c>
       <c r="N267">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.1537679276450348E-2</v>
       </c>
       <c r="R267">
@@ -9698,8 +11328,14 @@
       <c r="S267">
         <v>5300</v>
       </c>
-    </row>
-    <row r="268" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V267">
+        <v>32.558968116577603</v>
+      </c>
+      <c r="W267">
+        <v>4960</v>
+      </c>
+    </row>
+    <row r="268" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C268">
         <v>27.363767610194898</v>
       </c>
@@ -9719,11 +11355,11 @@
         <v>5320</v>
       </c>
       <c r="M268">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>27.394886905587448</v>
       </c>
       <c r="N268">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.1119295392549873E-2</v>
       </c>
       <c r="R268">
@@ -9732,8 +11368,14 @@
       <c r="S268">
         <v>5320</v>
       </c>
-    </row>
-    <row r="269" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V268">
+        <v>32.338594344149797</v>
+      </c>
+      <c r="W268">
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="269" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C269">
         <v>27.2362512834098</v>
       </c>
@@ -9753,11 +11395,11 @@
         <v>5340</v>
       </c>
       <c r="M269">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>27.266963771325699</v>
       </c>
       <c r="N269">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.0712487915899089E-2</v>
       </c>
       <c r="R269">
@@ -9766,8 +11408,14 @@
       <c r="S269">
         <v>5340</v>
       </c>
-    </row>
-    <row r="270" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V269">
+        <v>32.122069902189502</v>
+      </c>
+      <c r="W269">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="270" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C270">
         <v>27.1109312488413</v>
       </c>
@@ -9787,11 +11435,11 @@
         <v>5360</v>
       </c>
       <c r="M270">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>27.141534576290553</v>
       </c>
       <c r="N270">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.060332744925276E-2</v>
       </c>
       <c r="R270">
@@ -9800,8 +11448,14 @@
       <c r="S270">
         <v>5360</v>
       </c>
-    </row>
-    <row r="271" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V270">
+        <v>31.909328078666601</v>
+      </c>
+      <c r="W270">
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="271" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C271">
         <v>26.987769524270298</v>
       </c>
@@ -9821,11 +11475,11 @@
         <v>5380</v>
       </c>
       <c r="M271">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>27.018264021817899</v>
       </c>
       <c r="N271">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.0494497547600474E-2</v>
       </c>
       <c r="R271">
@@ -9834,8 +11488,14 @@
       <c r="S271">
         <v>5380</v>
       </c>
-    </row>
-    <row r="272" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V271">
+        <v>31.700303775580199</v>
+      </c>
+      <c r="W271">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="272" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C272">
         <v>26.8667288231226</v>
       </c>
@@ -9855,11 +11515,11 @@
         <v>5400</v>
       </c>
       <c r="M272">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>26.897405181081602</v>
       </c>
       <c r="N272">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.0676357959002587E-2</v>
       </c>
       <c r="R272">
@@ -9868,8 +11528,14 @@
       <c r="S272">
         <v>5400</v>
       </c>
-    </row>
-    <row r="273" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V272">
+        <v>31.494933308910301</v>
+      </c>
+      <c r="W272">
+        <v>5060</v>
+      </c>
+    </row>
+    <row r="273" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C273">
         <v>26.747772845745299</v>
       </c>
@@ -9889,11 +11555,11 @@
         <v>5420</v>
       </c>
       <c r="M273">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>26.77862125537515</v>
       </c>
       <c r="N273">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.0848409629850693E-2</v>
       </c>
       <c r="R273">
@@ -9902,8 +11568,14 @@
       <c r="S273">
         <v>5420</v>
       </c>
-    </row>
-    <row r="274" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V273">
+        <v>31.293154226235099</v>
+      </c>
+      <c r="W273">
+        <v>5080</v>
+      </c>
+    </row>
+    <row r="274" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C274">
         <v>26.630866255332801</v>
       </c>
@@ -9923,11 +11595,11 @@
         <v>5440</v>
       </c>
       <c r="M274">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>26.6618769747062</v>
       </c>
       <c r="N274">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.1010719373398388E-2</v>
       </c>
       <c r="R274">
@@ -9936,8 +11608,14 @@
       <c r="S274">
         <v>5440</v>
       </c>
-    </row>
-    <row r="275" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V274">
+        <v>31.0949051683676</v>
+      </c>
+      <c r="W274">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="275" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C275">
         <v>26.515974556087901</v>
       </c>
@@ -9957,11 +11635,11 @@
         <v>5460</v>
       </c>
       <c r="M275">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>26.547425377165801</v>
       </c>
       <c r="N275">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.1450821077900315E-2</v>
       </c>
       <c r="R275">
@@ -9970,8 +11648,14 @@
       <c r="S275">
         <v>5460</v>
       </c>
-    </row>
-    <row r="276" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V275">
+        <v>30.901421150908199</v>
+      </c>
+      <c r="W275">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="276" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C276">
         <v>26.403063965330102</v>
       </c>
@@ -9991,11 +11675,11 @@
         <v>5480</v>
       </c>
       <c r="M276">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>26.434933896026351</v>
       </c>
       <c r="N276">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.1869930696249327E-2</v>
       </c>
       <c r="R276">
@@ -10004,8 +11688,14 @@
       <c r="S276">
         <v>5480</v>
       </c>
-    </row>
-    <row r="277" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V276">
+        <v>30.711294519617699</v>
+      </c>
+      <c r="W276">
+        <v>5140</v>
+      </c>
+    </row>
+    <row r="277" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C277">
         <v>26.292101310962</v>
       </c>
@@ -10025,11 +11715,11 @@
         <v>5500</v>
       </c>
       <c r="M277">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>26.324369345831052</v>
       </c>
       <c r="N277">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.2268034869051831E-2</v>
       </c>
       <c r="R277">
@@ -10038,8 +11728,14 @@
       <c r="S277">
         <v>5500</v>
       </c>
-    </row>
-    <row r="278" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V277">
+        <v>30.524467860711798</v>
+      </c>
+      <c r="W277">
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="278" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C278">
         <v>26.1830539593286</v>
       </c>
@@ -10059,11 +11755,11 @@
         <v>5520</v>
       </c>
       <c r="M278">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>26.215984824241097</v>
       </c>
       <c r="N278">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.2930864912497526E-2</v>
       </c>
       <c r="R278">
@@ -10072,8 +11768,14 @@
       <c r="S278">
         <v>5520</v>
       </c>
-    </row>
-    <row r="279" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V278">
+        <v>30.340883631294599</v>
+      </c>
+      <c r="W278">
+        <v>5180</v>
+      </c>
+    </row>
+    <row r="279" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C279">
         <v>26.076901645537699</v>
       </c>
@@ -10093,11 +11795,11 @@
         <v>5540</v>
       </c>
       <c r="M279">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>26.1094518581877</v>
       </c>
       <c r="N279">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.2550212650001242E-2</v>
       </c>
       <c r="R279">
@@ -10106,8 +11808,14 @@
       <c r="S279">
         <v>5540</v>
       </c>
-    </row>
-    <row r="280" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V279">
+        <v>30.160485465902699</v>
+      </c>
+      <c r="W279">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="280" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C280">
         <v>25.972560693307301</v>
       </c>
@@ -10127,11 +11835,11 @@
         <v>5560</v>
       </c>
       <c r="M280">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>26.005028000419252</v>
       </c>
       <c r="N280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.2467307111950561E-2</v>
       </c>
       <c r="R280">
@@ -10140,8 +11848,14 @@
       <c r="S280">
         <v>5560</v>
       </c>
-    </row>
-    <row r="281" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V280">
+        <v>29.983218465678299</v>
+      </c>
+      <c r="W280">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="281" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C281">
         <v>25.870001150599499</v>
       </c>
@@ -10161,11 +11875,11 @@
         <v>5580</v>
       </c>
       <c r="M281">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>25.90238302219775</v>
       </c>
       <c r="N281">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.2381871598250456E-2</v>
       </c>
       <c r="R281">
@@ -10174,8 +11888,14 @@
       <c r="S281">
         <v>5580</v>
       </c>
-    </row>
-    <row r="282" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V281">
+        <v>29.809029121617499</v>
+      </c>
+      <c r="W281">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="282" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C282">
         <v>25.7691924521469</v>
       </c>
@@ -10195,11 +11915,11 @@
         <v>5600</v>
       </c>
       <c r="M282">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>25.801486957518001</v>
       </c>
       <c r="N282">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.2294505371101678E-2</v>
       </c>
       <c r="R282">
@@ -10208,8 +11928,14 @@
       <c r="S282">
         <v>5600</v>
       </c>
-    </row>
-    <row r="283" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V282">
+        <v>29.6378651382405</v>
+      </c>
+      <c r="W282">
+        <v>5260</v>
+      </c>
+    </row>
+    <row r="283" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C283">
         <v>25.670104502065399</v>
       </c>
@@ -10229,11 +11955,11 @@
         <v>5620</v>
       </c>
       <c r="M283">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>25.702597143517799</v>
       </c>
       <c r="N283">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.2492641452400051E-2</v>
       </c>
       <c r="R283">
@@ -10242,8 +11968,14 @@
       <c r="S283">
         <v>5620</v>
       </c>
-    </row>
-    <row r="284" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V283">
+        <v>29.469675262523499</v>
+      </c>
+      <c r="W283">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="284" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C284">
         <v>25.572708011204501</v>
       </c>
@@ -10263,11 +11995,11 @@
         <v>5640</v>
       </c>
       <c r="M284">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>25.605387163693898</v>
       </c>
       <c r="N284">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.2679152489397012E-2</v>
       </c>
       <c r="R284">
@@ -10276,8 +12008,14 @@
       <c r="S284">
         <v>5640</v>
       </c>
-    </row>
-    <row r="285" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V284">
+        <v>29.304409150848699</v>
+      </c>
+      <c r="W284">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="285" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C285">
         <v>25.476974510742501</v>
       </c>
@@ -10297,11 +12035,11 @@
         <v>5660</v>
       </c>
       <c r="M285">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>25.509828849699502</v>
       </c>
       <c r="N285">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.2854338957001517E-2</v>
       </c>
       <c r="R285">
@@ -10310,8 +12048,14 @@
       <c r="S285">
         <v>5660</v>
       </c>
-    </row>
-    <row r="286" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V285">
+        <v>29.143303375692199</v>
+      </c>
+      <c r="W285">
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="286" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C286">
         <v>25.382876253207499</v>
       </c>
@@ -10331,11 +12075,11 @@
         <v>5680</v>
       </c>
       <c r="M286">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>25.41617944484215</v>
       </c>
       <c r="N286">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.3303191634651341E-2</v>
       </c>
       <c r="R286">
@@ -10344,8 +12088,14 @@
       <c r="S286">
         <v>5680</v>
       </c>
-    </row>
-    <row r="287" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V286">
+        <v>28.984971320300399</v>
+      </c>
+      <c r="W286">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="287" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C287">
         <v>25.290386096882699</v>
       </c>
@@ -10365,11 +12115,11 @@
         <v>5700</v>
       </c>
       <c r="M287">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>25.32411622563685</v>
       </c>
       <c r="N287">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.3730128754150712E-2</v>
       </c>
       <c r="R287">
@@ -10378,8 +12128,14 @@
       <c r="S287">
         <v>5700</v>
       </c>
-    </row>
-    <row r="288" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V287">
+        <v>28.8293663153942</v>
+      </c>
+      <c r="W287">
+        <v>5360</v>
+      </c>
+    </row>
+    <row r="288" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C288">
         <v>25.199477409357701</v>
       </c>
@@ -10399,11 +12155,11 @@
         <v>5720</v>
       </c>
       <c r="M288">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>25.233900797295547</v>
       </c>
       <c r="N288">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.4423387937845717E-2</v>
       </c>
       <c r="R288">
@@ -10412,8 +12168,14 @@
       <c r="S288">
         <v>5720</v>
       </c>
-    </row>
-    <row r="289" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V288">
+        <v>28.676441199932</v>
+      </c>
+      <c r="W288">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="289" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C289">
         <v>25.1111313890807</v>
       </c>
@@ -10433,11 +12195,11 @@
         <v>5740</v>
       </c>
       <c r="M289">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>25.145208438984952</v>
       </c>
       <c r="N289">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.4077049904251311E-2</v>
       </c>
       <c r="R289">
@@ -10446,8 +12208,14 @@
       <c r="S289">
         <v>5740</v>
       </c>
-    </row>
-    <row r="290" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V289">
+        <v>28.5261496766269</v>
+      </c>
+      <c r="W289">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="290" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C290">
         <v>25.024275570851898</v>
       </c>
@@ -10467,11 +12235,11 @@
         <v>5760</v>
       </c>
       <c r="M290">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>25.058013765300998</v>
       </c>
       <c r="N290">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.3738194449099979E-2</v>
       </c>
       <c r="R290">
@@ -10480,8 +12248,14 @@
       <c r="S290">
         <v>5760</v>
       </c>
-    </row>
-    <row r="291" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V290">
+        <v>28.378446673614398</v>
+      </c>
+      <c r="W290">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="291" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C291">
         <v>24.938885948295699</v>
       </c>
@@ -10501,11 +12275,11 @@
         <v>5780</v>
       </c>
       <c r="M291">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>24.972578039240449</v>
       </c>
       <c r="N291">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.3692090944750674E-2</v>
       </c>
       <c r="R291">
@@ -10514,8 +12288,14 @@
       <c r="S291">
         <v>5780</v>
       </c>
-    </row>
-    <row r="292" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V291">
+        <v>28.233288314559299</v>
+      </c>
+      <c r="W291">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="292" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C292">
         <v>24.854937737476298</v>
       </c>
@@ -10535,11 +12315,11 @@
         <v>5800</v>
       </c>
       <c r="M292">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>24.88857995656555</v>
       </c>
       <c r="N292">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.3642219089252023E-2</v>
       </c>
       <c r="R292">
@@ -10548,8 +12328,14 @@
       <c r="S292">
         <v>5800</v>
       </c>
-    </row>
-    <row r="293" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V292">
+        <v>28.090631767374099</v>
+      </c>
+      <c r="W292">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="293" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C293">
         <v>24.772406431987399</v>
       </c>
@@ -10569,11 +12355,11 @@
         <v>5820</v>
       </c>
       <c r="M293">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>24.805995679233749</v>
       </c>
       <c r="N293">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.3589247246350595E-2</v>
       </c>
       <c r="R293">
@@ -10582,8 +12368,14 @@
       <c r="S293">
         <v>5820</v>
       </c>
-    </row>
-    <row r="294" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V293">
+        <v>27.950435085420398</v>
+      </c>
+      <c r="W293">
+        <v>5480</v>
+      </c>
+    </row>
+    <row r="294" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C294">
         <v>24.691268176736099</v>
       </c>
@@ -10603,11 +12395,11 @@
         <v>5840</v>
       </c>
       <c r="M294">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>24.725086273745852</v>
       </c>
       <c r="N294">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.3818097009753245E-2</v>
       </c>
       <c r="R294">
@@ -10616,8 +12408,14 @@
       <c r="S294">
         <v>5840</v>
       </c>
-    </row>
-    <row r="295" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V294">
+        <v>27.812657080197301</v>
+      </c>
+      <c r="W294">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="295" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C295">
         <v>24.611499814747699</v>
       </c>
@@ -10637,11 +12435,11 @@
         <v>5860</v>
       </c>
       <c r="M295">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>24.645533749594151</v>
       </c>
       <c r="N295">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.4033934846451785E-2</v>
       </c>
       <c r="R295">
@@ -10650,8 +12448,14 @@
       <c r="S295">
         <v>5860</v>
       </c>
-    </row>
-    <row r="296" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V295">
+        <v>27.6772572317665</v>
+      </c>
+      <c r="W295">
+        <v>5520</v>
+      </c>
+    </row>
+    <row r="296" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C296">
         <v>24.533078808609599</v>
       </c>
@@ -10671,11 +12475,11 @@
         <v>5880</v>
       </c>
       <c r="M296">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>24.567315717249951</v>
       </c>
       <c r="N296">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.4236908640352226E-2</v>
       </c>
       <c r="R296">
@@ -10684,8 +12488,14 @@
       <c r="S296">
         <v>5880</v>
       </c>
-    </row>
-    <row r="297" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V296">
+        <v>27.545452039044399</v>
+      </c>
+      <c r="W296">
+        <v>5540</v>
+      </c>
+    </row>
+    <row r="297" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C297">
         <v>24.455983135778901</v>
       </c>
@@ -10705,11 +12515,11 @@
         <v>5900</v>
       </c>
       <c r="M297">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>24.490692990748151</v>
       </c>
       <c r="N297">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.4709854969250387E-2</v>
       </c>
       <c r="R297">
@@ -10718,8 +12528,14 @@
       <c r="S297">
         <v>5900</v>
       </c>
-    </row>
-    <row r="298" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V297">
+        <v>27.415895943408</v>
+      </c>
+      <c r="W297">
+        <v>5560</v>
+      </c>
+    </row>
+    <row r="298" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C298">
         <v>24.380191197560698</v>
       </c>
@@ -10739,11 +12555,11 @@
         <v>5920</v>
       </c>
       <c r="M298">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>24.415350722879651</v>
       </c>
       <c r="N298">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.5159525318952944E-2</v>
       </c>
       <c r="R298">
@@ -10752,8 +12568,14 @@
       <c r="S298">
         <v>5920</v>
       </c>
-    </row>
-    <row r="299" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V298">
+        <v>27.2885517545784</v>
+      </c>
+      <c r="W298">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="299" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C299">
         <v>24.306686499579701</v>
       </c>
@@ -10773,11 +12595,11 @@
         <v>5940</v>
       </c>
       <c r="M299">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>24.3415539854923</v>
       </c>
       <c r="N299">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.486748591259925E-2</v>
       </c>
       <c r="R299">
@@ -10786,8 +12608,14 @@
       <c r="S299">
         <v>5940</v>
       </c>
-    </row>
-    <row r="300" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V299">
+        <v>27.1633815208539</v>
+      </c>
+      <c r="W299">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="300" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C300">
         <v>24.2344049138011</v>
       </c>
@@ -10807,11 +12635,11 @@
         <v>5960</v>
       </c>
       <c r="M300">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>24.268985629657649</v>
       </c>
       <c r="N300">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.4580715856549205E-2</v>
       </c>
       <c r="R300">
@@ -10820,8 +12648,14 @@
       <c r="S300">
         <v>5960</v>
       </c>
-    </row>
-    <row r="301" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V300">
+        <v>27.040347873347699</v>
+      </c>
+      <c r="W300">
+        <v>5620</v>
+      </c>
+    </row>
+    <row r="301" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C301">
         <v>24.163327349152301</v>
       </c>
@@ -10841,11 +12675,11 @@
         <v>5980</v>
       </c>
       <c r="M301">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>24.197625515263802</v>
       </c>
       <c r="N301">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.429816611150116E-2</v>
       </c>
       <c r="R301">
@@ -10854,8 +12688,14 @@
       <c r="S301">
         <v>5980</v>
       </c>
-    </row>
-    <row r="302" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="V301">
+        <v>26.9194144448625</v>
+      </c>
+      <c r="W301">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="302" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C302">
         <v>24.0934338090028</v>
       </c>
@@ -10875,11 +12715,11 @@
         <v>6000</v>
       </c>
       <c r="M302">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>24.127738281399452</v>
       </c>
       <c r="N302">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.430447239665213E-2</v>
       </c>
       <c r="R302">
@@ -10888,117 +12728,231 @@
       <c r="S302">
         <v>6000</v>
       </c>
-    </row>
-    <row r="305" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="V302">
+        <v>26.800545886771499</v>
+      </c>
+      <c r="W302">
+        <v>5660</v>
+      </c>
+    </row>
+    <row r="303" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="V303">
+        <v>26.683707746119801</v>
+      </c>
+      <c r="W303">
+        <v>5680</v>
+      </c>
+    </row>
+    <row r="304" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="V304">
+        <v>26.568866322094902</v>
+      </c>
+      <c r="W304">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="305" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C305" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="307" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="V305">
+        <v>26.4559885462705</v>
+      </c>
+      <c r="W305">
+        <v>5720</v>
+      </c>
+    </row>
+    <row r="306" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="V306">
+        <v>26.346292734535499</v>
+      </c>
+      <c r="W306">
+        <v>5740</v>
+      </c>
+    </row>
+    <row r="307" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C307">
         <v>1099.7439398628301</v>
       </c>
       <c r="D307">
         <v>20</v>
       </c>
-    </row>
-    <row r="308" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="V307">
+        <v>26.238447248630901</v>
+      </c>
+      <c r="W307">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="308" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C308">
         <v>1070.5347209927199</v>
       </c>
       <c r="D308">
         <v>40</v>
       </c>
-    </row>
-    <row r="309" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="V308">
+        <v>26.132422280775302</v>
+      </c>
+      <c r="W308">
+        <v>5780</v>
+      </c>
+    </row>
+    <row r="309" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C309">
         <v>1048.6836863021899</v>
       </c>
       <c r="D309">
         <v>60</v>
       </c>
-    </row>
-    <row r="310" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="V309">
+        <v>26.028187057721102</v>
+      </c>
+      <c r="W309">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="310" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C310">
         <v>1030.30414161923</v>
       </c>
       <c r="D310">
         <v>80</v>
       </c>
-    </row>
-    <row r="311" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="V310">
+        <v>25.925711150818199</v>
+      </c>
+      <c r="W310">
+        <v>5820</v>
+      </c>
+    </row>
+    <row r="311" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C311">
         <v>1013.771052082</v>
       </c>
       <c r="D311">
         <v>100</v>
       </c>
-    </row>
-    <row r="312" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="V311">
+        <v>25.824964940127099</v>
+      </c>
+      <c r="W311">
+        <v>5840</v>
+      </c>
+    </row>
+    <row r="312" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C312">
         <v>998.25019174022702</v>
       </c>
       <c r="D312">
         <v>120</v>
       </c>
-    </row>
-    <row r="313" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="V312">
+        <v>25.725919672534399</v>
+      </c>
+      <c r="W312">
+        <v>5860</v>
+      </c>
+    </row>
+    <row r="313" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C313">
         <v>983.27588608406199</v>
       </c>
       <c r="D313">
         <v>140</v>
       </c>
-    </row>
-    <row r="314" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="V313">
+        <v>25.628547364212899</v>
+      </c>
+      <c r="W313">
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="314" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C314">
         <v>968.58409282116895</v>
       </c>
       <c r="D314">
         <v>160</v>
       </c>
-    </row>
-    <row r="315" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="V314">
+        <v>25.532820670629</v>
+      </c>
+      <c r="W314">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="315" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C315">
         <v>954.02948766930297</v>
       </c>
       <c r="D315">
         <v>180</v>
       </c>
-    </row>
-    <row r="316" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="V315">
+        <v>25.438712773524699</v>
+      </c>
+      <c r="W315">
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="316" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C316">
         <v>939.53977322018898</v>
       </c>
       <c r="D316">
         <v>200</v>
       </c>
-    </row>
-    <row r="317" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="V316">
+        <v>25.347444853520201</v>
+      </c>
+      <c r="W316">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="317" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C317">
         <v>925.08260891889699</v>
       </c>
       <c r="D317">
         <v>220</v>
       </c>
-    </row>
-    <row r="318" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="V317">
+        <v>25.257695624289301</v>
+      </c>
+      <c r="W317">
+        <v>5960</v>
+      </c>
+    </row>
+    <row r="318" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C318">
         <v>910.65230401214603</v>
       </c>
       <c r="D318">
         <v>240</v>
       </c>
-    </row>
-    <row r="319" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="V318">
+        <v>25.169441381191099</v>
+      </c>
+      <c r="W318">
+        <v>5980</v>
+      </c>
+    </row>
+    <row r="319" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C319">
         <v>896.25717503907197</v>
       </c>
       <c r="D319">
         <v>260</v>
       </c>
-    </row>
-    <row r="320" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="V319">
+        <v>25.082657295188199</v>
+      </c>
+      <c r="W319">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="320" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C320">
         <v>881.91267144852202</v>
       </c>
